--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -1225,7 +1225,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,51 +1425,51 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>Aadhar Mangukiya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Aadhar Mangukiya</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>XYZ456</t>
+          <t>APQWREHU124</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>DHRUV SHAH</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>FACTORY INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>DHRUV SHAH</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09/10/2025</t>
+          <t>12/10/2025</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>31/10/2025</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>08/10/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -1479,33 +1479,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>DHRUV SHAH</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>DHRUV SHAH</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Karjat Factory Insurance</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>100000</v>
+          <t>TOYOTA HYRYDER</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="Q2" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="R2" t="n">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -1519,43 +1516,28 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>UPI</t>
+          <t>CASH</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>EC1M2.pdf</t>
+          <t>Experiment 1.pdf</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1NeCrMXIywgK0_qfBrOwuDlglV1zNvhfq/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/145CfjaCVpXEtXhV3r6sVObdkAQMFpEk3/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-10-09T09:57:18.264201+00:00</t>
+          <t>2025-10-12T12:14:41.249907+00:00</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-09T09:57:18.264201+00:00</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
+          <t>2025-10-12T12:14:41.249907+00:00</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1672,6 +1654,381 @@
       <c r="Z3" t="inlineStr">
         <is>
           <t>2025-10-10T15:28:50.652041+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>XYZ456</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FACTORY INSURANCE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>08/10/2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Karjat Factory Insurance</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1NeCrMXIywgK0_qfBrOwuDlglV1zNvhfq/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2025-10-09T09:57:18.264201+00:00</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-10-09T09:57:18.264201+00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>OOIHASF124413</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ICICI LOMBARD</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HOME INSURANCE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11/10/2025</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>05/10/2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Golden Square Home Insurance</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Deerwester_1990.pdf</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1H5ZydPDZFqtH6A2aMJIlTDX96DdEOdL1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2025-10-11T08:42:07.216414+00:00</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-10-11T08:42:07.216414+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>JPOASF210947</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12/10/2025</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Access 125 - MH02CJ4900</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>15</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Experiment 1.pdf</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1eXv-OcHZg0Knvf3DKPTObFd8CtjI7a7b/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2025-10-12T11:43:52.214728+00:00</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-10-12T11:43:52.214728+00:00</t>
         </is>
       </c>
     </row>
@@ -1686,7 +2043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1809,6 +2166,33 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AM01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Aadhar Mangukiya</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>918850967207</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>aadhar2400@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1820,7 +2204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,6 +2369,36 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>919820243368</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>AM01</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Aadhar Mangukiya</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Aadhar Mangukiya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>aadhar2400@gmail.com</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>918850967207</t>
         </is>
       </c>
     </row>

--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="2025-26" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Clients" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Members" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Pending Policies" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,36 +439,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="26" customWidth="1" min="4" max="4"/>
-    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="44" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="37" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
     <col width="13" customWidth="1" min="16" max="16"/>
     <col width="15" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="14" customWidth="1" min="19" max="19"/>
-    <col width="21" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="17" customWidth="1" min="22" max="22"/>
-    <col width="40" customWidth="1" min="23" max="23"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="17" customWidth="1" min="23" max="23"/>
     <col width="50" customWidth="1" min="24" max="24"/>
-    <col width="34" customWidth="1" min="25" max="25"/>
+    <col width="50" customWidth="1" min="25" max="25"/>
     <col width="34" customWidth="1" min="26" max="26"/>
-    <col width="18" customWidth="1" min="27" max="27"/>
-    <col width="25" customWidth="1" min="28" max="28"/>
-    <col width="29" customWidth="1" min="29" max="29"/>
-    <col width="23" customWidth="1" min="30" max="30"/>
-    <col width="22" customWidth="1" min="31" max="31"/>
+    <col width="34" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="25" customWidth="1" min="31" max="31"/>
     <col width="29" customWidth="1" min="32" max="32"/>
     <col width="23" customWidth="1" min="33" max="33"/>
     <col width="22" customWidth="1" min="34" max="34"/>
@@ -578,87 +579,87 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Commission Amount</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Commission Received</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>One Time Insurance</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Payment Details</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>File Path</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Drive URL</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Created At</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Updated At</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Health Plan Type</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Floater Sum Insured</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Floater Bonus</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Health Member 1 Name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Health Member 1 Sum Insured</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Health Member 1 Bonus</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Name</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Sum Insured</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Bonus</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Health Member 3 Name</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Health Member 3 Sum Insured</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Health Member 3 Bonus</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -693,132 +694,117 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NIMESH CHITALIA</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12-8457-0000211811-00</t>
+          <t>6205373493</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BAJAJ GENERAL INSURANCE LTD</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16/10/2026</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16/10/2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>09/10/2026</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CHITALIA FAMILY</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - NIMESH CHITALIA</t>
-        </is>
+          <t>MH-02-GB-9665(T.NEXON)</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1619626</v>
       </c>
       <c r="P2" t="n">
-        <v>74860</v>
+        <v>23509</v>
       </c>
       <c r="Q2" t="n">
-        <v>74860</v>
+        <v>27878</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>4701.80</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Nimesh Chitalia.pdf</t>
-        </is>
-      </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yrwq9pxnjqGVwDD6EWgMu1a1Ve_0rL91/view?usp=drivesdk</t>
+          <t>Sameer Shah(9665).pdf</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-10-16T07:23:43.456435+00:00</t>
+          <t>https://drive.google.com/file/d/1N1lgK93bR7tWtHYylB-jnKWCsxtPUluh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T07:23:43.456435+00:00</t>
+          <t>2025-10-18T15:35:02.13923+00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>NIMESH CHITALIA</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>DARSHANA CHITALIA</t>
+          <t>2025-10-18T15:35:02.13923+00:00</t>
         </is>
       </c>
     </row>
@@ -828,22 +814,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JAY CHITALIA</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12-8457-0000208310-00</t>
+          <t>12-8456-0000098117-00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BAJAJ GENERAL INSURANCE LTD</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -853,49 +839,49 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>28/09/2028</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>29/09/2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>09/10/2026</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>GOLDEN SQUARE</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - JAY CHITALIA</t>
+          <t>HEALTH INSURANCE - SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>19850</v>
+        <v>70667</v>
       </c>
       <c r="Q3" t="n">
-        <v>19850</v>
+        <v>70667</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -905,56 +891,59 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>12720.06</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Jay Chitalia.pdf</t>
-        </is>
-      </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1iBkfLwpfsbqL62UE0r_D2tNHOocLTVT3/view?usp=drivesdk</t>
+          <t>Sachin Sivaraman.pdf</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-10-16T07:29:01.256362+00:00</t>
+          <t>https://drive.google.com/file/d/1Fo2P8UzXmzyxMSikJ45LIToQTPqC-E5o/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T07:29:01.256362+00:00</t>
+          <t>2025-10-18T15:40:36.184566+00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>FLOATER</t>
+          <t>2025-10-18T15:40:36.184566+00:00</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>JAY CHITALIA</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000000</v>
+          <t>INDIVIDUAL</t>
+        </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>KAJOL RATHOD</t>
-        </is>
+          <t>SACHIN SIVARAMAN</t>
+        </is>
+      </c>
+      <c r="AF3" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -963,128 +952,118 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAKSHI CHITALIA</t>
+          <t>Rajkumar Vishwakarma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12-8456-0000100889-00</t>
+          <t>6205386972</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BAJAJ GENERAL INSURANCE LTD</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>09/10/2026</t>
+          <t>21/10/2026</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>10/10/2025</t>
+          <t>18/10/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>ROLL OVER</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - SAKSHI CHITALIA</t>
-        </is>
+          <t>MH-47-BT-7258(K.CARENS)</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>987278</v>
       </c>
       <c r="P4" t="n">
-        <v>13346</v>
+        <v>11498</v>
       </c>
       <c r="Q4" t="n">
-        <v>13346</v>
+        <v>13705</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
+          <t>1724.70</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Sakshi Chitalia.pdf</t>
-        </is>
-      </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/114dsIBNX9Leyb22eg77mySQub1SlnA5G/view?usp=drivesdk</t>
+          <t>Rajkumar Vishwakarma.pdf</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-10-16T08:07:16.124812+00:00</t>
+          <t>https://drive.google.com/file/d/1kjevodve4R8QXE4F3i0i-jySySds191l/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T08:07:16.124812+00:00</t>
+          <t>2025-10-18T15:52:03.352872+00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>SAKSHI CHITALIA</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>1000000</v>
+          <t>2025-10-18T15:52:03.352872+00:00</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1093,22 +1072,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AJIT SANSARE</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AJIT SANSARE</t>
+          <t>Prancons Infratech Private Limited</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>OG-26-1908-1802-00001290</t>
+          <t>6303467813</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BAJAJ ALLIANZ GENERAL INSURANCE CO LTD</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1118,89 +1097,92 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>19/10/2025</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>19/10/2026</t>
+          <t>18/10/2026</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16/10/2025</t>
+          <t>17/10/2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>ROLL OVER</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>INDREX</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MH-02-AD-3707(HERO HONDA)</t>
-        </is>
+          <t>MH-04-JU-9021</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>2673714</v>
       </c>
       <c r="P5" t="n">
-        <v>93</v>
+        <v>6517</v>
       </c>
       <c r="Q5" t="n">
-        <v>1426</v>
+        <v>54263</v>
       </c>
       <c r="R5" t="n">
-        <v>1115</v>
+        <v>44342</v>
       </c>
       <c r="S5" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
+          <t>977.55</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Ajit Sansare(3707).pdf</t>
-        </is>
-      </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1BU3KZ2NwH1DT2YA-v0yfCa1HNWQfI3Ih/view?usp=drivesdk</t>
+          <t>Prancons Infratech Private Limited.pdf</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-10-16T11:11:32.302351+00:00</t>
+          <t>https://drive.google.com/file/d/1v7EC8_NFsgP6rO0PeEGSDDvCWwZaPDz7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T11:11:32.302351+00:00</t>
+          <t>2025-10-18T15:59:43.83784+00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-10-18T15:59:43.83784+00:00</t>
         </is>
       </c>
     </row>
@@ -1210,22 +1192,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AMRIK SINGH MANHAS</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SIMARPREET KAUR MINHAS</t>
+          <t>ANDREA EUGENE FERNANDES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7000302503</t>
+          <t>7030055980</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TATA AIG GENERAL INSURANCE CO LTD</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1235,17 +1217,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>SWETA SHAH</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>24/10/2025</t>
+          <t>18/10/2025</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>23/10/2026</t>
+          <t>17/10/2028</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1255,137 +1237,137 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>ROLL OVER</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>MANHAS</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - SIMARPREET KAUR MANHAS</t>
+          <t>HEALTH INSURANCE - AUDREY FERNANDES</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>22168</v>
+        <v>123097</v>
       </c>
       <c r="Q6" t="n">
-        <v>22168</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
+        <v>123097</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
+          <t>18464.55</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Simarpreet Manhas(Health).pdf</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gq-AfXJEIIDtk7JdGAOdfOCGGujTJ3f_/view?usp=drivesdk</t>
+          <t>Andrea Fernandes.pdf</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-10-16T11:20:47.114633+00:00</t>
+          <t>https://drive.google.com/file/d/13kK1gTUHIAaBBacJiIYweDkCBSpCF7o7/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T11:20:47.114633+00:00</t>
+          <t>2025-10-18T16:05:36.675594+00:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
+          <t>2025-10-18T16:05:36.675594+00:00</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
           <t>FLOATER</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>SIMARPREET KAUR MANHAS</t>
-        </is>
-      </c>
       <c r="AC6" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>AARAV SINGH PARMAR</t>
+          <t>AUDREY EUGENE FERNANDES</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>DARREN D'SOUZA</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>PRASHANT SHAH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEHA NARESH GANDHI</t>
+          <t xml:space="preserve"> Penta Freight Private Limited</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7102741590</t>
+          <t>6205357796</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TATA AIG GENERAL INSURANCE CO LTD</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>SWETA SHAH</t>
+          <t>FORTUNE FIVE</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>18/12/2025</t>
+          <t>13/10/2028</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1395,933 +1377,67 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
+          <t>FORTUNE FIVE</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE - USA/CANADA</t>
-        </is>
+          <t>NEW BMW</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>4662885</v>
       </c>
       <c r="P7" t="n">
-        <v>4886</v>
+        <v>145707</v>
       </c>
       <c r="Q7" t="n">
-        <v>4886</v>
+        <v>172346</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>26996</v>
       </c>
       <c r="S7" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>26227.26</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
           <t>ONLINE</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Neha Gandhi.pdf</t>
-        </is>
-      </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/16qyZZReUIyXS0cR7tyR7Akmjg3Guz-BX/view?usp=drivesdk</t>
+          <t>Tata_AIG_Motor_Policy_Schedule_3184_6205357796.pdf</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-10-16T11:38:23.496022+00:00</t>
+          <t>https://drive.google.com/file/d/1rHwy2aKMxQW0sZXpaJ6G5eUtJES_pIKH/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T11:38:23.496022+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7102741626</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>TATA AIG GENERAL INSURANCE CO LTD</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>TRAVEL INSURANCE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>SWETA SHAH</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>18/12/2025</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>16/10/2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>TRAVEL INSURANCE - USA/CANADA</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>35430</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>35430</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>40</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Naresh Gandhi.pdf</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1faxxdFS8BQBLX-Sxq5JSHG6kzXiZG60o/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-10-16T11:40:08.08404+00:00</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>2025-10-16T11:40:08.08404+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>15</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CHIRAG JOSHI</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SUMEET MEHTA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12-8456-0000102889-00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Bajaj General Insurance Limited</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>15/10/2025</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>14/10/2026</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>15/10/2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>RENEWAL</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>CHIRAG JOSHI</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE - SUMEET MEHTA</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>31103</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>31103</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>15</v>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>CHQ-000125</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Sumeet Mehta.pdf</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1Lj5kRLtp09JSSwYWkYpGIpDZknRC0zaG/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-10-17T20:43:36.760616+00:00</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>2025-10-17T20:43:36.760616+00:00</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>SUMEET MEHTA</t>
-        </is>
-      </c>
-      <c r="AC9" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1575000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6205373493</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>MOTOR INSURANCE</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>17/10/2025</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>16/10/2026</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>16/10/2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>RENEWAL</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>MH-02-GB-9665(T.NEXON)</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>23509</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>27878</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Sameer Shah(9665).pdf</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1YYgXHMW5RDV-0m91dAeiQbnx3wFF5yD7/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-10-16T17:24:18.668626+00:00</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>2025-10-16T17:24:18.668626+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>HARSHA GANDHI</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7102741672</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>TRAVEL INSURANCE</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>20/10/2025</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>18/12/2025</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>16/10/2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>NARESH GANDHI</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>TRAVEL INSURANCE - USA/CANADA</t>
-        </is>
-      </c>
-      <c r="O11" t="n">
-        <v>500000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>29379</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>29379</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>40</v>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>Harsha Gandhi.pdf</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1C6sfameXvV9X3Ojo2w69ZdxRhG_txAXG/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2025-10-16T11:50:05.845519+00:00</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>2025-10-16T11:50:05.845519+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NAMAN BHAT</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>PRANCONS INFRATECH PVT LTD</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6303467813</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>MOTOR INSURANCE</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>19/10/2025</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>18/10/2026</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>17/10/2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>ROLL OVER</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>NAMAN BHAT</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>PRANCONS</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>MH-04-JU-9021(A.LEYLAND)</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>2673714</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6517</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>54263</v>
-      </c>
-      <c r="R12" t="n">
-        <v>44242</v>
-      </c>
-      <c r="S12" t="n">
-        <v>15</v>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>Prancons Infratech Private Limited.pdf</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1l9cOqUjmxz8Zlag0oanXKbNuQB8K1BY_/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2025-10-17T12:13:14.183166+00:00</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>2025-10-17T12:13:14.183166+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MUKESH NAIK</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>ANDREA EUGENE FERNANDES</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7030055980</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>18/10/2025</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>17/10/2028</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>16/10/2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>ROLL OVER</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>MUKESH NAIK</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE - ANDREA EUGENE FERNANDES</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>123097</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>123097</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15</v>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>Andrea Fernandes.pdf</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1AJjflNHTRtSNRVi2qYlOm-eVjyukzljB/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>2025-10-17T12:39:04.092898+00:00</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>2025-10-17T12:39:04.092898+00:00</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>ANDREA EUGENE FERNANDES</t>
-        </is>
-      </c>
-      <c r="AC13" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>DARREN D'SOUZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>16</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12-8457-0000183325-00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Bajaj General Insurance Limited</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>28/08/2025</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>27/08/2026</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>22/08/2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>RENEWAL</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>MALHOTRA FAMILY</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE - DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>22151</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>26139</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>18</v>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Dharini Malhotra.pdf</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1IiaV632TFx5DEYBA7vtRfDJHGLi6twhv/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>2025-10-17T21:02:17.607468+00:00</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-10-17T21:02:17.607468+00:00</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>ARJUN MALHOTRA</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>AGASTYA MALHOTRA</t>
+          <t>2025-10-19T09:18:52.969265+00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-10-19T09:18:52.969265+00:00</t>
         </is>
       </c>
     </row>
@@ -2336,7 +1452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2346,7 +1462,7 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
   </cols>
@@ -2381,243 +1497,292 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CF01</t>
+          <t>SS01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>919004220100</t>
+          <t>919820129565</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>chitalianimesh@gmail.com</t>
+          <t>sameer@instainsure.in</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NG01</t>
+          <t>SS02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>919820078098</t>
+          <t>919920980054</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nrgandhi56@gmail.com</t>
+          <t>sashin4u@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AS01</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AJIT SANSARE</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>918108175917</t>
+          <t>919987031053</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>a_sansare@hotmail.com</t>
+          <t>aaditya_717@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SS01</t>
+          <t>NB01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>919820129565</t>
+          <t>919920033401</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sameer@instainsure.in</t>
+          <t>naman_747@yahoo.co.in</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AS02</t>
+          <t>MN01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AMRIK SINGH MANHAS</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>919869077942</t>
+          <t>919987091268</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>manhasamrik@yahoo.co.in</t>
+          <t>abhishekkripashankar1987@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NB01</t>
+          <t>PI01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NAMAN BHAT</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>919920033401</t>
+          <t>PARTH INTERNATIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>naman_747@yahoo.co.in</t>
+          <t>admin1@parth-international.co.in</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MN01</t>
+          <t>MIL01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>919987091268</t>
+          <t>919324031876</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>abhishekkripashankar1987@gmail.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CJ01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>LL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>919820167054</t>
+          <t>918879669934</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JOSHICMJ@GMAIL.COM</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DM01</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DHARINI MALHOTRA</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>919769805745</t>
+          <t>919820846191</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>dharini.malhotra@gmail.com</t>
+          <t>phatunihalani@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CS01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CHETNA SHAH</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>919833001015</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>chetnashah59@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PS01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>PRASHANT SHAH</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>919820700078</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>prashant@fortunefive.in</t>
         </is>
       </c>
     </row>
@@ -2632,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2642,8 +1807,8 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
   </cols>
@@ -2686,27 +1851,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CF01</t>
+          <t>SS01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NIMESH CHITALIA</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>chitalianimesh@gmail.com</t>
+          <t>sameer@instainsure.in</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>919004220100</t>
+          <t>919820129565</t>
         </is>
       </c>
     </row>
@@ -2716,27 +1881,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CF01</t>
+          <t>SS02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JAY CHITALIA</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>chitalianimesh@gmail.com</t>
+          <t>sashin4u@gmail.com</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>919004220100</t>
+          <t>919920980054</t>
         </is>
       </c>
     </row>
@@ -2746,177 +1911,172 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CF01</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAKSHI CHITALIA</t>
+          <t>Rajkumar Vishwakarma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CHITALIA FAMILY</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>chitalianimesh@gmail.com</t>
+          <t>aaditya_717@hotmail.com</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>919004220100</t>
+          <t>919987031053</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NG01</t>
+          <t>NB01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>Prancons Infratech Private Limited</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>nrgandhi56@gmail.com</t>
+          <t>naman_747@yahoo.co.in</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>919820078098</t>
+          <t>919920033401</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NG01</t>
+          <t>MN01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>HARSHA GANDHI</t>
+          <t>ANDREA EUGENE FERNANDES</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nrgandhi56@gmail.com</t>
+          <t>abhishekkripashankar1987@gmail.com</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>919820078098</t>
+          <t>919987091268</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NG01</t>
+          <t>PI01</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NEHA NARESH GANDHI</t>
+          <t>PARTH INTERNATIONAL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NARESH GANDHI</t>
+          <t>PARTH INTERNATIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>nrgandhi56@gmail.com</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>919820078098</t>
+          <t>admin1@parth-international.co.in</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AS01</t>
+          <t>MIL01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AJIT SANSARE</t>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AJIT SANSARE</t>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>a_sansare@hotmail.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>918108175917</t>
+          <t>919324031876</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SS01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sameer@instainsure.in</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>919820129565</t>
+          <t>918879669934</t>
         </is>
       </c>
     </row>
@@ -2926,147 +2086,983 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AS02</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SIMARPREET KAUR MINHAS</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AMRIK SINGH MANHAS</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>manhasamrik@yahoo.co.in</t>
+          <t>phatunihalani@gmail.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>919869077942</t>
+          <t>919820846191</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NB01</t>
+          <t>CS01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PRANCONS INFRATECH PVT LTD</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NAMAN BHAT</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>naman_747@yahoo.co.in</t>
+          <t>chetnashah59@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>919920033401</t>
+          <t>919833001015</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MN01</t>
+          <t>PS01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ANDREA EUGENE FERNANDES</t>
+          <t xml:space="preserve"> Penta Freight Private Limited</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>PRASHANT SHAH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>abhishekkripashankar1987@gmail.com</t>
+          <t>prashant@fortunefive.in</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>919987091268</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>16</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CJ01</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>SUMEET MEHTA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CHIRAG JOSHI</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>JOSHICMJ@GMAIL.COM</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>919820167054</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>17</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>DM01</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DHARINI MALHOTRA</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>dharini.malhotra@gmail.com</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>919769805745</t>
+          <t>919820700078</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AB7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="20" customWidth="1" min="9" max="9"/>
+    <col width="32" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="23" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="16" max="16"/>
+    <col width="34" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="13" customWidth="1" min="19" max="19"/>
+    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="34" customWidth="1" min="21" max="21"/>
+    <col width="34" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="13" customWidth="1" min="24" max="24"/>
+    <col width="43" customWidth="1" min="25" max="25"/>
+    <col width="34" customWidth="1" min="26" max="26"/>
+    <col width="14" customWidth="1" min="27" max="27"/>
+    <col width="43" customWidth="1" min="28" max="28"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>pending_id</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>payment_date</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>insurance_company</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>agent_name</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>policy_from</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>policy_to</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>one_time_insurance</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>product_name</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>payment_details</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>net_premium</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>gross_premium</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>commission_percentage</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>commission</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>commission_received</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>remarks</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>business_type</t>
+        </is>
+      </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>group_name</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>subgroup_name</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>tp_tr_premium</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>sum_insured</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>client_name</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>client_email</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>client_phone</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>member_member_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PI01</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>MARINE INSURANCE</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>3213</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3791</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>568.65</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>PI/48/2025‐2026(RUSSIA SHIPMENT)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>MAVANI</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:16:21.592052+00:00</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:16:21.592052+00:00</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>PARTH INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>admin1@parth-international.co.in</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>PARTH INTERNATIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MIL01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-10-07</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1458</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2180</v>
+      </c>
+      <c r="N3" t="n">
+        <v>15</v>
+      </c>
+      <c r="O3" t="n">
+        <v>327</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>310 HILL VIEW</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>CRESTA INSTRUMENTS</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:22:42.948097+00:00</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:22:42.948097+00:00</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>390</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>accounts@marshah.com</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>919324031876</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LL01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-10-20</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>CUST.FLOAT</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1996</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2850</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>427.5</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>STOCK - ANDHERI OFFICE</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:26:43.19344+00:00</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:26:43.19344+00:00</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>420</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>accounts@lykis.com</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>918879669934</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LL01</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-10-20</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BURGLARY INSURANCE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CUST.FLOAT</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>400</v>
+      </c>
+      <c r="M5" t="n">
+        <v>472</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O5" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>STOCKS - ANDHERI</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:28:24.416245+00:00</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:28:24.416245+00:00</t>
+        </is>
+      </c>
+      <c r="X5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>accounts@lykis.com</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>918879669934</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>LYKIS LIMITED</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PN01</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-10-19</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>57690</v>
+      </c>
+      <c r="M6" t="n">
+        <v>85119</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15321.42</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>MH-03-DS-4590(KIA EV6)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>NIHALANI</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:34:19.714761+00:00</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-10-18T16:34:19.714761+00:00</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>7217</v>
+      </c>
+      <c r="X6" t="n">
+        <v>4349183</v>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>PHATU NIHALANI</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>phatunihalani@gmail.com</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>919820846191</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>PHATU NIHALANI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CS01</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-10-15</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>109152</v>
+      </c>
+      <c r="M7" t="n">
+        <v>109152</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10915.2</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE- CHETNA SHAH</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2025-10-18T17:28:26.169236+00:00</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2025-10-18T17:28:26.169236+00:00</t>
+        </is>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>CHETNA SHAH</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>chetnashah59@gmail.com</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>919833001015</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
     </row>

--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="2025-26" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Clients" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Members" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Pending Policies" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2024-25" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Clients" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Members" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Pending Policies" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,17 +440,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="36" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
     <col width="15" customWidth="1" min="13" max="13"/>
     <col width="37" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
@@ -461,24 +462,27 @@
     <col width="21" customWidth="1" min="21" max="21"/>
     <col width="20" customWidth="1" min="22" max="22"/>
     <col width="17" customWidth="1" min="23" max="23"/>
-    <col width="50" customWidth="1" min="24" max="24"/>
+    <col width="40" customWidth="1" min="24" max="24"/>
     <col width="50" customWidth="1" min="25" max="25"/>
     <col width="34" customWidth="1" min="26" max="26"/>
     <col width="34" customWidth="1" min="27" max="27"/>
     <col width="18" customWidth="1" min="28" max="28"/>
     <col width="21" customWidth="1" min="29" max="29"/>
     <col width="15" customWidth="1" min="30" max="30"/>
-    <col width="25" customWidth="1" min="31" max="31"/>
-    <col width="29" customWidth="1" min="32" max="32"/>
-    <col width="23" customWidth="1" min="33" max="33"/>
-    <col width="22" customWidth="1" min="34" max="34"/>
-    <col width="29" customWidth="1" min="35" max="35"/>
-    <col width="23" customWidth="1" min="36" max="36"/>
-    <col width="27" customWidth="1" min="37" max="37"/>
-    <col width="36" customWidth="1" min="38" max="38"/>
-    <col width="39" customWidth="1" min="39" max="39"/>
-    <col width="25" customWidth="1" min="40" max="40"/>
-    <col width="43" customWidth="1" min="41" max="41"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="25" customWidth="1" min="32" max="32"/>
+    <col width="29" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="28" customWidth="1" min="35" max="35"/>
+    <col width="22" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="23" customWidth="1" min="38" max="38"/>
+    <col width="28" customWidth="1" min="39" max="39"/>
+    <col width="27" customWidth="1" min="40" max="40"/>
+    <col width="36" customWidth="1" min="41" max="41"/>
+    <col width="39" customWidth="1" min="42" max="42"/>
+    <col width="25" customWidth="1" min="43" max="43"/>
+    <col width="43" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -634,55 +638,70 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>Floater Deductible</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>Health Member 1 Name</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Health Member 1 Sum Insured</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Health Member 1 Bonus</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 1 Deductible</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Name</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Sum Insured</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Health Member 2 Bonus</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 2 Deductible</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Factory Building Coverage</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Factory Plant &amp; Machinery Coverage</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Factory Furniture &amp; Fittings Coverage</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Factory Stocks Coverage</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Factory Electrical Installations Coverage</t>
         </is>
@@ -934,15 +953,15 @@
           <t>INDIVIDUAL</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>2500000</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,12 +1329,12 @@
       <c r="AD6" t="n">
         <v>0</v>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>AUDREY EUGENE FERNANDES</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>DARREN D'SOUZA</t>
         </is>
@@ -1323,21 +1342,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PRASHANT SHAH</t>
+          <t>SANTOSH JADYAL</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Penta Freight Private Limited</t>
+          <t>RITIN SINGH RAGHUVANSHI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6205357796</t>
+          <t>6205224315</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1352,7 +1371,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FORTUNE FIVE</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1362,47 +1381,47 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>13/10/2028</t>
+          <t>13/10/2026</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14/10/2025</t>
+          <t>12/10/2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>ROLL OVER</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>FORTUNE FIVE</t>
+          <t>SANTOSH JADYAL</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>NEW BMW</t>
+          <t>MH-01-EJ-3601(H.ALCAZAR)</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>4662885</v>
+        <v>1330468</v>
       </c>
       <c r="P7" t="n">
-        <v>145707</v>
+        <v>19632</v>
       </c>
       <c r="Q7" t="n">
-        <v>172346</v>
+        <v>23302</v>
       </c>
       <c r="R7" t="n">
-        <v>26996</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>26227.26</t>
+          <t>3631.92</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1422,22 +1441,256 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Tata_AIG_Motor_Policy_Schedule_3184_6205357796.pdf</t>
+          <t>6205224315.pdf</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1rHwy2aKMxQW0sZXpaJ6G5eUtJES_pIKH/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1L30oNb4Sb1-Q0wiiL63XNaMZH7oyajq0/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T09:18:52.969265+00:00</t>
+          <t>2025-10-19T18:17:51.026363+00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2025-10-19T09:18:52.969265+00:00</t>
+          <t>2025-10-19T18:17:51.026363+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SANTOSH JADYAL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>SANTOSH MATHEW ABRAHAM</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6205377736</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>23/10/2025</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>22/10/2026</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17/10/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ROLL OVER</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SANTOSH JADYAL</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>MH-01-CH-5142(H.SANTA FE)</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>1319736</v>
+      </c>
+      <c r="P8" t="n">
+        <v>7735</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>19083</v>
+      </c>
+      <c r="R8" t="n">
+        <v>8321</v>
+      </c>
+      <c r="S8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>1430.97</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>6205377736.pdf</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jsYbIBzakIJ6KR8UPChcqgzHujaMsH55/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:24:33.88093+00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:24:33.88093+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6200797641</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>08/11/2025</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>GANSONS</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>MH-04-KD-4898(S.KODIAQ)</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>38798</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>55503</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>5819.70</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Gansons Pvt Ltd (S. Kodiaq).pdf</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1X6T0dBv6lAjf-5t7nhM_x-nrhGcI6KBW/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:43:30.697266+00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:43:30.697266+00:00</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1705,4742 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AZ38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="24" customWidth="1" min="13" max="13"/>
+    <col width="49" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="20" max="20"/>
+    <col width="21" customWidth="1" min="21" max="21"/>
+    <col width="20" customWidth="1" min="22" max="22"/>
+    <col width="17" customWidth="1" min="23" max="23"/>
+    <col width="35" customWidth="1" min="24" max="24"/>
+    <col width="50" customWidth="1" min="25" max="25"/>
+    <col width="34" customWidth="1" min="26" max="26"/>
+    <col width="34" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="20" customWidth="1" min="31" max="31"/>
+    <col width="22" customWidth="1" min="32" max="32"/>
+    <col width="29" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="28" customWidth="1" min="35" max="35"/>
+    <col width="22" customWidth="1" min="36" max="36"/>
+    <col width="29" customWidth="1" min="37" max="37"/>
+    <col width="23" customWidth="1" min="38" max="38"/>
+    <col width="28" customWidth="1" min="39" max="39"/>
+    <col width="22" customWidth="1" min="40" max="40"/>
+    <col width="29" customWidth="1" min="41" max="41"/>
+    <col width="23" customWidth="1" min="42" max="42"/>
+    <col width="28" customWidth="1" min="43" max="43"/>
+    <col width="22" customWidth="1" min="44" max="44"/>
+    <col width="29" customWidth="1" min="45" max="45"/>
+    <col width="23" customWidth="1" min="46" max="46"/>
+    <col width="28" customWidth="1" min="47" max="47"/>
+    <col width="27" customWidth="1" min="48" max="48"/>
+    <col width="36" customWidth="1" min="49" max="49"/>
+    <col width="39" customWidth="1" min="50" max="50"/>
+    <col width="25" customWidth="1" min="51" max="51"/>
+    <col width="43" customWidth="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Policy ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Client Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Member Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Policy Number</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Insurance Company</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Product Type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Agent Name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Policy Start Date</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Policy End Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Payment Date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Business Type</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Group</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Subgroup</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Sum Insured</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Net Premium</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Gross Premium</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TP/TR Premium</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Commission %</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Commission Amount</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Commission Received</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>One Time Insurance</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Payment Details</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>File Path</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Drive URL</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Created At</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Updated At</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Health Plan Type</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Floater Sum Insured</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Floater Bonus</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Floater Deductible</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 1 Name</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 1 Sum Insured</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 1 Bonus</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 1 Deductible</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 2 Name</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 2 Sum Insured</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 2 Bonus</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 2 Deductible</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 3 Name</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 3 Sum Insured</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 3 Bonus</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 3 Deductible</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 4 Name</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 4 Sum Insured</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 4 Bonus</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Health Member 4 Deductible</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Building Coverage</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Plant &amp; Machinery Coverage</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Furniture &amp; Fittings Coverage</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Stocks Coverage</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Electrical Installations Coverage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4193i/APRN/315996778/01/000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ROLL OVER</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SHARIFF INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - S.RAJAN</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>49580</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>58504</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Shariff Rajan.pdf</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1k83HgOuwBvmQISCFsY2rNdqRV9jwckJM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:45:42.415631+00:00</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:45:42.415631+00:00</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>200000</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>NASREEN RAJAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SHASHANK ZENDE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SHASHANK ZENDE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>132/02/11/1125/MTP/0000084960</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Generali Central Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Vikas Mhatre</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>MH-47-AG-3700(M. BENZ)</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3375000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39828</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>56911</v>
+      </c>
+      <c r="S3" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>7965.60</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>000345</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Shashank Zende.pdf</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1WNroKOFtKmR--rdZVDK_WDsJJqk182Fe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:50:47.242107+00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2025-10-19T18:50:47.242107+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>13</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12-8450-0000028558-07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>17180</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>20272</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1718.00</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Esha Salian.pdf</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Gf4B3x63G8O9pqG636OwrDC1LaAcnCI9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:14:56.11419+00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:14:56.11419+00:00</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="AG4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANANT KAMERKAR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12-8432-0000023776-07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - ANANT KAMERKAR</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>12082</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>16427</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>1812.30</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>000622</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aanant Kamerkar.pdf</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/11K4aoKh-igd0lpRagSMPnrYPP0meKVi6/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:08:48.089223+00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:08:48.089223+00:00</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>ANANT KAMERKAR</t>
+        </is>
+      </c>
+      <c r="AG5" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12-8450-0000028965-07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>17471</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20615</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>1747.10</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Nidhi Salian.pdf</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/14EUZ1XLaKGKHVOacFvyJ4prN6ifysOT0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:27:26.271893+00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:27:26.271893+00:00</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="AG6" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BIJAL BROKER</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BIJAL BROKER</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12-6403-0000047815-03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PERSONAL ACCIDENT</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ACCIDENT INSURANCE</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3650</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4308</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>365.00</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Bijal Broker.pdf</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kpVHP10MCnejTecemHUoJqXlnnPJJw08/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:39:42.786133+00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:39:42.786133+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7000304878</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>ROLL OVER</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>SARVODAYA</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>25084</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>29599</v>
+      </c>
+      <c r="S8" t="n">
+        <v>15</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>3762.60</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Trishla Shah.pdf</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1bCouXGehFTc3WzzWxVauYuT7OcLbSlVD/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:48:07.325095+00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:48:07.325095+00:00</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="AG8" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>19</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ASIF RUPANI</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ASIF RUPANI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6102747633</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>MH-02-DF-1986(H.ACTIVA)</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>22912</v>
+      </c>
+      <c r="P9" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1412</v>
+      </c>
+      <c r="S9" t="n">
+        <v>15</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Asif Rupani.pdf</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/182QkGNqV0yxhpKvOkA-PJ2zf9tMKPavr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:01:19.738922+00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:01:19.738922+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE PVT LTD</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE PVT LTD</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5182271861</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>FIRE INSURANCE</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>03/11/2024</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>02/11/2025</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>STOCKS - 190 JAGGI GARDEN COLONY,AMBALA,HARYANA</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15978</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>21839</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>2396.70</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Perfect House Pvt Ltd.pdf</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/10WO52uObwvXUdBLMr3wBO9rcVKEoT1Tx/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:35:09.551203+00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-10-19T19:35:09.551203+00:00</t>
+        </is>
+      </c>
+      <c r="AY10" t="n">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>20</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12-8450-0000029332-08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE- VM</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>19995</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>23595</v>
+      </c>
+      <c r="S11" t="n">
+        <v>15</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>2999.25</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Varun Malhotra (HG).pdf</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1xOG-OR60HPGEgvr5MbW0xl1Bhz5VbS3y/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:12:35.724837+00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:12:35.724837+00:00</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AG11" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>842550</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12-9901-0000006521-19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PERSONAL ACCIDENT</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17/11/2024</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>16/11/2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>ACCIDENT INSURANCE - VM</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>886</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>112.50</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Varun Malhotra (PAIP).pdf</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kRMZg9mzIEyBfsyN-GnovA2B1ngUn00a/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:15:16.418134+00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:15:16.418134+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12-8450-0000029331-16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - NM</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>65460</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>77242</v>
+      </c>
+      <c r="S13" t="n">
+        <v>15</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>9819.00</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Neelam Malhotra.pdf</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Q8mFEsk2tfb2zRLnW_nl5Mpz_rAMI-B1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:19:50.768124+00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:19:50.768124+00:00</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AG13" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12-8450-0000029368-11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - KM</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>21513</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25385</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>3226.95</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Karan Malhotra (HG).pdf</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1e24luPSCfUWdBauRrEDQO0FtNrdCUnxK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:25:15.243059+00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:25:15.243059+00:00</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>585000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>24</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12-9901-0000006501-19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PERSONAL ACCIDENT</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16/11/2024</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>ACCIDENT INSURANCE - KM</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>886</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>112.50</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Karan Malhotra (PAIP).pdf</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1a_8PR2VlWZSMfOwYiYvonw4GQFg1T2W5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:28:25.803957+00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-10-19T20:28:25.803957+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JAYAS VENTURES PVT LTD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>VINIT ASHER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7102081867</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>04/11/2024</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>03/11/2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>JAYAS VENTURES PVT LTD</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>5106</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6025</v>
+      </c>
+      <c r="S16" t="n">
+        <v>40</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>2042.40</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Vinit Asher.pdf</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1bGvteFCZTNgU2UyqoQv9FyVYWRAtZDuM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:03:27.279518+00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:03:27.279518+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>26</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7102082285</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>DALAL FAMILY</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL M.D.</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>10173</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12004</v>
+      </c>
+      <c r="S17" t="n">
+        <v>40</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>4069.20</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Mehul Dalal (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1My9NfzNb0tuKF9d_1vc2rw5_uNz4VN0x/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:06:45.577334+00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:06:45.577334+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>PARUL DALAL</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7102082274</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>DALAL FAMILY</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL - P.D.</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>10708</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>12635</v>
+      </c>
+      <c r="S18" t="n">
+        <v>40</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>4283.20</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Parul Mehul (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1-kBgxC77pru05-26w-elCS-8AtoaumU8/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:08:44.642619+00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:08:44.642619+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>28</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ASHIS BANERJEE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7102082355</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>GANSONS</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL - ASHIS BANERJEE</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>27982</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>33019</v>
+      </c>
+      <c r="S19" t="n">
+        <v>40</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>11192.80</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Ashis Banerjee (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1OpplVyCr4S6mTJcGLmJr53Na00kEOfwi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:10:42.972823+00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:10:42.972823+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ANURADHA BANERJEE</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7102082367</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>GANSONS</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL - ANURADHA BANERJEE</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>27982</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>33019</v>
+      </c>
+      <c r="S20" t="n">
+        <v>40</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>11192.80</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Anuradha Banerjee (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1C9b7M50rxioYYUQme6M9ck7v48Y7sA1G/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:13:10.642687+00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:13:10.642687+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>30</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7102082392</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>GANSONS</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL - ARNABH BANERJEE</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4696</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5541</v>
+      </c>
+      <c r="S21" t="n">
+        <v>40</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>1878.40</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Arnabh Banerjee (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Mmy5OOxXrkp84GUx_ANg1JQ-owhESYh0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:14:50.190072+00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:14:50.190072+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6202153896</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>HEMANI</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>MH-43-BU-6198(KIA SONET)</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>803427</v>
+      </c>
+      <c r="P22" t="n">
+        <v>17681</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>23677</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>3536.20</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Apex Precision Mech Pvt Ltd.pdf</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/152V7GeHki7LQ6K7fnbX-GOo3PS1B-bt5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:18:14.374862+00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:18:14.374862+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>32</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12-8432-0000023763-04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>BHALLA FAMILY</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - D.B.</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>10768</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>12706</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>1615.20</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Durga Bhalla.pdf</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1Po1FkrBViFa2Y-kpNl0fYXtJg1pshcjV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:23:09.091679+00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:23:09.091679+00:00</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC23" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>JANHVI BHALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SUNANDA RAJENDRAN</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7102082704</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TRAVEL INSURANCE</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>08/11/2024</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>07/11/2025</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ANNUAL TRAVEL - SUNANDA RAJENDRAN</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>12823</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>15131</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>1923.45</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Sunanda Rajendran (CFT).pdf</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ZhxXl4jeiz93nHwWaWLlMWVEqUoCkZ8S/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:33:54.450231+00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:33:54.450231+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SHEETAL SHAH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>132/02/11/1125/MTP/0000086884</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Generali Central Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Vikas Mhatre</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>02/11/2024</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>01/11/2025</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>MH-02-EP-9112(H.JAZZ)</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>350896</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2721</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8281</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>408.15</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Sheetal Shah.pdf</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1gmxN0yEVqJePXG_DdK3SXepACcll2jPj/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:37:04.060298+00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:37:04.060298+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NIKHIL SHAH</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0159025779</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>MH-47-AG-3667(H.CRETA)</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>795823</v>
+      </c>
+      <c r="P26" t="n">
+        <v>13407</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>25925</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>2011.05</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Nikhil Shah.pdf</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1eqBGeooPZbj-O9uKQHYmDnbsctCS_k-C/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:40:34.968284+00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:40:34.968284+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MANISH MARIWALA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7040002610</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>07/11/2024</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>06/11/2025</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - MANISH MARIWALA</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>8005</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>9446</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>1200.75</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Manish Mariwala.pdf</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1I7KB5WLDIJP7bkuS2l8yGTP6AGFSNTy1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:46:32.561354+00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:46:32.561354+00:00</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>MANISH MARIWALA</t>
+        </is>
+      </c>
+      <c r="AG27" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>RIYA MARIWALA</t>
+        </is>
+      </c>
+      <c r="AK27" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CHANDNI LAMBA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0150753335</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>CH-01-CE-4976</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>91121</v>
+      </c>
+      <c r="P28" t="n">
+        <v>469</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5233</v>
+      </c>
+      <c r="S28" t="n">
+        <v>15</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>70.35</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Chandni Lamba.pdf</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kNETq96BKGuLnprL_gdfUbdiT7rYcIgv/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>2025-10-20T08:06:30.097901+00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2025-10-20T08:06:30.097901+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12-8457-0000046958-00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>BHALLA FAMILY</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>59028</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>69653</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>8854.20</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Jatin Bhalla.pdf</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC29" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>900000</v>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>JANHVI BHALLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>39</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12-8456-0000019722-00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>BHALLA FAMILY</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>18141</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>21406</v>
+      </c>
+      <c r="S30" t="n">
+        <v>15</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>2721.15</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Meghna Bhalla.pdf</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="AG30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>40</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0156470784</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CRESTA INSTRUMENTS</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>MH-03-BW-8972(M.BALENO)</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>330712</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1482</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5987</v>
+      </c>
+      <c r="S31" t="n">
+        <v>20</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>296.40</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Universal Industrial Products.pdf</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>41</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12-8456-0000019556-00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NUTAN AUTO</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>65151</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>76878</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>9772.65</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Bankim Choksi.pdf</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="AG32" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>NISHA CHOKSI</t>
+        </is>
+      </c>
+      <c r="AK32" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>12-8457-0000047400-00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>INDREX</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>52866</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>62382</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>7929.90</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Arvind Kanojia.pdf</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC33" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>585000</v>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>GAYTRI KANOJIA</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>PAWAN KANOJIA</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>RISHABH KANOJIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>43</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RAMESH THOSANI</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RIDHI SANGHVI</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12-8432-0000115044-02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>23/11/2024</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>22/11/2025</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>THOSANI FAMILY</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - RIDHI</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>10611</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>12521</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>1591.65</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ridhi Sanghvi.pdf</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/197Frp_gifNVb33SeKG7MNMVzFE1oBErB/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC34" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>RIDHI SANGHVI</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>SHREYAS SANGHVI</t>
+        </is>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>KANAISHA SANGHVI</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>44</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SHAILESH SOOD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12-8451-0000031554-06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - SHAILESH SOOD</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>28233</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>33315</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>4234.95</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Shailesh Sood.pdf</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC35" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>180000</v>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>SHAILESH SOOD</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>SNEHAL SOOD</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>SAISHA SOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>45</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1015/367837947/00/000</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>FIRE INSURANCE</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>09/11/2024</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>08/11/2026</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>HOME INSURANCE - JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>7200000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>6896</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>8137</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>689.60</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Jalpa Broker - Home Protect.pdf</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>46</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12-8457-0000047881-00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>11/11/2024</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>THOSANI FAMILY</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE - GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>49361</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>58245</v>
+      </c>
+      <c r="S37" t="n">
+        <v>15</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>7404.15</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Gaurav Thosani.pdf</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AC37" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>NIYATI THOSANI</t>
+        </is>
+      </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>ANANYA THOSANI</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>47</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DHRUV SHAH</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>12345</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - DHRUV SHAH</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>708</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Dhruv Shah(PP).pdf</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1uwEtfn3SBS9069oLoTYsCKdw0RMGlKbN/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>2025-10-20T13:47:45.060822+00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2025-10-20T13:47:45.060822+00:00</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>TOPUP_INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>DHRUV SHAH</t>
+        </is>
+      </c>
+      <c r="AG38" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,34 +6485,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SS01</t>
+          <t>GT01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>919820129565</t>
+          <t>13106947225</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sameer@instainsure.in</t>
+          <t>info@instainsure.in</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SS02</t>
+          <t>SS01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1534,255 +6522,876 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SACHIN SIVARAMAN</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>919920980054</t>
+          <t>919820129565</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>sashin4u@gmail.com</t>
+          <t>sameer@instainsure.in</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SP01</t>
+          <t>SS02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SAMIR PARIKH</t>
+          <t>SACHIN SIVARAMAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>919987031053</t>
+          <t>919920980054</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>aaditya_717@hotmail.com</t>
+          <t>sashin4u@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NB01</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NB</t>
+          <t>SP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NAMAN BHAT</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>919920033401</t>
+          <t>919987031053</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>naman_747@yahoo.co.in</t>
+          <t>aaditya_717@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MN01</t>
+          <t>NB01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NB</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>919987091268</t>
+          <t>919920033401</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>abhishekkripashankar1987@gmail.com</t>
+          <t>naman_747@yahoo.co.in</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PI01</t>
+          <t>MN01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PARTH INTERNATIONAL</t>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>919987091268</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>admin1@parth-international.co.in</t>
+          <t>abhishekkripashankar1987@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MIL01</t>
+          <t>PI01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>919324031876</t>
+          <t>PARTH INTERNATIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>accounts@marshah.com</t>
+          <t>admin1@parth-international.co.in</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LL01</t>
+          <t>MIL01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>918879669934</t>
+          <t>919324031876</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>accounts@lykis.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PN01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>LL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>919820846191</t>
+          <t>918879669934</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>phatunihalani@gmail.com</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CS01</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHETNA SHAH</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>919833001015</t>
+          <t>919820846191</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>chetnashah59@gmail.com</t>
+          <t>phatunihalani@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PS01</t>
+          <t>CS01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PRASHANT SHAH</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>919820700078</t>
+          <t>919833001015</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>prashant@fortunefive.in</t>
+          <t>chetnashah59@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SJ01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SJ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SANTOSH JADYAL</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>918369843574</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>santoshjadyal986722@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SR01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>919820001383</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shariff9099@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SZ01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SZ</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SHASHANK ZENDE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>919819678840</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>shashank_zende@rediffmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CJ01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CJ</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>919820167054</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>joshicmj@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ES01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>919833026230</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>esha.salian@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS01</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>919920156618</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nidhisalian@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PHPL01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PHPL</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE PVT LTD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>919653677195</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>vikaskumar@perfectgenset.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BB01</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BIJAL BROKER</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>917303344255</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>bijalbroker@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GPL01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GPL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>919892141561</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>accounts@gansons.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TS01</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>919820800255</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>trishlaashah@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AR01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ASIF RUPANI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>919819406231</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>aazifr@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VM01</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>919820090906</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>varun.malhotraa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NM01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>919920034488</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>varun.malhotraa@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>KM01</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KM</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>919820090903</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>karan.d.malhotra@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JVPL01</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JVPL</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>JAYAS VENTURES PVT LTD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>919702831842</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>admin@jayasventures.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MD01</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>919820170933</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>dalalparul@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>APML01</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>APML</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>919820040939</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>harshad.hemani@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JB01</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>919820134670</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>jbhalla123@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>UIP01</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>UIP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>919819002833</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>accounts@uip.co.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BC01</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>919821252258</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>nutanenetrprize@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AK01</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>919594994935</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>arvindkanojia@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>RT01</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>RAMESH THOSANI</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>919930370583</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>info@instainsure.in</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>JB02</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>JB</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>919820182754</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>jalpabroker@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1791,13 +7400,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2142,31 +7751,1111 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PS01</t>
+          <t>SJ01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Penta Freight Private Limited</t>
+          <t>RITIN SINGH RAGHUVANSHI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRASHANT SHAH</t>
+          <t>SANTOSH JADYAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>prashant@fortunefive.in</t>
+          <t>santoshjadyal986722@gmail.com</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>919820700078</t>
+          <t>918369843574</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SJ01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SANTOSH MATHEW ABRAHAM</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SANTOSH JADYAL</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>santoshjadyal986722@gmail.com</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>918369843574</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SR01</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>shariff9099@gmail.com</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>919820001383</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SZ01</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>SHASHANK ZENDE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SHASHANK ZENDE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>shashank_zende@rediffmail.com</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>919819678840</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CJ01</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ANANT KAMERKAR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>joshicmj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>919820167054</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ES01</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ESHA SALIAN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>esha.salian@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>919833026230</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NS01</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>nidhisalian@gmail.com</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>919920156618</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PHPL01</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE PVT LTD</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PERFECT HOUSE PVT LTD</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>vikaskumar@perfectgenset.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>919653677195</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BB01</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BIJAL BROKER</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BIJAL BROKER</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>bijalbroker@yahoo.com</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>917303344255</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GPL01</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>accounts@gansons.com</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>919892141561</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TS01</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TRISHLA SHAH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>trishlaashah@gmail.com</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>919820800255</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>AR01</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ASIF RUPANI</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ASIF RUPANI</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>aazifr@gmail.com</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>919819406231</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>VM01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>varun.malhotraa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>919820090906</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NM01</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>varun.malhotraa@gmail.com</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>919920034488</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KM01</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>karan.d.malhotra@gmail.com</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>919820090903</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JVPL01</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>VINIT ASHER</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>JAYAS VENTURES PVT LTD</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>admin@jayasventures.com</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>919702831842</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MD01</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>dalalparul@gmail.com</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>919820170933</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MD01</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PARUL DALAL</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MEHUL DALAL</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>dalalparul@gmail.com</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>919820170933</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GPL01</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ASHIS BANERJEE</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>accounts@gansons.com</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>919892141561</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GPL01</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ANURADHA BANERJEE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GANSONS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>accounts@gansons.com</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>919892141561</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>APML01</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>harshad.hemani@gmail.com</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>919820040939</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>JB01</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>jbhalla123@gmail.com</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>919820134670</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JB01</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>jbhalla123@gmail.com</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>919820134670</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MN01</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SUNANDA RAJENDRAN</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>abhishekkripashankar1987@gmail.com</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>919987091268</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CJ01</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SHEETAL SHAH</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>joshicmj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>919820167054</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SP01</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NIKHIL SHAH</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>aaditya_717@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>919987031053</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SP01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>MANISH MARIWALA</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAMIR PARIKH</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>aaditya_717@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>919987031053</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MN01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CHANDNI LAMBA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>abhishekkripashankar1987@gmail.com</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>919987091268</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>JB01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>jbhalla123@gmail.com</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>919820134670</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>UIP01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>accounts@uip.co.in</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>919819002833</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BC01</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>nutanenetrprize@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>919821252258</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>AK01</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>arvindkanojia@hotmail.com</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>919594994935</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RT01</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RIDHI SANGHVI</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>RAMESH THOSANI</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>info@instainsure.in</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>919930370583</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CJ01</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SHAILESH SOOD</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CHIRAG JOSHI</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>joshicmj@gmail.com</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>919820167054</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>JB02</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>jalpabroker@gmail.com</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>919820182754</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GT01</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>info@instainsure.in</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>13106947225</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SS01</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DHRUV SHAH</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>sameer@instainsure.in</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>919820129565</t>
         </is>
       </c>
     </row>
@@ -2175,13 +8864,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB7"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2213,10 +8902,13 @@
     <col width="34" customWidth="1" min="22" max="22"/>
     <col width="15" customWidth="1" min="23" max="23"/>
     <col width="13" customWidth="1" min="24" max="24"/>
-    <col width="43" customWidth="1" min="25" max="25"/>
-    <col width="34" customWidth="1" min="26" max="26"/>
-    <col width="14" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="16" customWidth="1" min="26" max="26"/>
+    <col width="19" customWidth="1" min="27" max="27"/>
     <col width="43" customWidth="1" min="28" max="28"/>
+    <col width="34" customWidth="1" min="29" max="29"/>
+    <col width="14" customWidth="1" min="30" max="30"/>
+    <col width="43" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2342,20 +9034,35 @@
       </c>
       <c r="Y1" s="2" t="inlineStr">
         <is>
+          <t>addon_premium</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>gst_percentage</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>commission_amount</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
           <t>client_name</t>
         </is>
       </c>
-      <c r="Z1" s="2" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>client_email</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AD1" s="2" t="inlineStr">
         <is>
           <t>client_phone</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AE1" s="2" t="inlineStr">
         <is>
           <t>member_member_name</t>
         </is>
@@ -2451,17 +9158,20 @@
           <t>2025-10-18T16:16:21.592052+00:00</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>PARTH INTERNATIONAL</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>admin1@parth-international.co.in</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>PARTH INTERNATIONAL</t>
         </is>
@@ -2568,22 +9278,25 @@
       <c r="X3" t="n">
         <v>3000000</v>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>accounts@marshah.com</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>919324031876</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
         </is>
@@ -2690,22 +9403,25 @@
       <c r="X4" t="n">
         <v>2000000</v>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>LYKIS LIMITED</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>accounts@lykis.com</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>918879669934</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>LYKIS LIMITED</t>
         </is>
@@ -2809,22 +9525,25 @@
       <c r="X5" t="n">
         <v>2000000</v>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Z5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>LYKIS LIMITED</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>accounts@lykis.com</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>918879669934</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>LYKIS LIMITED</t>
         </is>
@@ -2931,22 +9650,25 @@
       <c r="X6" t="n">
         <v>4349183</v>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>PHATU NIHALANI</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>phatunihalani@gmail.com</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>919820846191</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>PHATU NIHALANI</t>
         </is>
@@ -3045,22 +9767,25 @@
       <c r="W7" t="n">
         <v>0</v>
       </c>
-      <c r="Y7" t="inlineStr">
+      <c r="Z7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>CHETNA SHAH</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>chetnashah59@gmail.com</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>919833001015</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>CHETNA SHAH</t>
         </is>

--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,6 +1990,141 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MUKESH MEHRA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MUKESH MEHRA</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>132700/48/2025/6538</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>The Oriental Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>MUKESH MEHRA</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>MEDICLAIM POLICY</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>29559</v>
+      </c>
+      <c r="S11" t="n">
+        <v>18</v>
+      </c>
+      <c r="T11" t="n">
+        <v>34880</v>
+      </c>
+      <c r="U11" t="n">
+        <v>10</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2955.90</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>Mukesh Mehra (Mediclaim).pdf</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1YQ-A7jdn3J0e8g32eWZUW8GAYlsGyiBv</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>MM01/MUKESH MEHRA/MM01 - MUKESH MEHRA - Mukesh Mehra (Mediclaim).pdf</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1YQ-A7jdn3J0e8g32eWZUW8GAYlsGyiBv/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>2025-10-21T13:54:43.625736+00:00</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>2025-10-21T13:54:43.625736+00:00</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>MUKESH MEHRA</t>
+        </is>
+      </c>
+      <c r="AM11" t="n">
+        <v>400000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2001,7 +2136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF52"/>
+  <dimension ref="A1:BF53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2034,7 +2169,7 @@
     <col width="21" customWidth="1" min="23" max="23"/>
     <col width="20" customWidth="1" min="24" max="24"/>
     <col width="17" customWidth="1" min="25" max="25"/>
-    <col width="42" customWidth="1" min="26" max="26"/>
+    <col width="50" customWidth="1" min="26" max="26"/>
     <col width="35" customWidth="1" min="27" max="27"/>
     <col width="50" customWidth="1" min="28" max="28"/>
     <col width="50" customWidth="1" min="29" max="29"/>
@@ -8023,21 +8158,21 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001018</t>
+          <t>OG-25-1908-4010-00000646</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8047,43 +8182,58 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>10/11/2025</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
+          <t>STOCK - BURGLARY</t>
         </is>
       </c>
       <c r="O45" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
       <c r="P45" t="n">
-        <v>4492</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1150</v>
+        <v>300</v>
       </c>
       <c r="S45" t="n">
         <v>18</v>
       </c>
       <c r="T45" t="n">
-        <v>6658</v>
+        <v>354</v>
+      </c>
+      <c r="U45" t="n">
+        <v>15</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -8097,41 +8247,38 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Bombay Merch (Fire).pdf</t>
+          <t>Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
+          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
-        </is>
-      </c>
-      <c r="BE45" t="n">
-        <v>5000000</v>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -8145,7 +8292,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000646</t>
+          <t>OG-25-1908-4056-00001019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -8155,7 +8302,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8185,27 +8337,30 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>STOCK - BURGLARY</t>
+          <t>STOCKS - FIRE</t>
         </is>
       </c>
       <c r="O46" t="n">
         <v>1500000</v>
       </c>
       <c r="P46" t="n">
-        <v>300</v>
+        <v>2716</v>
+      </c>
+      <c r="R46" t="n">
+        <v>345</v>
       </c>
       <c r="S46" t="n">
         <v>18</v>
       </c>
       <c r="T46" t="n">
-        <v>354</v>
+        <v>3611.98</v>
       </c>
       <c r="U46" t="n">
         <v>15</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>407.40</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8220,62 +8375,65 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Burg).pdf</t>
+          <t>Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
+          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
-        </is>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
+        </is>
+      </c>
+      <c r="BE46" t="n">
+        <v>1500000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001019</t>
+          <t>0239156527</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -8285,12 +8443,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8305,35 +8463,29 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>STOCKS - FIRE</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>1500000</v>
+          <t>HEALTH INSURANCE</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>2716</v>
-      </c>
-      <c r="R47" t="n">
-        <v>345</v>
+        <v>39542</v>
       </c>
       <c r="S47" t="n">
         <v>18</v>
       </c>
       <c r="T47" t="n">
-        <v>3611.98</v>
+        <v>46659.56</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>407.40</t>
+          <t>5931.30</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -8348,65 +8500,93 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Fire).pdf</t>
+          <t>Roshan Machado.pdf</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
+          <t>18xLJZ131RlxeckexP4hKSOcgim0-WtEF</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
+          <t>RM02/ROSHAN MACHADO/RM02 - ROSHAN MACHADO - Roshan Machado.pdf</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18xLJZ131RlxeckexP4hKSOcgim0-WtEF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
+          <t>2025-10-21T11:47:16.00668+00:00</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
-        </is>
-      </c>
-      <c r="BE47" t="n">
-        <v>1500000</v>
+          <t>2025-10-21T11:47:16.00668+00:00</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI47" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>ROSHAN MACHADO</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>IONA MACHADO</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>ELIJAH MACHADO</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>HANNAH MACHADO</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0239156527</t>
+          <t>OG-25-1908-4010-00000642</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -8416,12 +8596,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8436,29 +8616,32 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
+          <t>STOCK INSURANCE</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>5000000</v>
       </c>
       <c r="P48" t="n">
-        <v>39542</v>
+        <v>1000</v>
       </c>
       <c r="S48" t="n">
         <v>18</v>
       </c>
       <c r="T48" t="n">
-        <v>46659.56</v>
+        <v>1180</v>
       </c>
       <c r="U48" t="n">
         <v>15</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>5931.30</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8473,83 +8656,52 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Roshan Machado.pdf</t>
+          <t>Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>18xLJZ131RlxeckexP4hKSOcgim0-WtEF</t>
+          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>RM02/ROSHAN MACHADO/RM02 - ROSHAN MACHADO - Roshan Machado.pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18xLJZ131RlxeckexP4hKSOcgim0-WtEF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-10-21T11:47:16.00668+00:00</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>2025-10-21T11:47:16.00668+00:00</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI48" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AL48" t="inlineStr">
-        <is>
-          <t>ROSHAN MACHADO</t>
-        </is>
-      </c>
-      <c r="AP48" t="inlineStr">
-        <is>
-          <t>IONA MACHADO</t>
-        </is>
-      </c>
-      <c r="AT48" t="inlineStr">
-        <is>
-          <t>ELIJAH MACHADO</t>
-        </is>
-      </c>
-      <c r="AX48" t="inlineStr">
-        <is>
-          <t>HANNAH MACHADO</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000642</t>
+          <t>12-6403-0000009580-13</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -8559,7 +8711,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -8569,12 +8721,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8589,32 +8741,29 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>MAVANI</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>5000000</v>
+          <t>ACCIDENT INSURANCE - UMM</t>
+        </is>
       </c>
       <c r="P49" t="n">
-        <v>1000</v>
+        <v>2275</v>
       </c>
       <c r="S49" t="n">
         <v>18</v>
       </c>
       <c r="T49" t="n">
-        <v>1180</v>
+        <v>2684.5</v>
       </c>
       <c r="U49" t="n">
         <v>15</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>341.25</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8629,67 +8778,67 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Bombay Merch (Burg).pdf</t>
+          <t>Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
+          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
+          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>12-6403-0000009580-13</t>
+          <t>FHR-1S-24-7076561-02-000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -8714,29 +8863,29 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE - UMM</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2275</v>
+        <v>33564</v>
       </c>
       <c r="S50" t="n">
         <v>18</v>
       </c>
       <c r="T50" t="n">
-        <v>2684.5</v>
+        <v>39605.52</v>
       </c>
       <c r="U50" t="n">
         <v>15</v>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>341.25</t>
+          <t>5034.60</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
@@ -8751,82 +8900,108 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Urmil Mavani.pdf</t>
+          <t>Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
+          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
+          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
+        </is>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI50" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>BEENA PANDEY</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>AJAY PANDEY</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>ARYA PANDEY</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>FHR-1S-24-7076561-02-000</t>
+          <t>OG-25-1908-4056-00001018</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -8836,30 +9011,28 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
+          <t>STOCK INSURANCE</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>5000000</v>
       </c>
       <c r="P51" t="n">
-        <v>33564</v>
+        <v>4492</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1150</v>
       </c>
       <c r="S51" t="n">
         <v>18</v>
       </c>
       <c r="T51" t="n">
-        <v>39605.52</v>
-      </c>
-      <c r="U51" t="n">
-        <v>15</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>5034.60</t>
-        </is>
+        <v>6658</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -8873,181 +9046,286 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Beena Pandey.pdf</t>
+          <t>Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
+          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI51" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>90000</v>
-      </c>
-      <c r="AL51" t="inlineStr">
-        <is>
-          <t>BEENA PANDEY</t>
-        </is>
-      </c>
-      <c r="AP51" t="inlineStr">
-        <is>
-          <t>AJAY PANDEY</t>
-        </is>
-      </c>
-      <c r="AT51" t="inlineStr">
-        <is>
-          <t>ARYA PANDEY</t>
-        </is>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
+        </is>
+      </c>
+      <c r="BE51" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MARSHAH IND ELECT CO PVT LTD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>OG-25-1908-1005-00000113</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>MARINE INSURANCE</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>13/11/2025</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>OG-25-1908-6626-00000003</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Bajaj General Insurance Limited</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CYBER INSURANCE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>MARINE OPEN POLICY</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>1000000</v>
+        <v>20000000</v>
       </c>
       <c r="P52" t="n">
-        <v>4238</v>
+        <v>10000</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
       </c>
       <c r="S52" t="n">
         <v>18</v>
       </c>
       <c r="T52" t="n">
+        <v>11801</v>
+      </c>
+      <c r="U52" t="n">
+        <v>15</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>MIE01/MARSHAH IND ELECT CO PVT LTD/MIE01 - MARSHAH IND ELECT CO PVT LTD - Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>OG-25-1908-6626-00000003</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CYBER INSURANCE</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>12/11/2024</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>CYBER INSURANCE</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4238</v>
+      </c>
+      <c r="S53" t="n">
+        <v>18</v>
+      </c>
+      <c r="T53" t="n">
         <v>5001</v>
       </c>
-      <c r="U52" t="n">
+      <c r="U53" t="n">
         <v>23</v>
       </c>
-      <c r="V52" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>974.74</t>
         </is>
       </c>
-      <c r="W52" t="inlineStr">
+      <c r="W53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
+      <c r="Z53" t="inlineStr">
         <is>
           <t>Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AA53" t="inlineStr">
         <is>
           <t>1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AB53" t="inlineStr">
         <is>
           <t>SS01/SAMEER SHAH/SS01 - SAMEER SHAH - Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>https://drive.google.com/file/d/1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj/view?usp=drivesdk</t>
         </is>
       </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AD53" t="inlineStr">
         <is>
           <t>2025-10-21T18:52:57.255874+00:00</t>
         </is>
       </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AF53" t="inlineStr">
         <is>
           <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
       </c>
-      <c r="AG52" t="inlineStr">
+      <c r="AG53" t="inlineStr">
         <is>
           <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
@@ -9074,7 +9352,7 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
   </cols>
@@ -9347,427 +9625,427 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MIL01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>919324031876</t>
+          <t>918879669934</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>accounts@marshah.com</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LL01</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LL</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>918879669934</t>
+          <t>919820846191</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>accounts@lykis.com</t>
+          <t>phatunihalani@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PN01</t>
+          <t>CS01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>919820846191</t>
+          <t>919833001015</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>phatunihalani@gmail.com</t>
+          <t>chetnashah59@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CS01</t>
+          <t>SJ01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CS</t>
+          <t>SJ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CHETNA SHAH</t>
+          <t>SANTOSH JADYAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>919833001015</t>
+          <t>918369843574</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>chetnashah59@gmail.com</t>
+          <t>santoshjadyal986722@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SJ01</t>
+          <t>SR01</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SJ</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SANTOSH JADYAL</t>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>918369843574</t>
+          <t>919820001383</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>santoshjadyal986722@gmail.com</t>
+          <t>shariff9099@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SR01</t>
+          <t>SZ01</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHARIFF RAJAN</t>
+          <t>SHASHANK ZENDE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>919820001383</t>
+          <t>919819678840</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>shariff9099@gmail.com</t>
+          <t>shashank_zende@rediffmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SZ01</t>
+          <t>CJ01</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>CJ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SHASHANK ZENDE</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>919819678840</t>
+          <t>919820167054</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>shashank_zende@rediffmail.com</t>
+          <t>joshicmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CJ01</t>
+          <t>ES01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CJ</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>919820167054</t>
+          <t>919833026230</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joshicmj@gmail.com</t>
+          <t>esha.salian@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ES01</t>
+          <t>NS01</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ESHA SALIAN</t>
+          <t>NIDHI SALIAN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>919833026230</t>
+          <t>919920156618</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>esha.salian@hotmail.com</t>
+          <t>nidhisalian@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NS01</t>
+          <t>PHPL01</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>PHPL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NIDHI SALIAN</t>
+          <t>PERFECT HOUSE PVT LTD</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>919920156618</t>
+          <t>919653677195</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>nidhisalian@gmail.com</t>
+          <t>vikaskumar@perfectgenset.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PHPL01</t>
+          <t>BB01</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHPL</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PERFECT HOUSE PVT LTD</t>
+          <t>BIJAL BROKER</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>919653677195</t>
+          <t>917303344255</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>vikaskumar@perfectgenset.com</t>
+          <t>bijalbroker@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BB01</t>
+          <t>GPL01</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>GPL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BIJAL BROKER</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>917303344255</t>
+          <t>919892141561</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>bijalbroker@yahoo.com</t>
+          <t>accounts@gansons.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GPL01</t>
+          <t>TS01</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GPL</t>
+          <t>TS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>919892141561</t>
+          <t>919820800255</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>accounts@gansons.com</t>
+          <t>trishlaashah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TS01</t>
+          <t>AR01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TS</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ASIF RUPANI</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>919820800255</t>
+          <t>919819406231</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>trishlaashah@gmail.com</t>
+          <t>aazifr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AR01</t>
+          <t>VM01</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>VM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ASIF RUPANI</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>919819406231</t>
+          <t>919820090906</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>aazifr@gmail.com</t>
+          <t>varun.malhotraa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VM01</t>
+          <t>NM01</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VM</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>NEELAM MALHOTRA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>919820090906</t>
+          <t>919920034488</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9779,513 +10057,513 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NM01</t>
+          <t>KM01</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NEELAM MALHOTRA</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>919920034488</t>
+          <t>919820090903</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>varun.malhotraa@gmail.com</t>
+          <t>karan.d.malhotra@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KM01</t>
+          <t>JVPL01</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>JVPL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>JAYAS VENTURES PVT LTD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>919820090903</t>
+          <t>919702831842</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>karan.d.malhotra@gmail.com</t>
+          <t>admin@jayasventures.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JVPL01</t>
+          <t>MD01</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JVPL</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JAYAS VENTURES PVT LTD</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>919702831842</t>
+          <t>919820170933</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>admin@jayasventures.com</t>
+          <t>dalalparul@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MD01</t>
+          <t>APML01</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>APML</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>919820170933</t>
+          <t>919820040939</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>dalalparul@gmail.com</t>
+          <t>harshad.hemani@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>APML01</t>
+          <t>JB01</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>APML</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>919820040939</t>
+          <t>919820134670</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>harshad.hemani@gmail.com</t>
+          <t>jbhalla123@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JB01</t>
+          <t>UIP01</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>UIP</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>919820134670</t>
+          <t>919819002833</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>jbhalla123@gmail.com</t>
+          <t>accounts@uip.co.in</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>UIP01</t>
+          <t>BC01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UIP</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>919819002833</t>
+          <t>919821252258</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>accounts@uip.co.in</t>
+          <t>nutanenetrprize@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BC01</t>
+          <t>AK01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>919821252258</t>
+          <t>919594994935</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>nutanenetrprize@hotmail.com</t>
+          <t>arvindkanojia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AK01</t>
+          <t>RT01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RAMESH THOSANI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>919594994935</t>
+          <t>919930370583</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>arvindkanojia@hotmail.com</t>
+          <t>info@instainsure.in</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RT01</t>
+          <t>JB02</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RAMESH THOSANI</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>919930370583</t>
+          <t>919820182754</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>info@instainsure.in</t>
+          <t>jalpabroker@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JB02</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>919820182754</t>
+          <t>919892244274</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>jalpabroker@gmail.com</t>
+          <t>rajkumar_mamtani@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RM01</t>
+          <t>MM01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>919892244274</t>
+          <t>919820337477</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>rajkumar_mamtani@yahoo.com</t>
+          <t>mukesh1952mehra@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MM01</t>
+          <t>DS01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>919820337477</t>
+          <t>919920939565</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>mukesh1952mehra@gmail.com</t>
+          <t>dhruvsshah05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DS01</t>
+          <t>KW01</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>919920939565</t>
+          <t>919820191855</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>dhruvsshah05@gmail.com</t>
+          <t>manojkotadia4@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KW01</t>
+          <t>RM02</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>919820191855</t>
+          <t>919920368742</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>manojkotadia4@gmail.com</t>
+          <t>roshan.machado1@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RM02</t>
+          <t>UM01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>UM</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>919920368742</t>
+          <t>919821156162</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>roshan.machado1@gmail.com</t>
+          <t>urmil@jkcolors.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>UM01</t>
+          <t>BP01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UM</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>919821156162</t>
+          <t>919967524040</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>urmil@jkcolors.com</t>
+          <t>beenapandey888@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BP01</t>
+          <t>BM01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>919967524040</t>
+          <t>919930010210</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>beenapandey888@gmail.com</t>
+          <t>i@akshaybutani.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BM01</t>
+          <t>MIE01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>MIE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>919930010210</t>
+          <t>919324031876</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>i@akshaybutani.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
     </row>
@@ -10310,8 +10588,8 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="4" max="4"/>
     <col width="36" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
   </cols>
@@ -10525,127 +10803,127 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>accounts@marshah.com</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>919324031876</t>
+          <t>918879669934</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LL01</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>accounts@lykis.com</t>
+          <t>phatunihalani@gmail.com</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>918879669934</t>
+          <t>919820846191</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PN01</t>
+          <t>CS01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>phatunihalani@gmail.com</t>
+          <t>chetnashah59@gmail.com</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>919820846191</t>
+          <t>919833001015</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CS01</t>
+          <t>SJ01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHETNA SHAH</t>
+          <t>RITIN SINGH RAGHUVANSHI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CHETNA SHAH</t>
+          <t>SANTOSH JADYAL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>chetnashah59@gmail.com</t>
+          <t>santoshjadyal986722@gmail.com</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>919833001015</t>
+          <t>918369843574</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -10654,7 +10932,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RITIN SINGH RAGHUVANSHI</t>
+          <t>SANTOSH MATHEW ABRAHAM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10675,351 +10953,351 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SJ01</t>
+          <t>SR01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SANTOSH MATHEW ABRAHAM</t>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SANTOSH JADYAL</t>
+          <t xml:space="preserve"> SHARIFF RAJAN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>santoshjadyal986722@gmail.com</t>
+          <t>shariff9099@gmail.com</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>918369843574</t>
+          <t>919820001383</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SR01</t>
+          <t>SZ01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHARIFF RAJAN</t>
+          <t>SHASHANK ZENDE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SHARIFF RAJAN</t>
+          <t>SHASHANK ZENDE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>shariff9099@gmail.com</t>
+          <t>shashank_zende@rediffmail.com</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>919820001383</t>
+          <t>919819678840</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SZ01</t>
+          <t>CJ01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SHASHANK ZENDE</t>
+          <t>ANANT KAMERKAR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SHASHANK ZENDE</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>shashank_zende@rediffmail.com</t>
+          <t>joshicmj@gmail.com</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>919819678840</t>
+          <t>919820167054</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CJ01</t>
+          <t>ES01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ANANT KAMERKAR</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joshicmj@gmail.com</t>
+          <t>esha.salian@hotmail.com</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>919820167054</t>
+          <t>919833026230</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ES01</t>
+          <t>NS01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ESHA SALIAN</t>
+          <t>NIDHI SALIAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ESHA SALIAN</t>
+          <t>NIDHI SALIAN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>esha.salian@hotmail.com</t>
+          <t>nidhisalian@gmail.com</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>919833026230</t>
+          <t>919920156618</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NS01</t>
+          <t>PHPL01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NIDHI SALIAN</t>
+          <t>PERFECT HOUSE PVT LTD</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NIDHI SALIAN</t>
+          <t>PERFECT HOUSE PVT LTD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>nidhisalian@gmail.com</t>
+          <t>vikaskumar@perfectgenset.com</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>919920156618</t>
+          <t>919653677195</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHPL01</t>
+          <t>BB01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PERFECT HOUSE PVT LTD</t>
+          <t>BIJAL BROKER</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PERFECT HOUSE PVT LTD</t>
+          <t>BIJAL BROKER</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>vikaskumar@perfectgenset.com</t>
+          <t>bijalbroker@yahoo.com</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>919653677195</t>
+          <t>917303344255</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BB01</t>
+          <t>GPL01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BIJAL BROKER</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BIJAL BROKER</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>bijalbroker@yahoo.com</t>
+          <t>accounts@gansons.com</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>917303344255</t>
+          <t>919892141561</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GPL01</t>
+          <t>TS01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>accounts@gansons.com</t>
+          <t>trishlaashah@gmail.com</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>919892141561</t>
+          <t>919820800255</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TS01</t>
+          <t>AR01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ASIF RUPANI</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ASIF RUPANI</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>trishlaashah@gmail.com</t>
+          <t>aazifr@gmail.com</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>919820800255</t>
+          <t>919819406231</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AR01</t>
+          <t>VM01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ASIF RUPANI</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ASIF RUPANI</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>aazifr@gmail.com</t>
+          <t>varun.malhotraa@gmail.com</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>919819406231</t>
+          <t>919820090906</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VM01</t>
+          <t>NM01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>NEELAM MALHOTRA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>NEELAM MALHOTRA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -11029,103 +11307,103 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>919820090906</t>
+          <t>919920034488</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NM01</t>
+          <t>KM01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEELAM MALHOTRA</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NEELAM MALHOTRA</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>varun.malhotraa@gmail.com</t>
+          <t>karan.d.malhotra@gmail.com</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>919920034488</t>
+          <t>919820090903</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KM01</t>
+          <t>JVPL01</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>VINIT ASHER</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>JAYAS VENTURES PVT LTD</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>karan.d.malhotra@gmail.com</t>
+          <t>admin@jayasventures.com</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>919820090903</t>
+          <t>919702831842</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JVPL01</t>
+          <t>MD01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VINIT ASHER</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>JAYAS VENTURES PVT LTD</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>admin@jayasventures.com</t>
+          <t>dalalparul@gmail.com</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>919702831842</t>
+          <t>919820170933</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -11134,7 +11412,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>PARUL DALAL</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -11155,37 +11433,37 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MD01</t>
+          <t>GPL01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PARUL DALAL</t>
+          <t>ASHIS BANERJEE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>dalalparul@gmail.com</t>
+          <t>accounts@gansons.com</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>919820170933</t>
+          <t>919892141561</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -11194,7 +11472,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ASHIS BANERJEE</t>
+          <t>ANURADHA BANERJEE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -11215,67 +11493,67 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GPL01</t>
+          <t>APML01</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ANURADHA BANERJEE</t>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>accounts@gansons.com</t>
+          <t>harshad.hemani@gmail.com</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>919892141561</t>
+          <t>919820040939</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>APML01</t>
+          <t>JB01</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+          <t>DURGA BHALLA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>harshad.hemani@gmail.com</t>
+          <t>jbhalla123@gmail.com</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>919820040939</t>
+          <t>919820134670</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -11284,7 +11562,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DURGA BHALLA</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -11305,97 +11583,97 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JB01</t>
+          <t>MN01</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>SUNANDA RAJENDRAN</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>jbhalla123@gmail.com</t>
+          <t>abhishekkripashankar1987@gmail.com</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>919820134670</t>
+          <t>919987091268</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MN01</t>
+          <t>CJ01</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SUNANDA RAJENDRAN</t>
+          <t>SHEETAL SHAH</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>abhishekkripashankar1987@gmail.com</t>
+          <t>joshicmj@gmail.com</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>919987091268</t>
+          <t>919820167054</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CJ01</t>
+          <t>SP01</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SHEETAL SHAH</t>
+          <t>NIKHIL SHAH</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joshicmj@gmail.com</t>
+          <t>aaditya_717@hotmail.com</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>919820167054</t>
+          <t>919987031053</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -11404,7 +11682,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NIKHIL SHAH</t>
+          <t>MANISH MARIWALA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -11425,547 +11703,547 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SP01</t>
+          <t>MN01</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MANISH MARIWALA</t>
+          <t>CHANDNI LAMBA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SAMIR PARIKH</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>aaditya_717@hotmail.com</t>
+          <t>abhishekkripashankar1987@gmail.com</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>919987031053</t>
+          <t>919987091268</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MN01</t>
+          <t>JB01</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CHANDNI LAMBA</t>
+          <t>MEGHNA BHALLA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>abhishekkripashankar1987@gmail.com</t>
+          <t>jbhalla123@gmail.com</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>919987091268</t>
+          <t>919820134670</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>JB01</t>
+          <t>UIP01</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MEGHNA BHALLA</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>jbhalla123@gmail.com</t>
+          <t>accounts@uip.co.in</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>919820134670</t>
+          <t>919819002833</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UIP01</t>
+          <t>BC01</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>accounts@uip.co.in</t>
+          <t>nutanenetrprize@hotmail.com</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>919819002833</t>
+          <t>919821252258</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BC01</t>
+          <t>AK01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>nutanenetrprize@hotmail.com</t>
+          <t>arvindkanojia@hotmail.com</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>919821252258</t>
+          <t>919594994935</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AK01</t>
+          <t>RT01</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RIDHI SANGHVI</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RAMESH THOSANI</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>arvindkanojia@hotmail.com</t>
+          <t>info@instainsure.in</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>919594994935</t>
+          <t>919930370583</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RT01</t>
+          <t>CJ01</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>RIDHI SANGHVI</t>
+          <t>SHAILESH SOOD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>RAMESH THOSANI</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>info@instainsure.in</t>
+          <t>joshicmj@gmail.com</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>919930370583</t>
+          <t>919820167054</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CJ01</t>
+          <t>JB02</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SHAILESH SOOD</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joshicmj@gmail.com</t>
+          <t>jalpabroker@gmail.com</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>919820167054</t>
+          <t>919820182754</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>JB02</t>
+          <t>GT01</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>jalpabroker@gmail.com</t>
+          <t>info@instainsure.in</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>919820182754</t>
+          <t>13106947225</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GT01</t>
+          <t>NN01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>info@instainsure.in</t>
+          <t>nikkisnaik@gmail.com</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>13106947225</t>
+          <t>919820108208</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NN01</t>
+          <t>JC01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>ST JOSEPHS CHURCH TRUST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>ST JOSEPHS CHURCH TRUST</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>nikkisnaik@gmail.com</t>
+          <t>josephchurchocd@gmail.com</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>919820108208</t>
+          <t>918655238099</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>JC01</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ST JOSEPHS CHURCH TRUST</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ST JOSEPHS CHURCH TRUST</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>josephchurchocd@gmail.com</t>
+          <t>rajkumar_mamtani@yahoo.com</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>918655238099</t>
+          <t>919892244274</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>RM01</t>
+          <t>MM01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>rajkumar_mamtani@yahoo.com</t>
+          <t>mukesh1952mehra@gmail.com</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>919892244274</t>
+          <t>919820337477</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MM01</t>
+          <t>DS01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>mukesh1952mehra@gmail.com</t>
+          <t>dhruvsshah05@gmail.com</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>919820337477</t>
+          <t>919920939565</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DS01</t>
+          <t>KW01</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>dhruvsshah05@gmail.com</t>
+          <t>manojkotadia4@gmail.com</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>919920939565</t>
+          <t>919820191855</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>KW01</t>
+          <t>RM02</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>manojkotadia4@gmail.com</t>
+          <t>roshan.machado1@gmail.com</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>919820191855</t>
+          <t>919920368742</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RM02</t>
+          <t>UM01</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>roshan.machado1@gmail.com</t>
+          <t>urmil@jkcolors.com</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>919920368742</t>
+          <t>919821156162</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>UM01</t>
+          <t>BP01</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>urmil@jkcolors.com</t>
+          <t>beenapandey888@gmail.com</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>919821156162</t>
+          <t>919967524040</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -11974,7 +12252,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>KIRTI PANDEY</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11995,91 +12273,91 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BP01</t>
+          <t>GPL01</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>KIRTI PANDEY</t>
+          <t>ARNABH BANERJEE</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>beenapandey888@gmail.com</t>
+          <t>accounts@gansons.com</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>919967524040</t>
+          <t>919892141561</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GPL01</t>
+          <t>BM01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ARNABH BANERJEE</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>accounts@gansons.com</t>
+          <t>i@akshaybutani.com</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>919892141561</t>
+          <t>919930010210</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BM01</t>
+          <t>MIE01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH IND ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>i@akshaybutani.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>919930010210</t>
+          <t>919324031876</t>
         </is>
       </c>
     </row>
@@ -12094,7 +12372,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE8"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12121,7 +12399,7 @@
     <col width="34" customWidth="1" min="17" max="17"/>
     <col width="15" customWidth="1" min="18" max="18"/>
     <col width="13" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
     <col width="34" customWidth="1" min="21" max="21"/>
     <col width="34" customWidth="1" min="22" max="22"/>
     <col width="15" customWidth="1" min="23" max="23"/>
@@ -12129,10 +12407,10 @@
     <col width="15" customWidth="1" min="25" max="25"/>
     <col width="16" customWidth="1" min="26" max="26"/>
     <col width="19" customWidth="1" min="27" max="27"/>
-    <col width="43" customWidth="1" min="28" max="28"/>
+    <col width="25" customWidth="1" min="28" max="28"/>
     <col width="34" customWidth="1" min="29" max="29"/>
     <col width="14" customWidth="1" min="30" max="30"/>
-    <col width="43" customWidth="1" min="31" max="31"/>
+    <col width="25" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12403,19 +12681,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL01</t>
+          <t>LL01</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -12430,12 +12708,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2026-10-07</t>
+          <t>2026-10-20</t>
         </is>
       </c>
       <c r="I3" t="b">
@@ -12448,27 +12726,27 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>CUST.FLOAT</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1458</v>
+        <v>1996</v>
       </c>
       <c r="M3" t="n">
-        <v>2180</v>
+        <v>2850</v>
       </c>
       <c r="N3" t="n">
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>327</v>
+        <v>427.5</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>310 HILL VIEW</t>
+          <t>STOCK - ANDHERI OFFICE</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -12483,52 +12761,52 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2025-10-18T16:22:42.948097+00:00</t>
+          <t>2025-10-18T16:26:43.19344+00:00</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2025-10-18T16:22:42.948097+00:00</t>
+          <t>2025-10-18T16:26:43.19344+00:00</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="X3" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
       <c r="Z3" t="n">
         <v>18</v>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>accounts@marshah.com</t>
+          <t>accounts@lykis.com</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>919324031876</t>
+          <t>918879669934</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>MARSHAH INDUSTRIAL ELECTRONICS CO PVT LTD</t>
+          <t>LYKIS LIMITED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -12568,7 +12846,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -12577,23 +12855,23 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1996</v>
+        <v>400</v>
       </c>
       <c r="M4" t="n">
-        <v>2850</v>
+        <v>472</v>
       </c>
       <c r="N4" t="n">
         <v>15</v>
       </c>
       <c r="O4" t="n">
-        <v>427.5</v>
+        <v>70.8</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>STOCK - ANDHERI OFFICE</t>
+          <t>STOCKS - ANDHERI</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -12613,16 +12891,13 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2025-10-18T16:26:43.19344+00:00</t>
+          <t>2025-10-18T16:28:24.416245+00:00</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2025-10-18T16:26:43.19344+00:00</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>420</v>
+          <t>2025-10-18T16:28:24.416245+00:00</t>
+        </is>
       </c>
       <c r="X4" t="n">
         <v>2000000</v>
@@ -12653,15 +12928,15 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LL01</t>
+          <t>PN01</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -12680,12 +12955,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2026-10-20</t>
+          <t>2026-10-19</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -12693,32 +12968,32 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>CUST.FLOAT</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>400</v>
+        <v>57690</v>
       </c>
       <c r="M5" t="n">
-        <v>472</v>
+        <v>85119</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>70.8</v>
+        <v>15321.42</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>STOCKS - ANDHERI</t>
+          <t>MH-03-DS-4590(KIA EV6)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -12733,81 +13008,84 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>NIHALANI</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2025-10-18T16:28:24.416245+00:00</t>
+          <t>2025-10-18T16:34:19.714761+00:00</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2025-10-18T16:28:24.416245+00:00</t>
-        </is>
+          <t>2025-10-18T16:34:19.714761+00:00</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>7217</v>
       </c>
       <c r="X5" t="n">
-        <v>2000000</v>
+        <v>4349183</v>
       </c>
       <c r="Z5" t="n">
         <v>18</v>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>accounts@lykis.com</t>
+          <t>phatunihalani@gmail.com</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>918879669934</t>
+          <t>919820846191</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>LYKIS LIMITED</t>
+          <t>PHATU NIHALANI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PN01</t>
+          <t>CS01</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2026-10-19</t>
+          <t>2026-10-15</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -12815,7 +13093,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -12824,23 +13102,23 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>57690</v>
+        <v>109152</v>
       </c>
       <c r="M6" t="n">
-        <v>85119</v>
+        <v>109152</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>15321.42</v>
+        <v>10915.2</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>MH-03-DS-4590(KIA EV6)</t>
+          <t>HEALTH INSURANCE- CHETNA SHAH</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -12850,69 +13128,61 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>NIHALANI</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2025-10-18T16:34:19.714761+00:00</t>
+          <t>2025-10-18T17:28:26.169236+00:00</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2025-10-18T16:34:19.714761+00:00</t>
+          <t>2025-10-18T17:28:26.169236+00:00</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>7217</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4349183</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
         <v>18</v>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>phatunihalani@gmail.com</t>
+          <t>chetnashah59@gmail.com</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>919820846191</t>
+          <t>919833001015</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>PHATU NIHALANI</t>
+          <t>CHETNA SHAH</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS01</t>
+          <t>JC01</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -12927,12 +13197,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-11-05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2026-10-15</t>
+          <t>2026-11-04</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -12940,32 +13210,26 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>NEFT</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>109152</v>
+        <v>10297</v>
       </c>
       <c r="M7" t="n">
-        <v>109152</v>
-      </c>
-      <c r="N7" t="n">
-        <v>10</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10915.2</v>
+        <v>12150.46</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE- CHETNA SHAH</t>
+          <t>CHURCH INSURANCE</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -12975,160 +13239,49 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>HELEN D'SOUZA</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2025-10-18T17:28:26.169236+00:00</t>
+          <t>2025-10-21T06:10:31.531793+00:00</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2025-10-18T17:28:26.169236+00:00</t>
-        </is>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
+          <t>2025-10-21T06:10:31.531793+00:00</t>
+        </is>
+      </c>
+      <c r="X7" t="n">
+        <v>25000000</v>
       </c>
       <c r="Z7" t="n">
         <v>18</v>
       </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>CHETNA SHAH</t>
+          <t>ST JOSEPHS CHURCH TRUST</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>chetnashah59@gmail.com</t>
+          <t>josephchurchocd@gmail.com</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>919833001015</t>
+          <t>918655238099</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
-        <is>
-          <t>CHETNA SHAH</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>JC01</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-10-18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-11-05</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2026-11-04</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>NEFT</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>10297</v>
-      </c>
-      <c r="M8" t="n">
-        <v>12150.46</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>CHURCH INSURANCE</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>RENEWAL</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>HELEN D'SOUZA</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>2025-10-21T06:10:31.531793+00:00</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2025-10-21T06:10:31.531793+00:00</t>
-        </is>
-      </c>
-      <c r="X8" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>ST JOSEPHS CHURCH TRUST</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>josephchurchocd@gmail.com</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>918655238099</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
         <is>
           <t>ST JOSEPHS CHURCH TRUST</t>
         </is>

--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,8 +469,8 @@
     <col width="35" customWidth="1" min="27" max="27"/>
     <col width="50" customWidth="1" min="28" max="28"/>
     <col width="50" customWidth="1" min="29" max="29"/>
-    <col width="33" customWidth="1" min="30" max="30"/>
-    <col width="12" customWidth="1" min="31" max="31"/>
+    <col width="34" customWidth="1" min="30" max="30"/>
+    <col width="34" customWidth="1" min="31" max="31"/>
     <col width="34" customWidth="1" min="32" max="32"/>
     <col width="34" customWidth="1" min="33" max="33"/>
     <col width="18" customWidth="1" min="34" max="34"/>
@@ -1837,91 +1837,86 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>CHANDNI LAMBA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OG123</t>
+          <t>0150753335</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BHARAT GRIHA RAKSHA</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>05/11/2026</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21/10/2025</t>
+          <t>14/10/2025</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Factory Insurance</t>
-        </is>
+          <t>CH-01-CE-4976</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>86565</v>
       </c>
       <c r="P10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="S10" t="n">
         <v>18</v>
       </c>
       <c r="T10" t="n">
-        <v>1298</v>
+        <v>5118</v>
       </c>
       <c r="U10" t="n">
         <v>15</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>55.65</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1934,60 +1929,40 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>UPI</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>EC1M2.pdf</t>
+          <t>Chandni Lamba.pdf</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K</t>
+          <t>18Sm_5wvNch6LAkQtUDXs18PK6CKg-fRj</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>DS01/Dhruv Shah/EC1M2.pdf</t>
+          <t>MN01/CHANDNI LAMBA/Chandni Lamba.pdf</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>2025-10-21T18:51:38.42018+00:00</t>
+          <t>https://drive.google.com/file/d/18Sm_5wvNch6LAkQtUDXs18PK6CKg-fRj/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>2025-10-22T01:16:38.149177+00:00</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>2025-10-21T10:40:05.721536+00:00</t>
+          <t>2025-10-20T08:06:30.097901+00:00</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>2025-10-21T10:40:05.721536+00:00</t>
-        </is>
-      </c>
-      <c r="AT10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>1000</v>
+          <t>2025-10-20T08:06:30.097901+00:00</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2123,6 +2098,161 @@
       </c>
       <c r="AM11" t="n">
         <v>400000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>OG123</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>BHARAT GRIHA RAKSHA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Factory Insurance</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>18</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1298</v>
+      </c>
+      <c r="U12" t="n">
+        <v>15</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>DS01/Dhruv Shah/EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>2025-10-22T14:05:29.749687+00:00</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2025-10-21T10:40:05.721536+00:00</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>2025-10-21T10:40:05.721536+00:00</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -2136,7 +2266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF53"/>
+  <dimension ref="A1:BF55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5739,36 +5869,36 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CHANDNI LAMBA</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0150753335</t>
+          <t>12-8457-0000046958-00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -5788,32 +5918,34 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>BHALLA FAMILY</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>CH-01-CE-4976</t>
-        </is>
-      </c>
-      <c r="O27" t="n">
-        <v>91121</v>
+          <t>HEALTH INSURANCE - JATIN BHALLA</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>469</v>
+        <v>59028</v>
       </c>
       <c r="S27" t="n">
         <v>18</v>
       </c>
       <c r="T27" t="n">
-        <v>5233</v>
+        <v>69653</v>
       </c>
       <c r="U27" t="n">
         <v>15</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>70.35</t>
+          <t>8854.20</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -5828,38 +5960,64 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Chandni Lamba.pdf</t>
+          <t>Jatin Bhalla.pdf</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>1kNETq96BKGuLnprL_gdfUbdiT7rYcIgv</t>
+          <t>1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>MN01/CHANDNI LAMBA/MN01 - CHANDNI LAMBA - Chandni Lamba.pdf</t>
+          <t>JB01/JATIN BHALLA/JB01 - JATIN BHALLA - Jatin Bhalla.pdf</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1kNETq96BKGuLnprL_gdfUbdiT7rYcIgv/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2025-10-20T08:06:30.097901+00:00</t>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>2025-10-20T08:06:30.097901+00:00</t>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI27" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>900000</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>JANHVI BHALLA</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5868,12 +6026,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>MEGHNA BHALLA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12-8457-0000046958-00</t>
+          <t>12-8456-0000019722-00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5918,24 +6076,24 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - JATIN BHALLA</t>
+          <t>HEALTH INSURANCE - MEGHNA BHALLA</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>59028</v>
+        <v>18141</v>
       </c>
       <c r="S28" t="n">
         <v>18</v>
       </c>
       <c r="T28" t="n">
-        <v>69653</v>
+        <v>21406</v>
       </c>
       <c r="U28" t="n">
         <v>15</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>8854.20</t>
+          <t>2721.15</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -5950,103 +6108,93 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Jatin Bhalla.pdf</t>
+          <t>Meghna Bhalla.pdf</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl</t>
+          <t>1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>JB01/JATIN BHALLA/JB01 - JATIN BHALLA - Jatin Bhalla.pdf</t>
+          <t>JB01/MEGHNA BHALLA/JB01 - MEGHNA BHALLA - Meghna Bhalla.pdf</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2025-10-20T07:26:38.429333+00:00</t>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2025-10-20T07:26:38.429333+00:00</t>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI28" t="n">
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="AM28" t="n">
         <v>2000000</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AN28" t="n">
         <v>900000</v>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>JATIN BHALLA</t>
-        </is>
-      </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>DURGA BHALLA</t>
-        </is>
-      </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>JANHVI BHALLA</t>
-        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MEGHNA BHALLA</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12-8456-0000019722-00</t>
+          <t>0156470784</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6061,29 +6209,32 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>BHALLA FAMILY</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - MEGHNA BHALLA</t>
-        </is>
+          <t>MH-03-BW-8972(M.BALENO)</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>330712</v>
       </c>
       <c r="P29" t="n">
-        <v>18141</v>
+        <v>1482</v>
       </c>
       <c r="S29" t="n">
         <v>18</v>
       </c>
       <c r="T29" t="n">
-        <v>21406</v>
+        <v>5987</v>
       </c>
       <c r="U29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>2721.15</t>
+          <t>296.40</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -6098,93 +6249,77 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Meghna Bhalla.pdf</t>
+          <t>Universal Industrial Products.pdf</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK</t>
+          <t>1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>JB01/MEGHNA BHALLA/JB01 - MEGHNA BHALLA - Meghna Bhalla.pdf</t>
+          <t>UIP01/UNIVERSAL INDUSTRIAL PRODUCTS/UIP01 - UNIVERSAL INDUSTRIAL PRODUCTS - Universal Industrial Products.pdf</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>2025-10-20T08:11:19.40031+00:00</t>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>2025-10-20T08:11:19.40031+00:00</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>MEGHNA BHALLA</t>
-        </is>
-      </c>
-      <c r="AM29" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>900000</v>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0156470784</t>
+          <t>12-8456-0000019556-00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -6199,32 +6334,24 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>MH-03-BW-8972(M.BALENO)</t>
-        </is>
-      </c>
-      <c r="O30" t="n">
-        <v>330712</v>
+          <t>NUTAN AUTO</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>1482</v>
+        <v>65151</v>
       </c>
       <c r="S30" t="n">
         <v>18</v>
       </c>
       <c r="T30" t="n">
-        <v>5987</v>
+        <v>76878</v>
       </c>
       <c r="U30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>296.40</t>
+          <t>9772.65</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -6239,52 +6366,79 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Universal Industrial Products.pdf</t>
+          <t>Bankim Choksi.pdf</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP</t>
+          <t>1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>UIP01/UNIVERSAL INDUSTRIAL PRODUCTS/UIP01 - UNIVERSAL INDUSTRIAL PRODUCTS - Universal Industrial Products.pdf</t>
+          <t>BC01/BANKIM CHOKSI/BC01 - BANKIM CHOKSI - Bankim Choksi.pdf</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2025-10-20T09:23:23.499515+00:00</t>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2025-10-20T09:23:23.499515+00:00</t>
-        </is>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="AM30" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>NISHA CHOKSI</t>
+        </is>
+      </c>
+      <c r="AQ30" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12-8456-0000019556-00</t>
+          <t>12-8457-0000047400-00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6304,12 +6458,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -6324,24 +6478,29 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>NUTAN AUTO</t>
+          <t>INDREX</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>65151</v>
+        <v>52866</v>
       </c>
       <c r="S31" t="n">
         <v>18</v>
       </c>
       <c r="T31" t="n">
-        <v>76878</v>
+        <v>62382</v>
       </c>
       <c r="U31" t="n">
         <v>15</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>9772.65</t>
+          <t>7929.90</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -6356,79 +6515,83 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Bankim Choksi.pdf</t>
+          <t>Arvind Kanojia.pdf</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs</t>
+          <t>1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>BC01/BANKIM CHOKSI/BC01 - BANKIM CHOKSI - Bankim Choksi.pdf</t>
+          <t>AK01/ARVIND KANOJIA/AK01 - ARVIND KANOJIA - Arvind Kanojia.pdf</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2025-10-20T09:28:10.047436+00:00</t>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>2025-10-20T09:28:10.047436+00:00</t>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
-        </is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI31" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>585000</v>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
-        </is>
-      </c>
-      <c r="AM31" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>500000</v>
+          <t>ARVIND KANOJIA</t>
+        </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>NISHA CHOKSI</t>
-        </is>
-      </c>
-      <c r="AQ31" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>500000</v>
+          <t>GAYTRI KANOJIA</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>PAWAN KANOJIA</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>RISHABH KANOJIA</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RAMESH THOSANI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RIDHI SANGHVI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12-8457-0000047400-00</t>
+          <t>12-8432-0000115044-02</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6448,12 +6611,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -6468,29 +6631,29 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>INDREX</t>
+          <t>THOSANI FAMILY</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>HEALTH TOP UP - RIDHI</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>52866</v>
+        <v>10611</v>
       </c>
       <c r="S32" t="n">
         <v>18</v>
       </c>
       <c r="T32" t="n">
-        <v>62382</v>
+        <v>12521</v>
       </c>
       <c r="U32" t="n">
         <v>15</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>7929.90</t>
+          <t>1591.65</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -6505,32 +6668,32 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Arvind Kanojia.pdf</t>
+          <t>Ridhi Sanghvi.pdf</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG</t>
+          <t>197Frp_gifNVb33SeKG7MNMVzFE1oBErB</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>AK01/ARVIND KANOJIA/AK01 - ARVIND KANOJIA - Arvind Kanojia.pdf</t>
+          <t>RT01/RIDHI SANGHVI/RT01 - RIDHI SANGHVI - Ridhi Sanghvi.pdf</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/197Frp_gifNVb33SeKG7MNMVzFE1oBErB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>2025-10-20T09:34:38.747085+00:00</t>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>2025-10-20T09:34:38.747085+00:00</t>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -6539,49 +6702,44 @@
         </is>
       </c>
       <c r="AI32" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>585000</v>
+        <v>1000000</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RIDHI SANGHVI</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>GAYTRI KANOJIA</t>
+          <t>SHREYAS SANGHVI</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>PAWAN KANOJIA</t>
-        </is>
-      </c>
-      <c r="AX32" t="inlineStr">
-        <is>
-          <t>RISHABH KANOJIA</t>
+          <t>KANAISHA SANGHVI</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RAMESH THOSANI</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>RIDHI SANGHVI</t>
+          <t>SHAILESH SOOD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12-8432-0000115044-02</t>
+          <t>12-8451-0000031554-06</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6601,12 +6759,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6616,34 +6774,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>THOSANI FAMILY</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - RIDHI</t>
+          <t>HEALTH INSURANCE - SHAILESH SOOD</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>10611</v>
+        <v>28233</v>
       </c>
       <c r="S33" t="n">
         <v>18</v>
       </c>
       <c r="T33" t="n">
-        <v>12521</v>
+        <v>33315</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>1591.65</t>
+          <t>4234.95</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6658,32 +6811,32 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Ridhi Sanghvi.pdf</t>
+          <t>Shailesh Sood.pdf</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>197Frp_gifNVb33SeKG7MNMVzFE1oBErB</t>
+          <t>1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>RT01/RIDHI SANGHVI/RT01 - RIDHI SANGHVI - Ridhi Sanghvi.pdf</t>
+          <t>CJ01/SHAILESH SOOD/CJ01 - SHAILESH SOOD - Shailesh Sood.pdf</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/197Frp_gifNVb33SeKG7MNMVzFE1oBErB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2025-10-20T09:49:47.916917+00:00</t>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>2025-10-20T09:49:47.916917+00:00</t>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
@@ -6692,101 +6845,104 @@
         </is>
       </c>
       <c r="AI33" t="n">
-        <v>5000000</v>
+        <v>300000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000000</v>
+        <v>180000</v>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>RIDHI SANGHVI</t>
+          <t>SHAILESH SOOD</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>SHREYAS SANGHVI</t>
+          <t>SNEHAL SOOD</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>KANAISHA SANGHVI</t>
+          <t>SAISHA SOOD</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SHAILESH SOOD</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12-8451-0000031554-06</t>
+          <t>1015/367837947/00/000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>FIRE INSURANCE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>08/11/2026</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - SHAILESH SOOD</t>
-        </is>
+          <t>HOME INSURANCE - JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>7200000</v>
       </c>
       <c r="P34" t="n">
-        <v>28233</v>
+        <v>6896</v>
       </c>
       <c r="S34" t="n">
         <v>18</v>
       </c>
       <c r="T34" t="n">
-        <v>33315</v>
+        <v>8137</v>
       </c>
       <c r="U34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>4234.95</t>
+          <t>689.60</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6801,138 +6957,114 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Shailesh Sood.pdf</t>
+          <t>Jalpa Broker - Home Protect.pdf</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES</t>
+          <t>1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>CJ01/SHAILESH SOOD/CJ01 - SHAILESH SOOD - Shailesh Sood.pdf</t>
+          <t>JB02/JALPA BROKER/JB02 - JALPA BROKER - Jalpa Broker - Home Protect.pdf</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2025-10-20T09:54:53.887971+00:00</t>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>2025-10-20T09:54:53.887971+00:00</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI34" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>180000</v>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>SHAILESH SOOD</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>SNEHAL SOOD</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>SAISHA SOOD</t>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1015/367837947/00/000</t>
+          <t>12-8457-0000047881-00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FIRE INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>08/11/2026</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>THOSANI FAMILY</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>HOME INSURANCE - JALPA BROKER</t>
-        </is>
-      </c>
-      <c r="O35" t="n">
-        <v>7200000</v>
+          <t>HEALTH INSURANCE - GAURAV THOSANI</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>6896</v>
+        <v>49361</v>
       </c>
       <c r="S35" t="n">
         <v>18</v>
       </c>
       <c r="T35" t="n">
-        <v>8137</v>
+        <v>58245</v>
       </c>
       <c r="U35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>689.60</t>
+          <t>7404.15</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -6947,52 +7079,78 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Jalpa Broker - Home Protect.pdf</t>
+          <t>Gaurav Thosani.pdf</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO</t>
+          <t>1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>JB02/JALPA BROKER/JB02 - JALPA BROKER - Jalpa Broker - Home Protect.pdf</t>
+          <t>GT01/GAURAV THOSANI/GT01 - GAURAV THOSANI - Gaurav Thosani.pdf</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2025-10-20T09:58:40.733371+00:00</t>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>2025-10-20T09:58:40.733371+00:00</t>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI35" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>NIYATI THOSANI</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>ANANYA THOSANI</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12-8457-0000047881-00</t>
+          <t>OG-25-1908-3301-00000060</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7002,7 +7160,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>PUBLIC LIABILITY</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -7012,17 +7170,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -7032,30 +7190,25 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>THOSANI FAMILY</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - GAURAV THOSANI</t>
-        </is>
+          <t>PUBLIC LIABILITY INSURANCE</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>10000000</v>
       </c>
       <c r="P36" t="n">
-        <v>49361</v>
+        <v>7500</v>
       </c>
       <c r="S36" t="n">
         <v>18</v>
       </c>
       <c r="T36" t="n">
-        <v>58245</v>
-      </c>
-      <c r="U36" t="n">
-        <v>15</v>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>7404.15</t>
-        </is>
+        <v>8850</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -7069,78 +7222,52 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Gaurav Thosani.pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2</t>
+          <t>1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>GT01/GAURAV THOSANI/GT01 - GAURAV THOSANI - Gaurav Thosani.pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2025-10-20T10:03:27.633381+00:00</t>
+          <t>2025-10-21T06:28:16.82056+00:00</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>2025-10-20T10:03:27.633381+00:00</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI36" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>GAURAV THOSANI</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>NIYATI THOSANI</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>ANANYA THOSANI</t>
+          <t>2025-10-21T06:28:16.82056+00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OG-25-1908-3301-00000060</t>
+          <t>12-8456-0000020466-00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -7150,7 +7277,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>PUBLIC LIABILITY</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -7160,17 +7287,17 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -7180,25 +7307,30 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PUBLIC LIABILITY INSURANCE</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>10000000</v>
+          <t>HEALTH INURANCE - NIKKI NAIK</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>7500</v>
+        <v>82242</v>
       </c>
       <c r="S37" t="n">
         <v>18</v>
       </c>
       <c r="T37" t="n">
-        <v>8850</v>
+        <v>97045.56</v>
+      </c>
+      <c r="U37" t="n">
+        <v>15</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>12336.30</t>
+        </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -7212,38 +7344,54 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
+          <t>Nikki Naik.pdf</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm</t>
+          <t>1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
+          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik.pdf</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2025-10-21T06:28:16.82056+00:00</t>
+          <t>2025-10-21T06:02:47.195241+00:00</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>2025-10-21T06:28:16.82056+00:00</t>
-        </is>
+          <t>2025-10-21T06:02:47.195241+00:00</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>NIKKI NAIK</t>
+        </is>
+      </c>
+      <c r="AM37" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -7257,7 +7405,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12-8456-0000020466-00</t>
+          <t>12-8432-0000022945-11</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7292,34 +7440,29 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
           <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HEALTH INURANCE - NIKKI NAIK</t>
+          <t>HEALTH TOP UP - NIKKI NAIK</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>82242</v>
+        <v>7105</v>
       </c>
       <c r="S38" t="n">
         <v>18</v>
       </c>
       <c r="T38" t="n">
-        <v>97045.56</v>
+        <v>8383.9</v>
       </c>
       <c r="U38" t="n">
         <v>15</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>12336.30</t>
+          <t>1065.75</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -7334,68 +7477,71 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Nikki Naik.pdf</t>
+          <t>Nikki Naik (EC+).pdf</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I</t>
+          <t>1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik.pdf</t>
+          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik (EC+).pdf</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2025-10-21T06:02:47.195241+00:00</t>
+          <t>2025-10-21T06:05:21.333053+00:00</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>2025-10-21T06:02:47.195241+00:00</t>
+          <t>2025-10-21T06:05:21.333053+00:00</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
-        </is>
+          <t>TOPUP_FLOATER</t>
+        </is>
+      </c>
+      <c r="AI38" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1000000</v>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
           <t>NIKKI NAIK</t>
         </is>
-      </c>
-      <c r="AM38" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>5000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12-8432-0000022945-11</t>
+          <t>OG-25-1908-3316-00000019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7405,7 +7551,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>DIRECTOR &amp; OFFICER LIABILITY</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -7415,44 +7561,52 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - NIKKI NAIK</t>
-        </is>
+          <t>DIRECTOR &amp; OFFICERS LIABILITY INSURANCE</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>10000000</v>
       </c>
       <c r="P39" t="n">
-        <v>7105</v>
+        <v>8000</v>
       </c>
       <c r="S39" t="n">
         <v>18</v>
       </c>
       <c r="T39" t="n">
-        <v>8383.9</v>
+        <v>9440</v>
       </c>
       <c r="U39" t="n">
         <v>15</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1065.75</t>
+          <t>1200.00</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -7467,71 +7621,52 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Nikki Naik (EC+).pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj</t>
+          <t>1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik (EC+).pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2025-10-21T06:05:21.333053+00:00</t>
+          <t>2025-10-21T06:30:11.80587+00:00</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>2025-10-21T06:05:21.333053+00:00</t>
-        </is>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>TOPUP_FLOATER</t>
-        </is>
-      </c>
-      <c r="AI39" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AL39" t="inlineStr">
-        <is>
-          <t>NIKKI NAIK</t>
+          <t>2025-10-21T06:30:11.80587+00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OG-25-1908-3316-00000019</t>
+          <t>12-6403-0000009026-08</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7541,7 +7676,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DIRECTOR &amp; OFFICER LIABILITY</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -7551,17 +7686,17 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -7571,32 +7706,32 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DIRECTOR &amp; OFFICERS LIABILITY INSURANCE</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="P40" t="n">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="S40" t="n">
         <v>18</v>
       </c>
       <c r="T40" t="n">
-        <v>9440</v>
+        <v>1534</v>
       </c>
       <c r="U40" t="n">
         <v>15</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>1200.00</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7611,52 +7746,52 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
+          <t>Mukesh Mehra (PPG).pdf</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh</t>
+          <t>1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
+          <t>MM01/MUKESH MEHRA/MM01 - MUKESH MEHRA - Mukesh Mehra (PPG).pdf</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2025-10-21T06:30:11.80587+00:00</t>
+          <t>2025-10-21T06:52:04.264021+00:00</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>2025-10-21T06:30:11.80587+00:00</t>
+          <t>2025-10-21T06:52:04.264021+00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>12-6403-0000009026-08</t>
+          <t>OG-25-1908-4055-00000545</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7666,7 +7801,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>BHARAT GRIHA RAKSHA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -7676,17 +7811,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -7696,32 +7831,35 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>SOCIETY INSURANCE</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>1000000</v>
+        <v>70000000</v>
       </c>
       <c r="P41" t="n">
-        <v>1300</v>
+        <v>8123</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6400</v>
       </c>
       <c r="S41" t="n">
         <v>18</v>
       </c>
       <c r="T41" t="n">
-        <v>1534</v>
+        <v>17137.14</v>
       </c>
       <c r="U41" t="n">
         <v>15</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>195.00</t>
+          <t>1218.45</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -7736,82 +7874,85 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Mukesh Mehra (PPG).pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd.pdf</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK</t>
+          <t>1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>MM01/MUKESH MEHRA/MM01 - MUKESH MEHRA - Mukesh Mehra (PPG).pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd.pdf</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>2025-10-21T06:52:04.264021+00:00</t>
+          <t>2025-10-21T06:25:37.570165+00:00</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>2025-10-21T06:52:04.264021+00:00</t>
-        </is>
+          <t>2025-10-21T06:25:37.570165+00:00</t>
+        </is>
+      </c>
+      <c r="BB41" t="n">
+        <v>70000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>KIRTI PANDEY</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OG-25-1908-4055-00000545</t>
+          <t>FHR-1S-24-7466860-05-000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>BHARAT GRIHA RAKSHA</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -7821,35 +7962,29 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>SOCIETY INSURANCE</t>
-        </is>
-      </c>
-      <c r="O42" t="n">
-        <v>70000000</v>
+          <t>HEALTH INSURANCE-KIRTI</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>8123</v>
-      </c>
-      <c r="R42" t="n">
-        <v>6400</v>
+        <v>8334</v>
       </c>
       <c r="S42" t="n">
         <v>18</v>
       </c>
       <c r="T42" t="n">
-        <v>17137.14</v>
+        <v>9834</v>
       </c>
       <c r="U42" t="n">
         <v>15</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1218.45</t>
+          <t>1250.10</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -7864,85 +7999,98 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd.pdf</t>
+          <t>Kirti Pandey.pdf</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi</t>
+          <t>1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd.pdf</t>
+          <t>BP01/KIRTI PANDEY/BP01 - KIRTI PANDEY - Kirti Pandey.pdf</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>2025-10-21T06:25:37.570165+00:00</t>
+          <t>2025-10-21T12:17:57.423925+00:00</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>2025-10-21T06:25:37.570165+00:00</t>
-        </is>
-      </c>
-      <c r="BB42" t="n">
-        <v>70000000</v>
+          <t>2025-10-21T12:17:57.423925+00:00</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>KIRTI PANDEY</t>
+        </is>
+      </c>
+      <c r="AM42" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>90000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KIRTI PANDEY</t>
+          <t>ARNABH BANERJEE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FHR-1S-24-7466860-05-000</t>
+          <t>7102082392</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -7952,29 +8100,29 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>GANSONS</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE-KIRTI</t>
+          <t>TRAVEL INSURANCE - ARNABH B</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>8334</v>
+        <v>4696</v>
       </c>
       <c r="S43" t="n">
         <v>18</v>
       </c>
       <c r="T43" t="n">
-        <v>9834</v>
+        <v>5541</v>
       </c>
       <c r="U43" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>1250.10</t>
+          <t>1878.40</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -7989,98 +8137,77 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Kirti Pandey.pdf</t>
+          <t>Arnabh Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym</t>
+          <t>1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>BP01/KIRTI PANDEY/BP01 - KIRTI PANDEY - Kirti Pandey.pdf</t>
+          <t>GPL01/ARNABH BANERJEE/GPL01 - ARNABH BANERJEE - Arnabh Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>2025-10-21T12:17:57.423925+00:00</t>
+          <t>2025-10-21T12:29:28.695639+00:00</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>2025-10-21T12:17:57.423925+00:00</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>KIRTI PANDEY</t>
-        </is>
-      </c>
-      <c r="AM43" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>90000</v>
+          <t>2025-10-21T12:29:28.695639+00:00</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ARNABH BANERJEE</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7102082392</t>
+          <t>OG-25-1908-4010-00000646</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Sweta Shah</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -8090,29 +8217,32 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>GANSONS</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE - ARNABH B</t>
-        </is>
+          <t>STOCK - BURGLARY</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>1500000</v>
       </c>
       <c r="P44" t="n">
-        <v>4696</v>
+        <v>300</v>
       </c>
       <c r="S44" t="n">
         <v>18</v>
       </c>
       <c r="T44" t="n">
-        <v>5541</v>
+        <v>354</v>
       </c>
       <c r="U44" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>1878.40</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -8127,38 +8257,38 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Arnabh Banerjee (CFT).pdf</t>
+          <t>Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc</t>
+          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>GPL01/ARNABH BANERJEE/GPL01 - ARNABH BANERJEE - Arnabh Banerjee (CFT).pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>2025-10-21T12:29:28.695639+00:00</t>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>2025-10-21T12:29:28.695639+00:00</t>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -8172,7 +8302,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000646</t>
+          <t>OG-25-1908-4056-00001019</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -8182,7 +8312,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8212,27 +8347,30 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>STOCK - BURGLARY</t>
+          <t>STOCKS - FIRE</t>
         </is>
       </c>
       <c r="O45" t="n">
         <v>1500000</v>
       </c>
       <c r="P45" t="n">
-        <v>300</v>
+        <v>2716</v>
+      </c>
+      <c r="R45" t="n">
+        <v>345</v>
       </c>
       <c r="S45" t="n">
         <v>18</v>
       </c>
       <c r="T45" t="n">
-        <v>354</v>
+        <v>3611.98</v>
       </c>
       <c r="U45" t="n">
         <v>15</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>407.40</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -8247,62 +8385,65 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Burg).pdf</t>
+          <t>Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
+          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
-        </is>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
+        </is>
+      </c>
+      <c r="BE45" t="n">
+        <v>1500000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001019</t>
+          <t>0239156527</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -8312,12 +8453,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -8332,35 +8473,29 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>STOCKS - FIRE</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>1500000</v>
+          <t>HEALTH INSURANCE</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>2716</v>
-      </c>
-      <c r="R46" t="n">
-        <v>345</v>
+        <v>39542</v>
       </c>
       <c r="S46" t="n">
         <v>18</v>
       </c>
       <c r="T46" t="n">
-        <v>3611.98</v>
+        <v>46659.56</v>
       </c>
       <c r="U46" t="n">
         <v>15</v>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>407.40</t>
+          <t>5931.30</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8375,65 +8510,93 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Fire).pdf</t>
+          <t>Roshan Machado.pdf</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
+          <t>18xLJZ131RlxeckexP4hKSOcgim0-WtEF</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
+          <t>RM02/ROSHAN MACHADO/RM02 - ROSHAN MACHADO - Roshan Machado.pdf</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/18xLJZ131RlxeckexP4hKSOcgim0-WtEF/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
+          <t>2025-10-21T11:47:16.00668+00:00</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
-        </is>
-      </c>
-      <c r="BE46" t="n">
-        <v>1500000</v>
+          <t>2025-10-21T11:47:16.00668+00:00</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI46" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>ROSHAN MACHADO</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>IONA MACHADO</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>ELIJAH MACHADO</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>HANNAH MACHADO</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0239156527</t>
+          <t>OG-25-1908-4010-00000642</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -8443,12 +8606,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8463,29 +8626,32 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
+          <t>STOCK INSURANCE</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>5000000</v>
       </c>
       <c r="P47" t="n">
-        <v>39542</v>
+        <v>1000</v>
       </c>
       <c r="S47" t="n">
         <v>18</v>
       </c>
       <c r="T47" t="n">
-        <v>46659.56</v>
+        <v>1180</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>5931.30</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -8500,83 +8666,52 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Roshan Machado.pdf</t>
+          <t>Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>18xLJZ131RlxeckexP4hKSOcgim0-WtEF</t>
+          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>RM02/ROSHAN MACHADO/RM02 - ROSHAN MACHADO - Roshan Machado.pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/18xLJZ131RlxeckexP4hKSOcgim0-WtEF/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-10-21T11:47:16.00668+00:00</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>2025-10-21T11:47:16.00668+00:00</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI47" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>ROSHAN MACHADO</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
-          <t>IONA MACHADO</t>
-        </is>
-      </c>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>ELIJAH MACHADO</t>
-        </is>
-      </c>
-      <c r="AX47" t="inlineStr">
-        <is>
-          <t>HANNAH MACHADO</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000642</t>
+          <t>12-6403-0000009580-13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -8586,7 +8721,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -8596,12 +8731,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8616,32 +8751,29 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>MAVANI</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>5000000</v>
+          <t>ACCIDENT INSURANCE - UMM</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>1000</v>
+        <v>2275</v>
       </c>
       <c r="S48" t="n">
         <v>18</v>
       </c>
       <c r="T48" t="n">
-        <v>1180</v>
+        <v>2684.5</v>
       </c>
       <c r="U48" t="n">
         <v>15</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>341.25</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8656,67 +8788,67 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Bombay Merch (Burg).pdf</t>
+          <t>Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
+          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
+          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>12-6403-0000009580-13</t>
+          <t>FHR-1S-24-7076561-02-000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8741,29 +8873,29 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE - UMM</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>2275</v>
+        <v>33564</v>
       </c>
       <c r="S49" t="n">
         <v>18</v>
       </c>
       <c r="T49" t="n">
-        <v>2684.5</v>
+        <v>39605.52</v>
       </c>
       <c r="U49" t="n">
         <v>15</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>341.25</t>
+          <t>5034.60</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8778,82 +8910,108 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Urmil Mavani.pdf</t>
+          <t>Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
+          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
+          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI49" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>BEENA PANDEY</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>AJAY PANDEY</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>ARYA PANDEY</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FHR-1S-24-7076561-02-000</t>
+          <t>OG-25-1908-4056-00001018</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -8863,30 +9021,28 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
+          <t>STOCK INSURANCE</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>5000000</v>
       </c>
       <c r="P50" t="n">
-        <v>33564</v>
+        <v>4492</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1150</v>
       </c>
       <c r="S50" t="n">
         <v>18</v>
       </c>
       <c r="T50" t="n">
-        <v>39605.52</v>
-      </c>
-      <c r="U50" t="n">
-        <v>15</v>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>5034.60</t>
-        </is>
+        <v>6658</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -8900,78 +9056,55 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Beena Pandey.pdf</t>
+          <t>Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
+          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI50" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>90000</v>
-      </c>
-      <c r="AL50" t="inlineStr">
-        <is>
-          <t>BEENA PANDEY</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>AJAY PANDEY</t>
-        </is>
-      </c>
-      <c r="AT50" t="inlineStr">
-        <is>
-          <t>ARYA PANDEY</t>
-        </is>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
+        </is>
+      </c>
+      <c r="BE50" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH IND ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001018</t>
+          <t>OG-25-1908-1005-00000113</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -8981,7 +9114,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>MARINE INSURANCE</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -8991,12 +9124,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -9016,23 +9149,31 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
+          <t>MARINE OPEN POLICY</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="P51" t="n">
-        <v>4492</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1150</v>
+        <v>10000</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
       </c>
       <c r="S51" t="n">
         <v>18</v>
       </c>
       <c r="T51" t="n">
-        <v>6658</v>
+        <v>11801</v>
+      </c>
+      <c r="U51" t="n">
+        <v>15</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>1500.00</t>
+        </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -9046,55 +9187,52 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Bombay Merch (Fire).pdf</t>
+          <t>Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
+          <t>1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
+          <t>MIE01/MARSHAH IND ELECT CO PVT LTD/MIE01 - MARSHAH IND ELECT CO PVT LTD - Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
-        </is>
-      </c>
-      <c r="BE51" t="n">
-        <v>5000000</v>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MARSHAH INDL ELECT CO PVT LTD</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MARSHAH IND ELECT CO PVT LTD</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OG-25-1908-1005-00000113</t>
+          <t>OG-25-1908-6626-00000003</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9104,7 +9242,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MARINE INSURANCE</t>
+          <t>CYBER INSURANCE</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9114,12 +9252,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -9132,37 +9270,29 @@
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>CRESTA INSTRUMENTS</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>MARINE OPEN POLICY</t>
+          <t>CYBER INSURANCE</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>20000000</v>
+        <v>1000000</v>
       </c>
       <c r="P52" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
+        <v>4238</v>
       </c>
       <c r="S52" t="n">
         <v>18</v>
       </c>
       <c r="T52" t="n">
-        <v>11801</v>
+        <v>5001</v>
       </c>
       <c r="U52" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>1500.00</t>
+          <t>974.74</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9177,52 +9307,57 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+          <t>Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT</t>
+          <t>1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>MIE01/MARSHAH IND ELECT CO PVT LTD/MIE01 - MARSHAH IND ELECT CO PVT LTD - Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+          <t>SS01/SAMEER SHAH/SS01 - SAMEER SHAH - Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>2025-10-21T18:52:57.255874+00:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>2025-10-21T13:39:55.591432+00:00</t>
+          <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>2025-10-21T13:39:55.591432+00:00</t>
+          <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>THREE POINTS MEDICAL SYSTEMS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OG-25-1908-6626-00000003</t>
+          <t>OG-25-1908-4057-00000240</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9232,7 +9367,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>BHARAT LAGHU UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -9242,12 +9377,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -9257,77 +9392,323 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>STOCK INSURANCE</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>1000000</v>
+        <v>50000001</v>
       </c>
       <c r="P53" t="n">
-        <v>4238</v>
+        <v>34792</v>
+      </c>
+      <c r="R53" t="n">
+        <v>11500</v>
       </c>
       <c r="S53" t="n">
         <v>18</v>
       </c>
       <c r="T53" t="n">
+        <v>54625</v>
+      </c>
+      <c r="U53" t="n">
+        <v>15</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>5218.80</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Three Points Medical Systems.pdf</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>NB01/THREE POINTS MEDICAL SYSTEMS/NB01 - THREE POINTS MEDICAL SYSTEMS - Three Points Medical Systems.pdf</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>2025-10-21T14:02:55.14086+00:00</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr">
+        <is>
+          <t>2025-10-21T14:02:55.14086+00:00</t>
+        </is>
+      </c>
+      <c r="BE53" t="n">
+        <v>50000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>69</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>NARENDRA MEHTA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DIGANT MEHTA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>OG-25-1908-6626-00000018</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CYBER INSURANCE</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>N.MEHTA &amp; CO</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>CYBER INSURANCE</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4238</v>
+      </c>
+      <c r="S54" t="n">
+        <v>18</v>
+      </c>
+      <c r="T54" t="n">
         <v>5001</v>
       </c>
-      <c r="U53" t="n">
+      <c r="U54" t="n">
         <v>23</v>
       </c>
-      <c r="V53" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>974.74</t>
         </is>
       </c>
-      <c r="W53" t="inlineStr">
+      <c r="W54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="X53" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>Sameer Shah (Cyber).pdf</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>SS01/SAMEER SHAH/SS01 - SAMEER SHAH - Sameer Shah (Cyber).pdf</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>https://drive.google.com/file/d/1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>2025-10-21T18:52:57.255874+00:00</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>2025-10-21T12:32:57.165642+00:00</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>2025-10-21T12:32:57.165642+00:00</t>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>Digant Mehta (Cyber).pdf</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>NM02/DIGANT MEHTA/NM02 - DIGANT MEHTA - Digant Mehta (Cyber).pdf</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>2025-10-21T14:09:20.440661+00:00</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr">
+        <is>
+          <t>2025-10-21T14:09:20.440661+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>71</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NASEEM DHROLIA</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>132/18/11/1125/MOD/0000090942</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Generali Central Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Vikas Mhatre</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>15/11/2024</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>14/11/2025</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>MH-02-FU-7802(ASTOR VTI)</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>1277216</v>
+      </c>
+      <c r="P55" t="n">
+        <v>15869</v>
+      </c>
+      <c r="S55" t="n">
+        <v>18</v>
+      </c>
+      <c r="T55" t="n">
+        <v>18725</v>
+      </c>
+      <c r="U55" t="n">
+        <v>15</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2380.35</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Naseem Dhrolia.pdf</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>MN01/NASEEM DHROLIA/MN01 - NASEEM DHROLIA - Naseem Dhrolia.pdf</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF55" t="inlineStr">
+        <is>
+          <t>2025-10-21T20:06:24.683317+00:00</t>
+        </is>
+      </c>
+      <c r="AG55" t="inlineStr">
+        <is>
+          <t>2025-10-21T20:06:24.683317+00:00</t>
         </is>
       </c>
     </row>
@@ -9342,7 +9723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10567,6 +10948,33 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NM02</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NM</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NARENDRA MEHTA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>919821097306</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>mehtanm50@gmail.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10578,7 +10986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12358,6 +12766,96 @@
       <c r="F59" t="inlineStr">
         <is>
           <t>919324031876</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>NB01</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>THREE POINTS MEDICAL SYSTEMS</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NAMAN BHAT</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>naman_747@yahoo.co.in</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>919920033401</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>NM02</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DIGANT MEHTA</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NARENDRA MEHTA</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>mehtanm50@gmail.com</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>919821097306</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MN01</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>NASEEM DHROLIA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>abhishekkripashankar1987@gmail.com</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>919987091268</t>
         </is>
       </c>
     </row>
@@ -13298,7 +13796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13310,7 +13808,7 @@
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="21" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
@@ -13964,6 +14462,132 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>38</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MN01</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tata AIG General Insurance Co Ltd</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>MOTOR INSURANCE</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0150753335</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Chandni Lamba.pdf</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1kNETq96BKGuLnprL_gdfUbdiT7rYcIgv</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>MN01/CHANDNI LAMBA/MN01 - CHANDNI LAMBA - Chandni Lamba.pdf</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kNETq96BKGuLnprL_gdfUbdiT7rYcIgv/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Sweta Shah</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>06/11/2024</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>05/11/2025</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>469</v>
+      </c>
+      <c r="V5" t="n">
+        <v>18</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5233</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>CH-01-CE-4976</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>91121</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>2025-10-20T08:06:30.097901+00:00</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>2025-10-21T19:46:21.038295+00:00</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>sameer@instainsure.in</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/insurance_data.xlsx
+++ b/insurance_data.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1824,6 +1824,11 @@
           <t>https://drive.google.com/file/d/1X6T0dBv6lAjf-5t7nhM_x-nrhGcI6KBW/view?usp=drivesdk</t>
         </is>
       </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:26:08.867618+00:00</t>
+        </is>
+      </c>
       <c r="AF9" t="inlineStr">
         <is>
           <t>2025-10-19T19:43:30.697266+00:00</t>
@@ -2136,12 +2141,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>19/10/2025</t>
+          <t>22/10/2025</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>31/10/2025</t>
+          <t>22/10/2026</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2168,10 +2173,16 @@
         <is>
           <t>Factory Insurance</t>
         </is>
+      </c>
+      <c r="O12" t="n">
+        <v>100</v>
       </c>
       <c r="P12" t="n">
         <v>1000</v>
       </c>
+      <c r="Q12" t="n">
+        <v>10</v>
+      </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
@@ -2179,14 +2190,14 @@
         <v>18</v>
       </c>
       <c r="T12" t="n">
-        <v>1298</v>
+        <v>1192</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>200.00</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2206,27 +2217,27 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>EC1M2.pdf</t>
+          <t>NC1M1.pdf</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K</t>
+          <t>1v6A6vucYLc3f2IqchWqweRS0DXc4GMWM</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>DS01/Dhruv Shah/EC1M2.pdf</t>
+          <t>DS01/Dhruv Shah/NC1M1.pdf</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K/view?usp=drivesdk</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>2025-10-22T14:05:29.749687+00:00</t>
+          <t>https://drive.google.com/file/d/1v6A6vucYLc3f2IqchWqweRS0DXc4GMWM/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>2025-10-22T20:04:56.55102+00:00</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2253,6 +2264,163 @@
       </c>
       <c r="AX12" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>72</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>POIL987</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>31/10/2026</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Health Insurance-Dhruv</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>100</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>18</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1298</v>
+      </c>
+      <c r="U13" t="n">
+        <v>20</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>EC1R.pdf</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>1jROnrckl0dhEqyV4ca8-N7uc4_1GG-RK</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>DS01/Dhruv Shah/EC1R.pdf</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1jROnrckl0dhEqyV4ca8-N7uc4_1GG-RK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>2025-10-22T09:13:17.147707+00:00</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>2025-10-22T09:13:17.147707+00:00</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>TOPUP_INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2769,46 +2937,46 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SHASHANK ZENDE</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SHASHANK ZENDE</t>
+          <t>ANANT KAMERKAR</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>132/02/11/1125/MTP/0000084960</t>
+          <t>12-8432-0000023776-07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>02/11/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -2818,32 +2986,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>MH-47-AG-3700(M. BENZ)</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>3375000</v>
+          <t>HEALTH TOP UP - ANANT KAMERKAR</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>39828</v>
+        <v>12082</v>
       </c>
       <c r="S3" t="n">
         <v>18</v>
       </c>
       <c r="T3" t="n">
-        <v>56911</v>
+        <v>16427</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>7965.60</t>
+          <t>1812.30</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -2858,82 +3023,98 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>000345</t>
+          <t>000622</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Shashank Zende.pdf</t>
+          <t>Aanant Kamerkar.pdf</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1WNroKOFtKmR--rdZVDK_WDsJJqk182Fe</t>
+          <t>11K4aoKh-igd0lpRagSMPnrYPP0meKVi6</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>SZ01/SHASHANK ZENDE/SZ01 - SHASHANK ZENDE - Shashank Zende.pdf</t>
+          <t>CJ01/ANANT KAMERKAR/CJ01 - ANANT KAMERKAR - Aanant Kamerkar.pdf</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1WNroKOFtKmR--rdZVDK_WDsJJqk182Fe/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/11K4aoKh-igd0lpRagSMPnrYPP0meKVi6/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2025-10-19T18:50:47.242107+00:00</t>
+          <t>2025-10-19T19:08:48.089223+00:00</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2025-10-19T18:50:47.242107+00:00</t>
-        </is>
+          <t>2025-10-19T19:08:48.089223+00:00</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>ANANT KAMERKAR</t>
+        </is>
+      </c>
+      <c r="AM3" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ESHA SALIAN</t>
+          <t>SHASHANK ZENDE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ESHA SALIAN</t>
+          <t>SHASHANK ZENDE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12-8450-0000028558-07</t>
+          <t>132/02/11/1125/MTP/0000084960</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -2943,29 +3124,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - ESHA SALIAN</t>
-        </is>
+          <t>MH-47-AG-3700(M. BENZ)</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>3375000</v>
       </c>
       <c r="P4" t="n">
-        <v>17180</v>
+        <v>39828</v>
       </c>
       <c r="S4" t="n">
         <v>18</v>
       </c>
       <c r="T4" t="n">
-        <v>20272</v>
+        <v>56911</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1718.00</t>
+          <t>7965.60</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -2980,78 +3164,67 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>ONLINE</t>
+          <t>000345</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>Esha Salian.pdf</t>
+          <t>Shashank Zende.pdf</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1Gf4B3x63G8O9pqG636OwrDC1LaAcnCI9</t>
+          <t>1WNroKOFtKmR--rdZVDK_WDsJJqk182Fe</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>ES01/ESHA SALIAN/ES01 - ESHA SALIAN - Esha Salian.pdf</t>
+          <t>SZ01/SHASHANK ZENDE/SZ01 - SHASHANK ZENDE - Shashank Zende.pdf</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Gf4B3x63G8O9pqG636OwrDC1LaAcnCI9/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1WNroKOFtKmR--rdZVDK_WDsJJqk182Fe/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>2025-10-22T16:56:58.767506+00:00</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>2025-10-19T19:14:56.11419+00:00</t>
+          <t>2025-10-19T18:50:47.242107+00:00</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2025-10-19T19:14:56.11419+00:00</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>ESHA SALIAN</t>
-        </is>
-      </c>
-      <c r="AM4" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>700000</v>
+          <t>2025-10-19T18:50:47.242107+00:00</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ANANT KAMERKAR</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12-8432-0000023776-07</t>
+          <t>7000304878</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3061,49 +3234,54 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>ROLL OVER</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SARVODAYA</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - ANANT KAMERKAR</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>12082</v>
+        <v>25084</v>
       </c>
       <c r="S5" t="n">
         <v>18</v>
       </c>
       <c r="T5" t="n">
-        <v>16427</v>
+        <v>29599</v>
       </c>
       <c r="U5" t="n">
         <v>15</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1812.30</t>
+          <t>3762.60</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -3116,39 +3294,39 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>000622</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>Aanant Kamerkar.pdf</t>
+          <t>Trishla Shah.pdf</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>11K4aoKh-igd0lpRagSMPnrYPP0meKVi6</t>
+          <t>1bCouXGehFTc3WzzWxVauYuT7OcLbSlVD</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>CJ01/ANANT KAMERKAR/CJ01 - ANANT KAMERKAR - Aanant Kamerkar.pdf</t>
+          <t>TS01/TRISHLA SHAH/TS01 - TRISHLA SHAH - Trishla Shah.pdf</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/11K4aoKh-igd0lpRagSMPnrYPP0meKVi6/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bCouXGehFTc3WzzWxVauYuT7OcLbSlVD/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:08:27.086033+00:00</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2025-10-19T19:08:48.089223+00:00</t>
+          <t>2025-10-19T19:48:07.325095+00:00</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2025-10-19T19:08:48.089223+00:00</t>
+          <t>2025-10-19T19:48:07.325095+00:00</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -3158,58 +3336,58 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>ANANT KAMERKAR</t>
+          <t>TRISHLA SHAH</t>
         </is>
       </c>
       <c r="AM5" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
       <c r="AN5" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NIDHI SALIAN</t>
+          <t>ASIF RUPANI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NIDHI SALIAN</t>
+          <t>ASIF RUPANI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12-8450-0000028965-07</t>
+          <t>6102747633</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>03/11/2024</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -3219,29 +3397,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - NIDHI SALIAN</t>
-        </is>
+          <t>MH-02-DF-1986(H.ACTIVA)</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>22912</v>
       </c>
       <c r="P6" t="n">
-        <v>17471</v>
+        <v>32</v>
       </c>
       <c r="S6" t="n">
         <v>18</v>
       </c>
       <c r="T6" t="n">
-        <v>20615</v>
+        <v>1412</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1747.10</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -3254,56 +3435,40 @@
           <t>No</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>Nidhi Salian.pdf</t>
+          <t>Asif Rupani.pdf</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>14EUZ1XLaKGKHVOacFvyJ4prN6ifysOT0</t>
+          <t>182QkGNqV0yxhpKvOkA-PJ2zf9tMKPavr</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>NS01/NIDHI SALIAN/NS01 - NIDHI SALIAN - Nidhi Salian.pdf</t>
+          <t>AR01/ASIF RUPANI/AR01 - ASIF RUPANI - Asif Rupani.pdf</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/14EUZ1XLaKGKHVOacFvyJ4prN6ifysOT0/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/182QkGNqV0yxhpKvOkA-PJ2zf9tMKPavr/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:10:57.746241+00:00</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2025-10-19T19:27:26.271893+00:00</t>
+          <t>2025-10-19T20:01:19.738922+00:00</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2025-10-19T19:27:26.271893+00:00</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>NIDHI SALIAN</t>
-        </is>
-      </c>
-      <c r="AM6" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>400000</v>
+          <t>2025-10-19T20:01:19.738922+00:00</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3415,6 +3580,11 @@
           <t>https://drive.google.com/file/d/1kpVHP10MCnejTecemHUoJqXlnnPJJw08/view?usp=drivesdk</t>
         </is>
       </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:18:23.309001+00:00</t>
+        </is>
+      </c>
       <c r="AF7" t="inlineStr">
         <is>
           <t>2025-10-19T19:39:42.786133+00:00</t>
@@ -3428,26 +3598,26 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7000304878</t>
+          <t>12-8450-0000028558-07</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -3457,54 +3627,49 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>02/11/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>ROLL OVER</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>SARVODAYA</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>HEALTH INSURANCE - ESHA SALIAN</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>25084</v>
+        <v>17180</v>
       </c>
       <c r="S8" t="n">
         <v>18</v>
       </c>
       <c r="T8" t="n">
-        <v>29599</v>
+        <v>20272</v>
       </c>
       <c r="U8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>3762.60</t>
+          <t>1718.00</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -3517,34 +3682,44 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Trishla Shah.pdf</t>
+          <t>Esha Salian.pdf</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>1bCouXGehFTc3WzzWxVauYuT7OcLbSlVD</t>
+          <t>1Gf4B3x63G8O9pqG636OwrDC1LaAcnCI9</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>TS01/TRISHLA SHAH/TS01 - TRISHLA SHAH - Trishla Shah.pdf</t>
+          <t>ES01/ESHA SALIAN/ES01 - ESHA SALIAN - Esha Salian.pdf</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1bCouXGehFTc3WzzWxVauYuT7OcLbSlVD/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Gf4B3x63G8O9pqG636OwrDC1LaAcnCI9/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:26:37.872353+00:00</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2025-10-19T19:48:07.325095+00:00</t>
+          <t>2025-10-19T19:14:56.11419+00:00</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2025-10-19T19:48:07.325095+00:00</t>
+          <t>2025-10-19T19:14:56.11419+00:00</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
@@ -3554,58 +3729,58 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>TRISHLA SHAH</t>
+          <t>ESHA SALIAN</t>
         </is>
       </c>
       <c r="AM8" t="n">
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ASIF RUPANI</t>
+          <t>NIDHI SALIAN</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASIF RUPANI</t>
+          <t>NIDHI SALIAN</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6102747633</t>
+          <t>12-8450-0000028965-07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>03/11/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>02/11/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -3615,32 +3790,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>MH-02-DF-1986(H.ACTIVA)</t>
-        </is>
-      </c>
-      <c r="O9" t="n">
-        <v>22912</v>
+          <t>HEALTH INSURANCE - NIDHI SALIAN</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>32</v>
+        <v>17471</v>
       </c>
       <c r="S9" t="n">
         <v>18</v>
       </c>
       <c r="T9" t="n">
-        <v>1412</v>
+        <v>20615</v>
       </c>
       <c r="U9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1747.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -3653,35 +3825,61 @@
           <t>No</t>
         </is>
       </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>Asif Rupani.pdf</t>
+          <t>Nidhi Salian.pdf</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>182QkGNqV0yxhpKvOkA-PJ2zf9tMKPavr</t>
+          <t>14EUZ1XLaKGKHVOacFvyJ4prN6ifysOT0</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>AR01/ASIF RUPANI/AR01 - ASIF RUPANI - Asif Rupani.pdf</t>
+          <t>NS01/NIDHI SALIAN/NS01 - NIDHI SALIAN - Nidhi Salian.pdf</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/182QkGNqV0yxhpKvOkA-PJ2zf9tMKPavr/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/14EUZ1XLaKGKHVOacFvyJ4prN6ifysOT0/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:27:29.633286+00:00</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2025-10-19T20:01:19.738922+00:00</t>
+          <t>2025-10-19T19:27:26.271893+00:00</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2025-10-19T20:01:19.738922+00:00</t>
-        </is>
+          <t>2025-10-19T19:27:26.271893+00:00</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>NIDHI SALIAN</t>
+        </is>
+      </c>
+      <c r="AM9" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>400000</v>
       </c>
     </row>
     <row r="10">
@@ -3814,51 +4012,51 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>JAYAS VENTURES PVT LTD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>VINIT ASHER</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12-8450-0000029332-08</t>
+          <t>7102081867</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>04/11/2024</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>03/11/2025</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -3868,29 +4066,29 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>MALHOTRA FAMILY</t>
+          <t>JAYAS VENTURES PVT LTD</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE- VM</t>
+          <t>ANNUAL TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>19995</v>
+        <v>5106</v>
       </c>
       <c r="S11" t="n">
         <v>18</v>
       </c>
       <c r="T11" t="n">
-        <v>23595</v>
+        <v>6025</v>
       </c>
       <c r="U11" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2999.25</t>
+          <t>2042.40</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -3905,98 +4103,82 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Varun Malhotra (HG).pdf</t>
+          <t>Vinit Asher.pdf</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>1xOG-OR60HPGEgvr5MbW0xl1Bhz5VbS3y</t>
+          <t>1bGvteFCZTNgU2UyqoQv9FyVYWRAtZDuM</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>VM01/VARUN MALHOTRA/VM01 - VARUN MALHOTRA - Varun Malhotra (HG).pdf</t>
+          <t>JVPL01/VINIT ASHER/JVPL01 - VINIT ASHER - Vinit Asher.pdf</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1xOG-OR60HPGEgvr5MbW0xl1Bhz5VbS3y/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1bGvteFCZTNgU2UyqoQv9FyVYWRAtZDuM/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2025-10-19T20:12:35.724837+00:00</t>
+          <t>2025-10-20T07:03:27.279518+00:00</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2025-10-19T20:12:35.724837+00:00</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>VARUN MALHOTRA</t>
-        </is>
-      </c>
-      <c r="AM11" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>842550</v>
+          <t>2025-10-20T07:03:27.279518+00:00</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>VARUN MALHOTRA</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>12-9901-0000006521-19</t>
+          <t>7102082285</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>PERSONAL ACCIDENT</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -4006,32 +4188,29 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>MALHOTRA FAMILY</t>
+          <t>DALAL FAMILY</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE - VM</t>
-        </is>
-      </c>
-      <c r="O12" t="n">
-        <v>500000</v>
+          <t>ANNUAL TRAVEL M.D.</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>750</v>
+        <v>10173</v>
       </c>
       <c r="S12" t="n">
         <v>18</v>
       </c>
       <c r="T12" t="n">
-        <v>886</v>
+        <v>12004</v>
       </c>
       <c r="U12" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>112.50</t>
+          <t>4069.20</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -4046,82 +4225,82 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Varun Malhotra (PAIP).pdf</t>
+          <t>Mehul Dalal (CFT).pdf</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>1kRMZg9mzIEyBfsyN-GnovA2B1ngUn00a</t>
+          <t>1My9NfzNb0tuKF9d_1vc2rw5_uNz4VN0x</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>VM01/VARUN MALHOTRA/VM01 - VARUN MALHOTRA - Varun Malhotra (PAIP).pdf</t>
+          <t>MD01/MEHUL DALAL/MD01 - MEHUL DALAL - Mehul Dalal (CFT).pdf</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1kRMZg9mzIEyBfsyN-GnovA2B1ngUn00a/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1My9NfzNb0tuKF9d_1vc2rw5_uNz4VN0x/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2025-10-19T20:15:16.418134+00:00</t>
+          <t>2025-10-20T07:06:45.577334+00:00</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2025-10-19T20:15:16.418134+00:00</t>
+          <t>2025-10-20T07:06:45.577334+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NEELAM MALHOTRA</t>
+          <t>MEHUL DALAL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NEELAM MALHOTRA</t>
+          <t>PARUL DALAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12-8450-0000029331-16</t>
+          <t>7102082274</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -4131,29 +4310,29 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>MALHOTRA FAMILY</t>
+          <t>DALAL FAMILY</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - NM</t>
+          <t>ANNUAL TRAVEL - P.D.</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>65460</v>
+        <v>10708</v>
       </c>
       <c r="S13" t="n">
         <v>18</v>
       </c>
       <c r="T13" t="n">
-        <v>77242</v>
+        <v>12635</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>9819.00</t>
+          <t>4283.20</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -4168,98 +4347,82 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Neelam Malhotra.pdf</t>
+          <t>Parul Mehul (CFT).pdf</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>1Q8mFEsk2tfb2zRLnW_nl5Mpz_rAMI-B1</t>
+          <t>1-kBgxC77pru05-26w-elCS-8AtoaumU8</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>NM01/NEELAM MALHOTRA/NM01 - NEELAM MALHOTRA - Neelam Malhotra.pdf</t>
+          <t>MD01/PARUL DALAL/MD01 - PARUL DALAL - Parul Mehul (CFT).pdf</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Q8mFEsk2tfb2zRLnW_nl5Mpz_rAMI-B1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1-kBgxC77pru05-26w-elCS-8AtoaumU8/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2025-10-19T20:19:50.768124+00:00</t>
+          <t>2025-10-20T07:08:44.642619+00:00</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2025-10-19T20:19:50.768124+00:00</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>NEELAM MALHOTRA</t>
-        </is>
-      </c>
-      <c r="AM13" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>357500</v>
+          <t>2025-10-20T07:08:44.642619+00:00</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>ASHIS BANERJEE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12-8450-0000029368-11</t>
+          <t>7102082355</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -4269,29 +4432,29 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>MALHOTRA FAMILY</t>
+          <t>GANSONS</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - KM</t>
+          <t>ANNUAL TRAVEL - ASHIS BANERJEE</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>21513</v>
+        <v>27982</v>
       </c>
       <c r="S14" t="n">
         <v>18</v>
       </c>
       <c r="T14" t="n">
-        <v>25385</v>
+        <v>33019</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>3226.95</t>
+          <t>11192.80</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -4306,98 +4469,82 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Karan Malhotra (HG).pdf</t>
+          <t>Ashis Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>1e24luPSCfUWdBauRrEDQO0FtNrdCUnxK</t>
+          <t>1OpplVyCr4S6mTJcGLmJr53Na00kEOfwi</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>KM01/KARAN MALHOTRA/KM01 - KARAN MALHOTRA - Karan Malhotra (HG).pdf</t>
+          <t>GPL01/ASHIS BANERJEE/GPL01 - ASHIS BANERJEE - Ashis Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1e24luPSCfUWdBauRrEDQO0FtNrdCUnxK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1OpplVyCr4S6mTJcGLmJr53Na00kEOfwi/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2025-10-19T20:25:15.243059+00:00</t>
+          <t>2025-10-20T07:10:42.972823+00:00</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2025-10-19T20:25:15.243059+00:00</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>KARAN MALHOTRA</t>
-        </is>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>585000</v>
+          <t>2025-10-20T07:10:42.972823+00:00</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KARAN MALHOTRA</t>
+          <t>ANURADHA BANERJEE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12-9901-0000006501-19</t>
+          <t>7102082367</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>PERSONAL ACCIDENT</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>16/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -4407,32 +4554,29 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>MALHOTRA FAMILY</t>
+          <t>GANSONS</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE - KM</t>
-        </is>
-      </c>
-      <c r="O15" t="n">
-        <v>500000</v>
+          <t>ANNUAL TRAVEL - ANURADHA BANERJEE</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>750</v>
+        <v>27982</v>
       </c>
       <c r="S15" t="n">
         <v>18</v>
       </c>
       <c r="T15" t="n">
-        <v>886</v>
+        <v>33019</v>
       </c>
       <c r="U15" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>112.50</t>
+          <t>11192.80</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -4447,52 +4591,52 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>Karan Malhotra (PAIP).pdf</t>
+          <t>Anuradha Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>1a_8PR2VlWZSMfOwYiYvonw4GQFg1T2W5</t>
+          <t>1C9b7M50rxioYYUQme6M9ck7v48Y7sA1G</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>KM01/KARAN MALHOTRA/KM01 - KARAN MALHOTRA - Karan Malhotra (PAIP).pdf</t>
+          <t>GPL01/ANURADHA BANERJEE/GPL01 - ANURADHA BANERJEE - Anuradha Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1a_8PR2VlWZSMfOwYiYvonw4GQFg1T2W5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C9b7M50rxioYYUQme6M9ck7v48Y7sA1G/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>2025-10-19T20:28:25.803957+00:00</t>
+          <t>2025-10-20T07:13:10.642687+00:00</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>2025-10-19T20:28:25.803957+00:00</t>
+          <t>2025-10-20T07:13:10.642687+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JAYAS VENTURES PVT LTD</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VINIT ASHER</t>
+          <t>SUNANDA RAJENDRAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7102081867</t>
+          <t>7102082704</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4512,12 +4656,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>04/11/2024</t>
+          <t>08/11/2024</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>03/11/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4527,34 +4671,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>JAYAS VENTURES PVT LTD</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL INSURANCE</t>
+          <t>ANNUAL TRAVEL - SUNANDA RAJENDRAN</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>5106</v>
+        <v>12823</v>
       </c>
       <c r="S16" t="n">
         <v>18</v>
       </c>
       <c r="T16" t="n">
-        <v>6025</v>
+        <v>15131</v>
       </c>
       <c r="U16" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>2042.40</t>
+          <t>1923.45</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -4569,114 +4708,112 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>Vinit Asher.pdf</t>
+          <t>Sunanda Rajendran (CFT).pdf</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>1bGvteFCZTNgU2UyqoQv9FyVYWRAtZDuM</t>
+          <t>1ZhxXl4jeiz93nHwWaWLlMWVEqUoCkZ8S</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>JVPL01/VINIT ASHER/JVPL01 - VINIT ASHER - Vinit Asher.pdf</t>
+          <t>MN01/SUNANDA RAJENDRAN/MN01 - SUNANDA RAJENDRAN - Sunanda Rajendran (CFT).pdf</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1bGvteFCZTNgU2UyqoQv9FyVYWRAtZDuM/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ZhxXl4jeiz93nHwWaWLlMWVEqUoCkZ8S/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>2025-10-20T07:03:27.279518+00:00</t>
+          <t>2025-10-20T07:33:54.450231+00:00</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>2025-10-20T07:03:27.279518+00:00</t>
+          <t>2025-10-20T07:33:54.450231+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>SHEETAL SHAH</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7102082285</t>
+          <t>132/02/11/1125/MTP/0000086884</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>02/11/2024</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>01/11/2025</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>DALAL FAMILY</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL M.D.</t>
-        </is>
+          <t>MH-02-EP-9112(H.JAZZ)</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>350896</v>
       </c>
       <c r="P17" t="n">
-        <v>10173</v>
+        <v>2721</v>
       </c>
       <c r="S17" t="n">
         <v>18</v>
       </c>
       <c r="T17" t="n">
-        <v>12004</v>
+        <v>8281</v>
       </c>
       <c r="U17" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>4069.20</t>
+          <t>408.15</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -4691,67 +4828,72 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Mehul Dalal (CFT).pdf</t>
+          <t>Sheetal Shah.pdf</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1My9NfzNb0tuKF9d_1vc2rw5_uNz4VN0x</t>
+          <t>1gmxN0yEVqJePXG_DdK3SXepACcll2jPj</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>MD01/MEHUL DALAL/MD01 - MEHUL DALAL - Mehul Dalal (CFT).pdf</t>
+          <t>CJ01/SHEETAL SHAH/CJ01 - SHEETAL SHAH - Sheetal Shah.pdf</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1My9NfzNb0tuKF9d_1vc2rw5_uNz4VN0x/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1gmxN0yEVqJePXG_DdK3SXepACcll2jPj/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>2025-10-21T18:32:11.909424+00:00</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>2025-10-20T07:06:45.577334+00:00</t>
+          <t>2025-10-20T07:37:04.060298+00:00</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>2025-10-20T07:06:45.577334+00:00</t>
+          <t>2025-10-20T07:37:04.060298+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEHUL DALAL</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PARUL DALAL</t>
+          <t>DURGA BHALLA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7102082274</t>
+          <t>12-8432-0000023763-04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -4766,7 +4908,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -4776,29 +4918,29 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>DALAL FAMILY</t>
+          <t>BHALLA FAMILY</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL - P.D.</t>
+          <t>HEALTH TOP UP - D.B.</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>10708</v>
+        <v>10768</v>
       </c>
       <c r="S18" t="n">
         <v>18</v>
       </c>
       <c r="T18" t="n">
-        <v>12635</v>
+        <v>12706</v>
       </c>
       <c r="U18" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>4283.20</t>
+          <t>1615.20</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -4813,52 +4955,85 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Parul Mehul (CFT).pdf</t>
+          <t>Durga Bhalla.pdf</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1-kBgxC77pru05-26w-elCS-8AtoaumU8</t>
+          <t>1Po1FkrBViFa2Y-kpNl0fYXtJg1pshcjV</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>MD01/PARUL DALAL/MD01 - PARUL DALAL - Parul Mehul (CFT).pdf</t>
+          <t>JB01/DURGA BHALLA/JB01 - DURGA BHALLA - Durga Bhalla.pdf</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1-kBgxC77pru05-26w-elCS-8AtoaumU8/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Po1FkrBViFa2Y-kpNl0fYXtJg1pshcjV/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:12:56.44681+00:00</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2025-10-20T07:08:44.642619+00:00</t>
+          <t>2025-10-20T07:23:09.091679+00:00</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2025-10-20T07:08:44.642619+00:00</t>
+          <t>2025-10-20T07:23:09.091679+00:00</t>
+        </is>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI18" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>DURGA BHALLA</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>JATIN BHALLA</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>JANHVI BHALLA</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASHIS BANERJEE</t>
+          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7102082355</t>
+          <t>6202153896</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4868,7 +5043,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4878,17 +5053,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -4898,29 +5073,32 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>GANSONS</t>
+          <t>HEMANI</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL - ASHIS BANERJEE</t>
-        </is>
+          <t>MH-43-BU-6198(KIA SONET)</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>803427</v>
       </c>
       <c r="P19" t="n">
-        <v>27982</v>
+        <v>17681</v>
       </c>
       <c r="S19" t="n">
         <v>18</v>
       </c>
       <c r="T19" t="n">
-        <v>33019</v>
+        <v>23677</v>
       </c>
       <c r="U19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>11192.80</t>
+          <t>3536.20</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -4935,82 +5113,87 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Ashis Banerjee (CFT).pdf</t>
+          <t>Apex Precision Mech Pvt Ltd.pdf</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>1OpplVyCr4S6mTJcGLmJr53Na00kEOfwi</t>
+          <t>152V7GeHki7LQ6K7fnbX-GOo3PS1B-bt5</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>GPL01/ASHIS BANERJEE/GPL01 - ASHIS BANERJEE - Ashis Banerjee (CFT).pdf</t>
+          <t>APML01/APEX PRECISION MECHATRONIX PVT LTD/APML01 - APEX PRECISION MECHATRONIX PVT LTD - Apex Precision Mech Pvt Ltd.pdf</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1OpplVyCr4S6mTJcGLmJr53Na00kEOfwi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/152V7GeHki7LQ6K7fnbX-GOo3PS1B-bt5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:38:38.556314+00:00</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>2025-10-20T07:10:42.972823+00:00</t>
+          <t>2025-10-20T07:18:14.374862+00:00</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>2025-10-20T07:10:42.972823+00:00</t>
+          <t>2025-10-20T07:18:14.374862+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ANURADHA BANERJEE</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7102082367</t>
+          <t>12-8450-0000029368-11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -5020,29 +5203,29 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>GANSONS</t>
+          <t>MALHOTRA FAMILY</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL - ANURADHA BANERJEE</t>
+          <t>HEALTH INSURANCE - KM</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>27982</v>
+        <v>21513</v>
       </c>
       <c r="S20" t="n">
         <v>18</v>
       </c>
       <c r="T20" t="n">
-        <v>33019</v>
+        <v>25385</v>
       </c>
       <c r="U20" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>11192.80</t>
+          <t>3226.95</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5057,77 +5240,98 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Anuradha Banerjee (CFT).pdf</t>
+          <t>Karan Malhotra (HG).pdf</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>1C9b7M50rxioYYUQme6M9ck7v48Y7sA1G</t>
+          <t>1e24luPSCfUWdBauRrEDQO0FtNrdCUnxK</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>GPL01/ANURADHA BANERJEE/GPL01 - ANURADHA BANERJEE - Anuradha Banerjee (CFT).pdf</t>
+          <t>KM01/KARAN MALHOTRA/KM01 - KARAN MALHOTRA - Karan Malhotra (HG).pdf</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1C9b7M50rxioYYUQme6M9ck7v48Y7sA1G/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1e24luPSCfUWdBauRrEDQO0FtNrdCUnxK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:04:21.013331+00:00</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>2025-10-20T07:13:10.642687+00:00</t>
+          <t>2025-10-19T20:25:15.243059+00:00</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
-          <t>2025-10-20T07:13:10.642687+00:00</t>
-        </is>
+          <t>2025-10-19T20:25:15.243059+00:00</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>KARAN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>585000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>APEX PRECISION MECHATRONIX PVT LTD</t>
+          <t>KARAN MALHOTRA</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6202153896</t>
+          <t>12-9901-0000006501-19</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>PERSONAL ACCIDENT</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>16/11/2024</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>15/11/2025</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5142,32 +5346,32 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>HEMANI</t>
+          <t>MALHOTRA FAMILY</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>MH-43-BU-6198(KIA SONET)</t>
+          <t>ACCIDENT INSURANCE - KM</t>
         </is>
       </c>
       <c r="O21" t="n">
-        <v>803427</v>
+        <v>500000</v>
       </c>
       <c r="P21" t="n">
-        <v>17681</v>
+        <v>750</v>
       </c>
       <c r="S21" t="n">
         <v>18</v>
       </c>
       <c r="T21" t="n">
-        <v>23677</v>
+        <v>886</v>
       </c>
       <c r="U21" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>3536.20</t>
+          <t>112.50</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -5182,52 +5386,57 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Apex Precision Mech Pvt Ltd.pdf</t>
+          <t>Karan Malhotra (PAIP).pdf</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>152V7GeHki7LQ6K7fnbX-GOo3PS1B-bt5</t>
+          <t>1a_8PR2VlWZSMfOwYiYvonw4GQFg1T2W5</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>APML01/APEX PRECISION MECHATRONIX PVT LTD/APML01 - APEX PRECISION MECHATRONIX PVT LTD - Apex Precision Mech Pvt Ltd.pdf</t>
+          <t>KM01/KARAN MALHOTRA/KM01 - KARAN MALHOTRA - Karan Malhotra (PAIP).pdf</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/152V7GeHki7LQ6K7fnbX-GOo3PS1B-bt5/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1a_8PR2VlWZSMfOwYiYvonw4GQFg1T2W5/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:06:36.469473+00:00</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>2025-10-20T07:18:14.374862+00:00</t>
+          <t>2025-10-19T20:28:25.803957+00:00</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>2025-10-20T07:18:14.374862+00:00</t>
+          <t>2025-10-19T20:28:25.803957+00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>NEELAM MALHOTRA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DURGA BHALLA</t>
+          <t>NEELAM MALHOTRA</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12-8432-0000023763-04</t>
+          <t>12-8450-0000029331-16</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5247,12 +5456,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5267,29 +5476,29 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>BHALLA FAMILY</t>
+          <t>MALHOTRA FAMILY</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - D.B.</t>
+          <t>HEALTH INSURANCE - NM</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>10768</v>
+        <v>65460</v>
       </c>
       <c r="S22" t="n">
         <v>18</v>
       </c>
       <c r="T22" t="n">
-        <v>12706</v>
+        <v>77242</v>
       </c>
       <c r="U22" t="n">
         <v>15</v>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>1615.20</t>
+          <t>9819.00</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5304,137 +5513,135 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Durga Bhalla.pdf</t>
+          <t>Neelam Malhotra.pdf</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>1Po1FkrBViFa2Y-kpNl0fYXtJg1pshcjV</t>
+          <t>1Q8mFEsk2tfb2zRLnW_nl5Mpz_rAMI-B1</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>JB01/DURGA BHALLA/JB01 - DURGA BHALLA - Durga Bhalla.pdf</t>
+          <t>NM01/NEELAM MALHOTRA/NM01 - NEELAM MALHOTRA - Neelam Malhotra.pdf</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Po1FkrBViFa2Y-kpNl0fYXtJg1pshcjV/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Q8mFEsk2tfb2zRLnW_nl5Mpz_rAMI-B1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:38:59.811456+00:00</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>2025-10-20T07:23:09.091679+00:00</t>
+          <t>2025-10-19T20:19:50.768124+00:00</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
-          <t>2025-10-20T07:23:09.091679+00:00</t>
+          <t>2025-10-19T20:19:50.768124+00:00</t>
         </is>
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI22" t="n">
-        <v>2500000</v>
+          <t>INDIVIDUAL</t>
+        </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>DURGA BHALLA</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>JATIN BHALLA</t>
-        </is>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>MEGHNA BHALLA</t>
-        </is>
-      </c>
-      <c r="AX22" t="inlineStr">
-        <is>
-          <t>JANHVI BHALLA</t>
-        </is>
+          <t>NEELAM MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AM22" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>357500</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SUNANDA RAJENDRAN</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7102082704</t>
+          <t>12-8450-0000029332-08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>08/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>ANNUAL TRAVEL - SUNANDA RAJENDRAN</t>
+          <t>HEALTH INSURANCE- VM</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>12823</v>
+        <v>19995</v>
       </c>
       <c r="S23" t="n">
         <v>18</v>
       </c>
       <c r="T23" t="n">
-        <v>15131</v>
+        <v>23595</v>
       </c>
       <c r="U23" t="n">
         <v>15</v>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>1923.45</t>
+          <t>2999.25</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5449,77 +5656,98 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Sunanda Rajendran (CFT).pdf</t>
+          <t>Varun Malhotra (HG).pdf</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>1ZhxXl4jeiz93nHwWaWLlMWVEqUoCkZ8S</t>
+          <t>1xOG-OR60HPGEgvr5MbW0xl1Bhz5VbS3y</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>MN01/SUNANDA RAJENDRAN/MN01 - SUNANDA RAJENDRAN - Sunanda Rajendran (CFT).pdf</t>
+          <t>VM01/VARUN MALHOTRA/VM01 - VARUN MALHOTRA - Varun Malhotra (HG).pdf</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ZhxXl4jeiz93nHwWaWLlMWVEqUoCkZ8S/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1xOG-OR60HPGEgvr5MbW0xl1Bhz5VbS3y/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:45:31.53199+00:00</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>2025-10-20T07:33:54.450231+00:00</t>
+          <t>2025-10-19T20:12:35.724837+00:00</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>2025-10-20T07:33:54.450231+00:00</t>
-        </is>
+          <t>2025-10-19T20:12:35.724837+00:00</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>VARUN MALHOTRA</t>
+        </is>
+      </c>
+      <c r="AM23" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>842550</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SHEETAL SHAH</t>
+          <t>VARUN MALHOTRA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>132/02/11/1125/MTP/0000086884</t>
+          <t>12-9901-0000006521-19</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>PERSONAL ACCIDENT</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>02/11/2024</t>
+          <t>17/11/2024</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>01/11/2025</t>
+          <t>16/11/2025</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -5529,32 +5757,37 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>MALHOTRA FAMILY</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>MH-02-EP-9112(H.JAZZ)</t>
+          <t>ACCIDENT INSURANCE - VM</t>
         </is>
       </c>
       <c r="O24" t="n">
-        <v>350896</v>
+        <v>500000</v>
       </c>
       <c r="P24" t="n">
-        <v>2721</v>
+        <v>750</v>
       </c>
       <c r="S24" t="n">
         <v>18</v>
       </c>
       <c r="T24" t="n">
-        <v>8281</v>
+        <v>886</v>
       </c>
       <c r="U24" t="n">
         <v>15</v>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>408.15</t>
+          <t>112.50</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -5569,37 +5802,37 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Sheetal Shah.pdf</t>
+          <t>Varun Malhotra (PAIP).pdf</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>1gmxN0yEVqJePXG_DdK3SXepACcll2jPj</t>
+          <t>1kRMZg9mzIEyBfsyN-GnovA2B1ngUn00a</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>CJ01/SHEETAL SHAH/CJ01 - SHEETAL SHAH - Sheetal Shah.pdf</t>
+          <t>VM01/VARUN MALHOTRA/VM01 - VARUN MALHOTRA - Varun Malhotra (PAIP).pdf</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1gmxN0yEVqJePXG_DdK3SXepACcll2jPj/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1kRMZg9mzIEyBfsyN-GnovA2B1ngUn00a/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>2025-10-21T18:32:11.909424+00:00</t>
+          <t>2025-10-22T18:47:19.705378+00:00</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>2025-10-20T07:37:04.060298+00:00</t>
+          <t>2025-10-19T20:15:16.418134+00:00</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>2025-10-20T07:37:04.060298+00:00</t>
+          <t>2025-10-19T20:15:16.418134+00:00</t>
         </is>
       </c>
     </row>
@@ -5725,26 +5958,26 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SAMIR PARIKH</t>
+          <t>RAMESH THOSANI</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MANISH MARIWALA</t>
+          <t>RIDHI SANGHVI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7040002610</t>
+          <t>12-8432-0000115044-02</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5754,17 +5987,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>07/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -5774,29 +6007,34 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>SAMIR PARIKH</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>THOSANI FAMILY</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - MANISH MARIWALA</t>
+          <t>HEALTH TOP UP - RIDHI</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>8005</v>
+        <v>10611</v>
       </c>
       <c r="S26" t="n">
         <v>18</v>
       </c>
       <c r="T26" t="n">
-        <v>9446</v>
+        <v>12521</v>
       </c>
       <c r="U26" t="n">
         <v>15</v>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>1200.75</t>
+          <t>1591.65</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -5811,79 +6049,78 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>Manish Mariwala.pdf</t>
+          <t>Ridhi Sanghvi.pdf</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>1I7KB5WLDIJP7bkuS2l8yGTP6AGFSNTy1</t>
+          <t>197Frp_gifNVb33SeKG7MNMVzFE1oBErB</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>SP01/MANISH MARIWALA/SP01 - MANISH MARIWALA - Manish Mariwala.pdf</t>
+          <t>RT01/RIDHI SANGHVI/RT01 - RIDHI SANGHVI - Ridhi Sanghvi.pdf</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1I7KB5WLDIJP7bkuS2l8yGTP6AGFSNTy1/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/197Frp_gifNVb33SeKG7MNMVzFE1oBErB/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>2025-10-20T07:46:32.561354+00:00</t>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>2025-10-20T07:46:32.561354+00:00</t>
+          <t>2025-10-20T09:49:47.916917+00:00</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
-        </is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI26" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000000</v>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>MANISH MARIWALA</t>
-        </is>
-      </c>
-      <c r="AM26" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5000000</v>
+          <t>RIDHI SANGHVI</t>
+        </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>RIYA MARIWALA</t>
-        </is>
-      </c>
-      <c r="AQ26" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>5000000</v>
+          <t>SHREYAS SANGHVI</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>KANAISHA SANGHVI</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>SHAILESH SOOD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12-8457-0000046958-00</t>
+          <t>12-8451-0000031554-06</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5903,12 +6140,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5918,34 +6155,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>BHALLA FAMILY</t>
+          <t>CHIRAG JOSHI</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - JATIN BHALLA</t>
+          <t>HEALTH INSURANCE - SHAILESH SOOD</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>59028</v>
+        <v>28233</v>
       </c>
       <c r="S27" t="n">
         <v>18</v>
       </c>
       <c r="T27" t="n">
-        <v>69653</v>
+        <v>33315</v>
       </c>
       <c r="U27" t="n">
         <v>15</v>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>8854.20</t>
+          <t>4234.95</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -5960,32 +6192,32 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Jatin Bhalla.pdf</t>
+          <t>Shailesh Sood.pdf</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl</t>
+          <t>1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>JB01/JATIN BHALLA/JB01 - JATIN BHALLA - Jatin Bhalla.pdf</t>
+          <t>CJ01/SHAILESH SOOD/CJ01 - SHAILESH SOOD - Shailesh Sood.pdf</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>2025-10-20T07:26:38.429333+00:00</t>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>2025-10-20T07:26:38.429333+00:00</t>
+          <t>2025-10-20T09:54:53.887971+00:00</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -5994,106 +6226,104 @@
         </is>
       </c>
       <c r="AI27" t="n">
-        <v>2000000</v>
+        <v>300000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>900000</v>
+        <v>180000</v>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>SHAILESH SOOD</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>DURGA BHALLA</t>
+          <t>SNEHAL SOOD</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
         <is>
-          <t>JANHVI BHALLA</t>
+          <t>SAISHA SOOD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>JATIN BHALLA</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MEGHNA BHALLA</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12-8456-0000019722-00</t>
+          <t>1015/367837947/00/000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>ICICI Lombard General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>FIRE INSURANCE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>09/11/2024</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>08/11/2026</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>BHALLA FAMILY</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - MEGHNA BHALLA</t>
-        </is>
+          <t>HOME INSURANCE - JALPA BROKER</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>7200000</v>
       </c>
       <c r="P28" t="n">
-        <v>18141</v>
+        <v>6896</v>
       </c>
       <c r="S28" t="n">
         <v>18</v>
       </c>
       <c r="T28" t="n">
-        <v>21406</v>
+        <v>8137</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>2721.15</t>
+          <t>689.60</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -6108,93 +6338,77 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Meghna Bhalla.pdf</t>
+          <t>Jalpa Broker - Home Protect.pdf</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK</t>
+          <t>1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>JB01/MEGHNA BHALLA/JB01 - MEGHNA BHALLA - Meghna Bhalla.pdf</t>
+          <t>JB02/JALPA BROKER/JB02 - JALPA BROKER - Jalpa Broker - Home Protect.pdf</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>2025-10-20T08:11:19.40031+00:00</t>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>2025-10-20T08:11:19.40031+00:00</t>
-        </is>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>MEGHNA BHALLA</t>
-        </is>
-      </c>
-      <c r="AM28" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>900000</v>
+          <t>2025-10-20T09:58:40.733371+00:00</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0156470784</t>
+          <t>12-8456-0000020466-00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6209,32 +6423,29 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>MH-03-BW-8972(M.BALENO)</t>
-        </is>
-      </c>
-      <c r="O29" t="n">
-        <v>330712</v>
+          <t>HEALTH INURANCE - NIKKI NAIK</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>1482</v>
+        <v>82242</v>
       </c>
       <c r="S29" t="n">
         <v>18</v>
       </c>
       <c r="T29" t="n">
-        <v>5987</v>
+        <v>97045.56</v>
       </c>
       <c r="U29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>296.40</t>
+          <t>12336.30</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
@@ -6249,52 +6460,68 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>Universal Industrial Products.pdf</t>
+          <t>Nikki Naik.pdf</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP</t>
+          <t>1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>UIP01/UNIVERSAL INDUSTRIAL PRODUCTS/UIP01 - UNIVERSAL INDUSTRIAL PRODUCTS - Universal Industrial Products.pdf</t>
+          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik.pdf</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>2025-10-20T09:23:23.499515+00:00</t>
+          <t>2025-10-21T06:02:47.195241+00:00</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>2025-10-20T09:23:23.499515+00:00</t>
-        </is>
+          <t>2025-10-21T06:02:47.195241+00:00</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>NIKKI NAIK</t>
+        </is>
+      </c>
+      <c r="AM29" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>NIKKI NAIK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12-8456-0000019556-00</t>
+          <t>12-8432-0000022945-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -6314,12 +6541,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>23/11/2024</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>22/11/2025</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -6329,29 +6556,29 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>NUTAN AUTO</t>
+          <t>MUKESH NAIK</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>HEALTH TOP UP - NIKKI NAIK</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>65151</v>
+        <v>7105</v>
       </c>
       <c r="S30" t="n">
         <v>18</v>
       </c>
       <c r="T30" t="n">
-        <v>76878</v>
+        <v>8383.9</v>
       </c>
       <c r="U30" t="n">
         <v>15</v>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>9772.65</t>
+          <t>1065.75</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -6366,79 +6593,71 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>Bankim Choksi.pdf</t>
+          <t>Nikki Naik (EC+).pdf</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs</t>
+          <t>1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>BC01/BANKIM CHOKSI/BC01 - BANKIM CHOKSI - Bankim Choksi.pdf</t>
+          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik (EC+).pdf</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>2025-10-20T09:28:10.047436+00:00</t>
+          <t>2025-10-21T06:05:21.333053+00:00</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>2025-10-20T09:28:10.047436+00:00</t>
+          <t>2025-10-21T06:05:21.333053+00:00</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>INDIVIDUAL</t>
-        </is>
+          <t>TOPUP_FLOATER</t>
+        </is>
+      </c>
+      <c r="AI30" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1000000</v>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
-        </is>
-      </c>
-      <c r="AM30" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>NISHA CHOKSI</t>
-        </is>
-      </c>
-      <c r="AQ30" t="n">
-        <v>500000</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>500000</v>
+          <t>NIKKI NAIK</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>MEGHNA BHALLA</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12-8457-0000047400-00</t>
+          <t>12-8456-0000019722-00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6458,12 +6677,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -6478,29 +6697,29 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>INDREX</t>
+          <t>BHALLA FAMILY</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>HEALTH INSURANCE - MEGHNA BHALLA</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>52866</v>
+        <v>18141</v>
       </c>
       <c r="S31" t="n">
         <v>18</v>
       </c>
       <c r="T31" t="n">
-        <v>62382</v>
+        <v>21406</v>
       </c>
       <c r="U31" t="n">
         <v>15</v>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>7929.90</t>
+          <t>2721.15</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
@@ -6515,83 +6734,73 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>Arvind Kanojia.pdf</t>
+          <t>Meghna Bhalla.pdf</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG</t>
+          <t>1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>AK01/ARVIND KANOJIA/AK01 - ARVIND KANOJIA - Arvind Kanojia.pdf</t>
+          <t>JB01/MEGHNA BHALLA/JB01 - MEGHNA BHALLA - Meghna Bhalla.pdf</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1sy1hLVgD47tZRB8rZoGbKOV-74U_hnUK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:14:18.011449+00:00</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>2025-10-20T09:34:38.747085+00:00</t>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>2025-10-20T09:34:38.747085+00:00</t>
+          <t>2025-10-20T08:11:19.40031+00:00</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI31" t="n">
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>MEGHNA BHALLA</t>
+        </is>
+      </c>
+      <c r="AM31" t="n">
         <v>2000000</v>
       </c>
-      <c r="AJ31" t="n">
-        <v>585000</v>
-      </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>ARVIND KANOJIA</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>GAYTRI KANOJIA</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>PAWAN KANOJIA</t>
-        </is>
-      </c>
-      <c r="AX31" t="inlineStr">
-        <is>
-          <t>RISHABH KANOJIA</t>
-        </is>
+      <c r="AN31" t="n">
+        <v>900000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RAMESH THOSANI</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>RIDHI SANGHVI</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12-8432-0000115044-02</t>
+          <t>12-8457-0000046958-00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -6611,12 +6820,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -6631,29 +6840,29 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>THOSANI FAMILY</t>
+          <t>BHALLA FAMILY</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - RIDHI</t>
+          <t>HEALTH INSURANCE - JATIN BHALLA</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>10611</v>
+        <v>59028</v>
       </c>
       <c r="S32" t="n">
         <v>18</v>
       </c>
       <c r="T32" t="n">
-        <v>12521</v>
+        <v>69653</v>
       </c>
       <c r="U32" t="n">
         <v>15</v>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>1591.65</t>
+          <t>8854.20</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
@@ -6668,32 +6877,37 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>Ridhi Sanghvi.pdf</t>
+          <t>Jatin Bhalla.pdf</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>197Frp_gifNVb33SeKG7MNMVzFE1oBErB</t>
+          <t>1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>RT01/RIDHI SANGHVI/RT01 - RIDHI SANGHVI - Ridhi Sanghvi.pdf</t>
+          <t>JB01/JATIN BHALLA/JB01 - JATIN BHALLA - Jatin Bhalla.pdf</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/197Frp_gifNVb33SeKG7MNMVzFE1oBErB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1jH8wCFlBkINA5eoFfHG2Lk40Ui4HwJNl/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:16:23.954499+00:00</t>
         </is>
       </c>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>2025-10-20T09:49:47.916917+00:00</t>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
-          <t>2025-10-20T09:49:47.916917+00:00</t>
+          <t>2025-10-20T07:26:38.429333+00:00</t>
         </is>
       </c>
       <c r="AH32" t="inlineStr">
@@ -6702,49 +6916,49 @@
         </is>
       </c>
       <c r="AI32" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000000</v>
+        <v>900000</v>
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>RIDHI SANGHVI</t>
+          <t>JATIN BHALLA</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>SHREYAS SANGHVI</t>
+          <t>DURGA BHALLA</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>KANAISHA SANGHVI</t>
+          <t>JANHVI BHALLA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SHAILESH SOOD</t>
+          <t>MANISH MARIWALA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12-8451-0000031554-06</t>
+          <t>7040002610</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -6754,17 +6968,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>07/11/2024</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6774,29 +6988,29 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>CHIRAG JOSHI</t>
+          <t>SAMIR PARIKH</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE - SHAILESH SOOD</t>
+          <t>HEALTH TOP UP - MANISH MARIWALA</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>28233</v>
+        <v>8005</v>
       </c>
       <c r="S33" t="n">
         <v>18</v>
       </c>
       <c r="T33" t="n">
-        <v>33315</v>
+        <v>9446</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>4234.95</t>
+          <t>1200.75</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6811,138 +7025,146 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>Shailesh Sood.pdf</t>
+          <t>Manish Mariwala.pdf</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES</t>
+          <t>1I7KB5WLDIJP7bkuS2l8yGTP6AGFSNTy1</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>CJ01/SHAILESH SOOD/CJ01 - SHAILESH SOOD - Shailesh Sood.pdf</t>
+          <t>SP01/MANISH MARIWALA/SP01 - MANISH MARIWALA - Manish Mariwala.pdf</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1k_wPY2beKPVPHgBYAPL0DhsIElTh14ES/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1I7KB5WLDIJP7bkuS2l8yGTP6AGFSNTy1/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:21:40.704675+00:00</t>
         </is>
       </c>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>2025-10-20T09:54:53.887971+00:00</t>
+          <t>2025-10-20T07:46:32.561354+00:00</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>2025-10-20T09:54:53.887971+00:00</t>
+          <t>2025-10-20T07:46:32.561354+00:00</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI33" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>180000</v>
+          <t>INDIVIDUAL</t>
+        </is>
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>SHAILESH SOOD</t>
-        </is>
+          <t>MANISH MARIWALA</t>
+        </is>
+      </c>
+      <c r="AM33" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>5000000</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>SNEHAL SOOD</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>SAISHA SOOD</t>
-        </is>
+          <t>RIYA MARIWALA</t>
+        </is>
+      </c>
+      <c r="AQ33" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1015/367837947/00/000</t>
+          <t>12-8457-0000047400-00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ICICI Lombard General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FIRE INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>09/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>08/11/2026</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>INDREX</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>HOME INSURANCE - JALPA BROKER</t>
-        </is>
-      </c>
-      <c r="O34" t="n">
-        <v>7200000</v>
+          <t>HEALTH INSURANCE</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>6896</v>
+        <v>52866</v>
       </c>
       <c r="S34" t="n">
         <v>18</v>
       </c>
       <c r="T34" t="n">
-        <v>8137</v>
+        <v>62382</v>
       </c>
       <c r="U34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>689.60</t>
+          <t>7929.90</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6957,52 +7179,88 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>Jalpa Broker - Home Protect.pdf</t>
+          <t>Arvind Kanojia.pdf</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO</t>
+          <t>1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>JB02/JALPA BROKER/JB02 - JALPA BROKER - Jalpa Broker - Home Protect.pdf</t>
+          <t>AK01/ARVIND KANOJIA/AK01 - ARVIND KANOJIA - Arvind Kanojia.pdf</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1w6Azyqps1UN2P1b_sYY-TPqKylPo1BIO/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1C9GBo6SYCbIkeCJmPOUDq04Qi--g2FFG/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:30:15.090389+00:00</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>2025-10-20T09:58:40.733371+00:00</t>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
-          <t>2025-10-20T09:58:40.733371+00:00</t>
+          <t>2025-10-20T09:34:38.747085+00:00</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI34" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>585000</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>ARVIND KANOJIA</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>GAYTRI KANOJIA</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>PAWAN KANOJIA</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>RISHABH KANOJIA</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>12-8457-0000047881-00</t>
+          <t>12-8456-0000019556-00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -7022,12 +7280,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -7042,29 +7300,24 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>THOSANI FAMILY</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>HEALTH INSURANCE - GAURAV THOSANI</t>
+          <t>NUTAN AUTO</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>49361</v>
+        <v>65151</v>
       </c>
       <c r="S35" t="n">
         <v>18</v>
       </c>
       <c r="T35" t="n">
-        <v>58245</v>
+        <v>76878</v>
       </c>
       <c r="U35" t="n">
         <v>15</v>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>7404.15</t>
+          <t>9772.65</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
@@ -7079,78 +7332,84 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>Gaurav Thosani.pdf</t>
+          <t>Bankim Choksi.pdf</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2</t>
+          <t>1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>GT01/GAURAV THOSANI/GT01 - GAURAV THOSANI - Gaurav Thosani.pdf</t>
+          <t>BC01/BANKIM CHOKSI/BC01 - BANKIM CHOKSI - Bankim Choksi.pdf</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1by0BjO7ErYrgN8vPx-t2FwrvB755PNYs/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:31:44.176517+00:00</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>2025-10-20T10:03:27.633381+00:00</t>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>2025-10-20T10:03:27.633381+00:00</t>
+          <t>2025-10-20T09:28:10.047436+00:00</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI35" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>5000000</v>
+          <t>INDIVIDUAL</t>
+        </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>GAURAV THOSANI</t>
-        </is>
+          <t>BANKIM CHOKSI</t>
+        </is>
+      </c>
+      <c r="AM35" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>500000</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>NIYATI THOSANI</t>
-        </is>
-      </c>
-      <c r="AT35" t="inlineStr">
-        <is>
-          <t>ANANYA THOSANI</t>
-        </is>
+          <t>NISHA CHOKSI</t>
+        </is>
+      </c>
+      <c r="AQ35" t="n">
+        <v>500000</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>500000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>GAURAV THOSANI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OG-25-1908-3301-00000060</t>
+          <t>12-8457-0000047881-00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -7160,7 +7419,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>PUBLIC LIABILITY</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -7170,17 +7429,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -7190,25 +7449,30 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>THOSANI FAMILY</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PUBLIC LIABILITY INSURANCE</t>
-        </is>
-      </c>
-      <c r="O36" t="n">
-        <v>10000000</v>
+          <t>HEALTH INSURANCE - GAURAV THOSANI</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>7500</v>
+        <v>49361</v>
       </c>
       <c r="S36" t="n">
         <v>18</v>
       </c>
       <c r="T36" t="n">
-        <v>8850</v>
+        <v>58245</v>
+      </c>
+      <c r="U36" t="n">
+        <v>15</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>7404.15</t>
+        </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -7222,77 +7486,108 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
+          <t>Gaurav Thosani.pdf</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm</t>
+          <t>1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
+          <t>GT01/GAURAV THOSANI/GT01 - GAURAV THOSANI - Gaurav Thosani.pdf</t>
         </is>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rRkInE4a2BA-TGv4YUK2T7bqKKSvlaU2/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:34:13.463667+00:00</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>2025-10-21T06:28:16.82056+00:00</t>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
-          <t>2025-10-21T06:28:16.82056+00:00</t>
+          <t>2025-10-20T10:03:27.633381+00:00</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>GAURAV THOSANI</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>NIYATI THOSANI</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>ANANYA THOSANI</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>UNIVERSAL INDUSTRIAL PRODUCTS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12-8456-0000020466-00</t>
+          <t>0156470784</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -7307,29 +7602,32 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>HEALTH INURANCE - NIKKI NAIK</t>
-        </is>
+          <t>MH-03-BW-8972(M.BALENO)</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>330712</v>
       </c>
       <c r="P37" t="n">
-        <v>82242</v>
+        <v>1482</v>
       </c>
       <c r="S37" t="n">
         <v>18</v>
       </c>
       <c r="T37" t="n">
-        <v>97045.56</v>
+        <v>5987</v>
       </c>
       <c r="U37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>12336.30</t>
+          <t>296.40</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
@@ -7344,68 +7642,57 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>Nikki Naik.pdf</t>
+          <t>Universal Industrial Products.pdf</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I</t>
+          <t>1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik.pdf</t>
+          <t>UIP01/UNIVERSAL INDUSTRIAL PRODUCTS/UIP01 - UNIVERSAL INDUSTRIAL PRODUCTS - Universal Industrial Products.pdf</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1SSm7cFz7g_pHFpoHSulpkkh9naO4cM6I/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ilWgC_fHAtlJNzizHIZvpw-m-_47vBiP/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:59:41.540713+00:00</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>2025-10-21T06:02:47.195241+00:00</t>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
-          <t>2025-10-21T06:02:47.195241+00:00</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>NIKKI NAIK</t>
-        </is>
-      </c>
-      <c r="AM37" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>5000000</v>
+          <t>2025-10-20T09:23:23.499515+00:00</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NIKKI NAIK</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>12-8432-0000022945-11</t>
+          <t>OG-25-1908-3316-00000019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -7415,7 +7702,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>DIRECTOR &amp; OFFICER LIABILITY</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -7425,44 +7712,52 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>23/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>22/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HEALTH TOP UP - NIKKI NAIK</t>
-        </is>
+          <t>DIRECTOR &amp; OFFICERS LIABILITY INSURANCE</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>10000000</v>
       </c>
       <c r="P38" t="n">
-        <v>7105</v>
+        <v>8000</v>
       </c>
       <c r="S38" t="n">
         <v>18</v>
       </c>
       <c r="T38" t="n">
-        <v>8383.9</v>
+        <v>9440</v>
       </c>
       <c r="U38" t="n">
         <v>15</v>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>1065.75</t>
+          <t>1200.00</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -7477,86 +7772,72 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>Nikki Naik (EC+).pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj</t>
+          <t>1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>NN01/NIKKI NAIK/NN01 - NIKKI NAIK - Nikki Naik (EC+).pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1J7SSoec5mjVd4RfXUx3aYdhh7kFI21pj/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:06:25.532122+00:00</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>2025-10-21T06:05:21.333053+00:00</t>
+          <t>2025-10-21T06:30:11.80587+00:00</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>2025-10-21T06:05:21.333053+00:00</t>
-        </is>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>TOPUP_FLOATER</t>
-        </is>
-      </c>
-      <c r="AI38" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="AL38" t="inlineStr">
-        <is>
-          <t>NIKKI NAIK</t>
+          <t>2025-10-21T06:30:11.80587+00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>GANSONS PRIVATE LIMITED</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>ARNABH BANERJEE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OG-25-1908-3316-00000019</t>
+          <t>7102082392</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Tata AIG General Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DIRECTOR &amp; OFFICER LIABILITY</t>
+          <t>TRAVEL INSURANCE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Sweta Shah</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7581,32 +7862,29 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>GANSONS</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>DIRECTOR &amp; OFFICERS LIABILITY INSURANCE</t>
-        </is>
-      </c>
-      <c r="O39" t="n">
-        <v>10000000</v>
+          <t>TRAVEL INSURANCE - ARNABH B</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>8000</v>
+        <v>4696</v>
       </c>
       <c r="S39" t="n">
         <v>18</v>
       </c>
       <c r="T39" t="n">
-        <v>9440</v>
+        <v>5541</v>
       </c>
       <c r="U39" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1200.00</t>
+          <t>1878.40</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -7621,52 +7899,52 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
+          <t>Arnabh Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh</t>
+          <t>1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (D&amp;O).pdf</t>
+          <t>GPL01/ARNABH BANERJEE/GPL01 - ARNABH BANERJEE - Arnabh Banerjee (CFT).pdf</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1yC4DPVmkFNjoZqhb94_L6X6ztjC-3szh/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>2025-10-21T06:30:11.80587+00:00</t>
+          <t>2025-10-21T12:29:28.695639+00:00</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>2025-10-21T06:30:11.80587+00:00</t>
+          <t>2025-10-21T12:29:28.695639+00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12-6403-0000009026-08</t>
+          <t>OG-25-1908-4010-00000646</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7676,12 +7954,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
+          <t>BURGLARY INSURANCE</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7706,32 +7979,32 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>STOCK - BURGLARY</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="P40" t="n">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="S40" t="n">
         <v>18</v>
       </c>
       <c r="T40" t="n">
-        <v>1534</v>
+        <v>354</v>
       </c>
       <c r="U40" t="n">
         <v>15</v>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>195.00</t>
+          <t>45.00</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7746,52 +8019,57 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>Mukesh Mehra (PPG).pdf</t>
+          <t>Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK</t>
+          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>MM01/MUKESH MEHRA/MM01 - MUKESH MEHRA - Mukesh Mehra (PPG).pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:51:09.041305+00:00</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>2025-10-21T06:52:04.264021+00:00</t>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
-          <t>2025-10-21T06:52:04.264021+00:00</t>
+          <t>2025-10-21T11:39:51.825797+00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MORNING STAR CO-OP HSG SOC LTD</t>
+          <t>MARSHAH IND ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OG-25-1908-4055-00000545</t>
+          <t>OG-25-1908-1005-00000113</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -7801,7 +8079,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>BHARAT GRIHA RAKSHA</t>
+          <t>MARINE INSURANCE</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -7811,12 +8089,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>14/11/2024</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>13/11/2025</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -7831,35 +8109,35 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>SOCIETY INSURANCE</t>
+          <t>MARINE OPEN POLICY</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>70000000</v>
+        <v>20000000</v>
       </c>
       <c r="P41" t="n">
-        <v>8123</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6400</v>
+        <v>10000</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
       </c>
       <c r="S41" t="n">
         <v>18</v>
       </c>
       <c r="T41" t="n">
-        <v>17137.14</v>
+        <v>11801</v>
       </c>
       <c r="U41" t="n">
         <v>15</v>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>1218.45</t>
+          <t>1500.00</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -7874,80 +8152,77 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>Morning Star Co-Op Hsg Soc Ltd.pdf</t>
+          <t>Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi</t>
+          <t>1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd.pdf</t>
+          <t>MIE01/MARSHAH IND ELECT CO PVT LTD/MIE01 - MARSHAH IND ELECT CO PVT LTD - Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>2025-10-21T06:25:37.570165+00:00</t>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
-          <t>2025-10-21T06:25:37.570165+00:00</t>
-        </is>
-      </c>
-      <c r="BB41" t="n">
-        <v>70000000</v>
+          <t>2025-10-21T13:39:55.591432+00:00</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KIRTI PANDEY</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FHR-1S-24-7466860-05-000</t>
+          <t>12-6403-0000009026-08</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -7962,29 +8237,32 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE-KIRTI</t>
-        </is>
+          <t>ACCIDENT INSURANCE</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>1000000</v>
       </c>
       <c r="P42" t="n">
-        <v>8334</v>
+        <v>1300</v>
       </c>
       <c r="S42" t="n">
         <v>18</v>
       </c>
       <c r="T42" t="n">
-        <v>9834</v>
+        <v>1534</v>
       </c>
       <c r="U42" t="n">
         <v>15</v>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>1250.10</t>
+          <t>195.00</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -7999,93 +8277,82 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>Kirti Pandey.pdf</t>
+          <t>Mukesh Mehra (PPG).pdf</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym</t>
+          <t>1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>BP01/KIRTI PANDEY/BP01 - KIRTI PANDEY - Kirti Pandey.pdf</t>
+          <t>MM01/MUKESH MEHRA/MM01 - MUKESH MEHRA - Mukesh Mehra (PPG).pdf</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QGvmgmVdCNEvt2Atz-N1UNlbUq1ORMjK/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:27:52.158058+00:00</t>
         </is>
       </c>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>2025-10-21T12:17:57.423925+00:00</t>
+          <t>2025-10-21T06:52:04.264021+00:00</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>2025-10-21T12:17:57.423925+00:00</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>INDIVIDUAL</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>KIRTI PANDEY</t>
-        </is>
-      </c>
-      <c r="AM42" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>90000</v>
+          <t>2025-10-21T06:52:04.264021+00:00</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GANSONS PRIVATE LIMITED</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ARNABH BANERJEE</t>
+          <t>SAMEER SHAH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7102082392</t>
+          <t>OG-25-1908-6626-00000003</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Tata AIG General Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE</t>
+          <t>CYBER INSURANCE</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sweta Shah</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>06/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -8098,31 +8365,29 @@
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>GANSONS</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>TRAVEL INSURANCE - ARNABH B</t>
-        </is>
+          <t>CYBER INSURANCE</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>1000000</v>
       </c>
       <c r="P43" t="n">
-        <v>4696</v>
+        <v>4238</v>
       </c>
       <c r="S43" t="n">
         <v>18</v>
       </c>
       <c r="T43" t="n">
-        <v>5541</v>
+        <v>5001</v>
       </c>
       <c r="U43" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>1878.40</t>
+          <t>974.74</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
@@ -8137,52 +8402,57 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>Arnabh Banerjee (CFT).pdf</t>
+          <t>Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc</t>
+          <t>1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>GPL01/ARNABH BANERJEE/GPL01 - ARNABH BANERJEE - Arnabh Banerjee (CFT).pdf</t>
+          <t>SS01/SAMEER SHAH/SS01 - SAMEER SHAH - Sameer Shah (Cyber).pdf</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1rDuNaZBc2hXjaRpGk1UAdNUXq92nLTKc/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>2025-10-21T18:52:57.255874+00:00</t>
         </is>
       </c>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>2025-10-21T12:29:28.695639+00:00</t>
+          <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
-          <t>2025-10-21T12:29:28.695639+00:00</t>
+          <t>2025-10-21T12:32:57.165642+00:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>THREE POINTS MEDICAL SYSTEMS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000646</t>
+          <t>OG-25-1908-4057-00000240</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -8192,57 +8462,60 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>BHARAT LAGHU UDYAM SURAKSHA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>NAMAN BHAT</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>STOCK - BURGLARY</t>
+          <t>STOCK INSURANCE</t>
         </is>
       </c>
       <c r="O44" t="n">
-        <v>1500000</v>
+        <v>50000001</v>
       </c>
       <c r="P44" t="n">
-        <v>300</v>
+        <v>34792</v>
+      </c>
+      <c r="R44" t="n">
+        <v>11500</v>
       </c>
       <c r="S44" t="n">
         <v>18</v>
       </c>
       <c r="T44" t="n">
-        <v>354</v>
+        <v>54625</v>
       </c>
       <c r="U44" t="n">
         <v>15</v>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>45.00</t>
+          <t>5218.80</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
@@ -8257,77 +8530,80 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Burg).pdf</t>
+          <t>Three Points Medical Systems.pdf</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>1mICLx0-Sm2YzrxM048c4DMQg_ydXki21</t>
+          <t>1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Burg).pdf</t>
+          <t>NB01/THREE POINTS MEDICAL SYSTEMS/NB01 - THREE POINTS MEDICAL SYSTEMS - Three Points Medical Systems.pdf</t>
         </is>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1mICLx0-Sm2YzrxM048c4DMQg_ydXki21/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
+          <t>2025-10-21T14:02:55.14086+00:00</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
-          <t>2025-10-21T11:39:51.825797+00:00</t>
-        </is>
+          <t>2025-10-21T14:02:55.14086+00:00</t>
+        </is>
+      </c>
+      <c r="BE44" t="n">
+        <v>50000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>KIRTI PANDEY</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001019</t>
+          <t>FHR-1S-24-7466860-05-000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>11/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -8342,35 +8618,29 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>STOCKS - FIRE</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>1500000</v>
+          <t>HEALTH INSURANCE-KIRTI</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>2716</v>
-      </c>
-      <c r="R45" t="n">
-        <v>345</v>
+        <v>8334</v>
       </c>
       <c r="S45" t="n">
         <v>18</v>
       </c>
       <c r="T45" t="n">
-        <v>3611.98</v>
+        <v>9834</v>
       </c>
       <c r="U45" t="n">
         <v>15</v>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>407.40</t>
+          <t>1250.10</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -8385,36 +8655,54 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>Kotadia Wooltex (Fire).pdf</t>
+          <t>Kirti Pandey.pdf</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
+          <t>1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
+          <t>BP01/KIRTI PANDEY/BP01 - KIRTI PANDEY - Kirti Pandey.pdf</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1qFTGkpGZGlRX7hGetigmYbeFnPbo3Pym/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:45:52.266827+00:00</t>
         </is>
       </c>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
+          <t>2025-10-21T12:17:57.423925+00:00</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
         <is>
-          <t>2025-10-21T11:37:29.922302+00:00</t>
-        </is>
-      </c>
-      <c r="BE45" t="n">
-        <v>1500000</v>
+          <t>2025-10-21T12:17:57.423925+00:00</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>KIRTI PANDEY</t>
+        </is>
+      </c>
+      <c r="AM45" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>90000</v>
       </c>
     </row>
     <row r="46">
@@ -8528,6 +8816,11 @@
           <t>https://drive.google.com/file/d/18xLJZ131RlxeckexP4hKSOcgim0-WtEF/view?usp=drivesdk</t>
         </is>
       </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:48:28.839021+00:00</t>
+        </is>
+      </c>
       <c r="AF46" t="inlineStr">
         <is>
           <t>2025-10-21T11:47:16.00668+00:00</t>
@@ -8572,21 +8865,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>OG-25-1908-4010-00000642</t>
+          <t>12-6403-0000009580-13</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -8596,7 +8889,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>BURGLARY INSURANCE</t>
+          <t>ACCIDENT INSURANCE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -8606,12 +8899,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>12/11/2024</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -8626,32 +8919,29 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>MAVANI</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>5000000</v>
+          <t>ACCIDENT INSURANCE - UMM</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>1000</v>
+        <v>2275</v>
       </c>
       <c r="S47" t="n">
         <v>18</v>
       </c>
       <c r="T47" t="n">
-        <v>1180</v>
+        <v>2684.5</v>
       </c>
       <c r="U47" t="n">
         <v>15</v>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>150.00</t>
+          <t>341.25</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
@@ -8666,67 +8956,72 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>Bombay Merch (Burg).pdf</t>
+          <t>Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
+          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
+          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:50:58.65621+00:00</t>
         </is>
       </c>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>2025-10-21T13:28:42.128316+00:00</t>
+          <t>2025-10-21T11:55:18.192377+00:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>12-6403-0000009580-13</t>
+          <t>FHR-1S-24-7076561-02-000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8751,29 +9046,29 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ACCIDENT INSURANCE - UMM</t>
+          <t>HEALTH INSURANCE</t>
         </is>
       </c>
       <c r="P48" t="n">
-        <v>2275</v>
+        <v>33564</v>
       </c>
       <c r="S48" t="n">
         <v>18</v>
       </c>
       <c r="T48" t="n">
-        <v>2684.5</v>
+        <v>39605.52</v>
       </c>
       <c r="U48" t="n">
         <v>15</v>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>341.25</t>
+          <t>5034.60</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
@@ -8788,77 +9083,108 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>Urmil Mavani.pdf</t>
+          <t>Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ</t>
+          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr">
         <is>
-          <t>UM01/URMIL MAVANI/UM01 - URMIL MAVANI - Urmil Mavani.pdf</t>
+          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/12IuxEO52N71CV2IBbMdhGKI6eXDnoquZ/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>2025-10-22T17:57:40.744268+00:00</t>
         </is>
       </c>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
         <is>
-          <t>2025-10-21T11:55:18.192377+00:00</t>
+          <t>2025-10-21T12:02:59.182091+00:00</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>FLOATER</t>
+        </is>
+      </c>
+      <c r="AI48" t="n">
+        <v>300000</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>90000</v>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>BEENA PANDEY</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>AJAY PANDEY</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>ARYA PANDEY</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FHR-1S-24-7076561-02-000</t>
+          <t>OG-25-1908-4056-00001019</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>12/11/2024</t>
+          <t>11/11/2024</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>11/11/2025</t>
+          <t>10/11/2025</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -8873,29 +9199,35 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>HEALTH INSURANCE</t>
-        </is>
+          <t>STOCKS - FIRE</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>1500000</v>
       </c>
       <c r="P49" t="n">
-        <v>33564</v>
+        <v>2716</v>
+      </c>
+      <c r="R49" t="n">
+        <v>345</v>
       </c>
       <c r="S49" t="n">
         <v>18</v>
       </c>
       <c r="T49" t="n">
-        <v>39605.52</v>
+        <v>3611.98</v>
       </c>
       <c r="U49" t="n">
         <v>15</v>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>5034.60</t>
+          <t>407.40</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
@@ -8910,78 +9242,60 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>Beena Pandey.pdf</t>
+          <t>Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB</t>
+          <t>1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>BP01/BEENA PANDEY/BP01 - BEENA PANDEY - Beena Pandey.pdf</t>
+          <t>KW01/KOTADIA WOOLTEX/KW01 - KOTADIA WOOLTEX - Kotadia Wooltex (Fire).pdf</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vLWeLaFzBaaMX2pMi4B09_jt3cwi9JQB/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1ovKtLUC15uVCtOXT0i8dE4rAqiTEAIFZ/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:50:28.383878+00:00</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
-          <t>2025-10-21T12:02:59.182091+00:00</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>FLOATER</t>
-        </is>
-      </c>
-      <c r="AI49" t="n">
-        <v>300000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>90000</v>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
-          <t>BEENA PANDEY</t>
-        </is>
-      </c>
-      <c r="AP49" t="inlineStr">
-        <is>
-          <t>AJAY PANDEY</t>
-        </is>
-      </c>
-      <c r="AT49" t="inlineStr">
-        <is>
-          <t>ARYA PANDEY</t>
-        </is>
+          <t>2025-10-21T11:37:29.922302+00:00</t>
+        </is>
+      </c>
+      <c r="BE49" t="n">
+        <v>1500000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OG-25-1908-4056-00001018</t>
+          <t>OG-25-1908-4055-00000545</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -8991,7 +9305,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
+          <t>BHARAT GRIHA RAKSHA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -9001,12 +9315,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -9021,28 +9335,36 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>CRESTA INSTRUMENTS</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
+          <t>SOCIETY INSURANCE</t>
         </is>
       </c>
       <c r="O50" t="n">
-        <v>5000000</v>
+        <v>70000000</v>
       </c>
       <c r="P50" t="n">
-        <v>4492</v>
+        <v>8123</v>
       </c>
       <c r="R50" t="n">
-        <v>1150</v>
+        <v>6400</v>
       </c>
       <c r="S50" t="n">
         <v>18</v>
       </c>
       <c r="T50" t="n">
-        <v>6658</v>
+        <v>17137.14</v>
+      </c>
+      <c r="U50" t="n">
+        <v>15</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>1218.45</t>
+        </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -9056,55 +9378,60 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>Bombay Merch (Fire).pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd.pdf</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
+          <t>1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd.pdf</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1S9j7uGNKvDWGt9PEhzsHBMJsLdhk3mZi/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
+        <is>
+          <t>2025-10-22T18:56:42.230226+00:00</t>
         </is>
       </c>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
+          <t>2025-10-21T06:25:37.570165+00:00</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>2025-10-21T13:26:38.121588+00:00</t>
-        </is>
-      </c>
-      <c r="BE50" t="n">
-        <v>5000000</v>
+          <t>2025-10-21T06:25:37.570165+00:00</t>
+        </is>
+      </c>
+      <c r="BB50" t="n">
+        <v>70000000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MARSHAH INDL ELECT CO PVT LTD</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MARSHAH IND ELECT CO PVT LTD</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>OG-25-1908-1005-00000113</t>
+          <t>OG-25-1908-4056-00001018</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9114,7 +9441,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MARINE INSURANCE</t>
+          <t>BHARAT SOOKSHMA UDYAM SURAKSHA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9124,12 +9451,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>14/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -9149,31 +9476,23 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>MARINE OPEN POLICY</t>
+          <t>STOCK INSURANCE</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>20000000</v>
+        <v>5000000</v>
       </c>
       <c r="P51" t="n">
-        <v>10000</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1</v>
+        <v>4492</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1150</v>
       </c>
       <c r="S51" t="n">
         <v>18</v>
       </c>
       <c r="T51" t="n">
-        <v>11801</v>
-      </c>
-      <c r="U51" t="n">
-        <v>15</v>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>1500.00</t>
-        </is>
+        <v>6658</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -9187,112 +9506,125 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+          <t>Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT</t>
+          <t>1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
         <is>
-          <t>MIE01/MARSHAH IND ELECT CO PVT LTD/MIE01 - MARSHAH IND ELECT CO PVT LTD - Marshah Indl Electronics Pvt Ltd (Inland Transit).pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Fire).pdf</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QnD9zU63eXp2122zVDbhjQXxwm8mEXcT/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1h4VXamR0hzpdvjzMoXyyaXSOsqfX3ZXs/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:10:04.961998+00:00</t>
         </is>
       </c>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>2025-10-21T13:39:55.591432+00:00</t>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
-          <t>2025-10-21T13:39:55.591432+00:00</t>
-        </is>
+          <t>2025-10-21T13:26:38.121588+00:00</t>
+        </is>
+      </c>
+      <c r="BE51" t="n">
+        <v>5000000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>BOMBAY MERCH</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BOMBAY MERCH</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>OG-25-1908-4010-00000642</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BURGLARY INSURANCE</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>13/11/2024</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12/11/2025</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>RENEWAL</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
           <t>SAMEER SHAH</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>OG-25-1908-6626-00000003</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Bajaj General Insurance Limited</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>CYBER INSURANCE</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Sameer Shah</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>12/11/2024</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>11/11/2025</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>NEW</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>SAMEER SHAH</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>CRESTA INSTRUMENTS</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>STOCK INSURANCE</t>
         </is>
       </c>
       <c r="O52" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="P52" t="n">
-        <v>4238</v>
+        <v>1000</v>
       </c>
       <c r="S52" t="n">
         <v>18</v>
       </c>
       <c r="T52" t="n">
-        <v>5001</v>
+        <v>1180</v>
       </c>
       <c r="U52" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>974.74</t>
+          <t>150.00</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9307,57 +9639,57 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>Sameer Shah (Cyber).pdf</t>
+          <t>Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj</t>
+          <t>1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>SS01/SAMEER SHAH/SS01 - SAMEER SHAH - Sameer Shah (Cyber).pdf</t>
+          <t>BM01/BOMBAY MERCH/BM01 - BOMBAY MERCH - Bombay Merch (Burg).pdf</t>
         </is>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1GHZXC75fFr1zc-NBxPESSm7qHAkGVeqj/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1IDmkrjcXJvDgK0jn28Qb-JoONfwMK9Ae/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>2025-10-21T18:52:57.255874+00:00</t>
+          <t>2025-10-22T19:12:19.990772+00:00</t>
         </is>
       </c>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>2025-10-21T12:32:57.165642+00:00</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>2025-10-21T12:32:57.165642+00:00</t>
+          <t>2025-10-21T13:28:42.128316+00:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NAMAN BHAT</t>
+          <t>NARENDRA MEHTA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>THREE POINTS MEDICAL SYSTEMS</t>
+          <t>DIGANT MEHTA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OG-25-1908-4057-00000240</t>
+          <t>OG-25-1908-6626-00000018</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9367,7 +9699,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BHARAT LAGHU UDYAM SURAKSHA</t>
+          <t>CYBER INSURANCE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -9377,12 +9709,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>13/11/2024</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>12/11/2025</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -9392,35 +9724,37 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>NAMAN BHAT</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>N.MEHTA &amp; CO</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>STOCK INSURANCE</t>
+          <t>CYBER INSURANCE</t>
         </is>
       </c>
       <c r="O53" t="n">
-        <v>50000001</v>
+        <v>1000000</v>
       </c>
       <c r="P53" t="n">
-        <v>34792</v>
-      </c>
-      <c r="R53" t="n">
-        <v>11500</v>
+        <v>4238</v>
       </c>
       <c r="S53" t="n">
         <v>18</v>
       </c>
       <c r="T53" t="n">
-        <v>54625</v>
+        <v>5001</v>
       </c>
       <c r="U53" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>5218.80</t>
+          <t>974.74</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9435,120 +9769,112 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>Three Points Medical Systems.pdf</t>
+          <t>Digant Mehta (Cyber).pdf</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N</t>
+          <t>1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>NB01/THREE POINTS MEDICAL SYSTEMS/NB01 - THREE POINTS MEDICAL SYSTEMS - Three Points Medical Systems.pdf</t>
+          <t>NM02/DIGANT MEHTA/NM02 - DIGANT MEHTA - Digant Mehta (Cyber).pdf</t>
         </is>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1zqEKDbaYoZdWQQJe6Z7gFyjn5PtuZK9N/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>2025-10-21T14:02:55.14086+00:00</t>
+          <t>2025-10-21T14:09:20.440661+00:00</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
-          <t>2025-10-21T14:02:55.14086+00:00</t>
-        </is>
-      </c>
-      <c r="BE53" t="n">
-        <v>50000001</v>
+          <t>2025-10-21T14:09:20.440661+00:00</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NARENDRA MEHTA</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIGANT MEHTA</t>
+          <t>NASEEM DHROLIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OG-25-1908-6626-00000018</t>
+          <t>132/18/11/1125/MOD/0000090942</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bajaj General Insurance Limited</t>
+          <t>Generali Central Insurance Co Ltd</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>MOTOR INSURANCE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sameer Shah</t>
+          <t>Vikas Mhatre</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>13/11/2024</t>
+          <t>15/11/2024</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>12/11/2025</t>
+          <t>14/11/2025</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>RENEWAL</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>SAMEER SHAH</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>N.MEHTA &amp; CO</t>
+          <t>MUKESH NAIK</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>CYBER INSURANCE</t>
+          <t>MH-02-FU-7802(ASTOR VTI)</t>
         </is>
       </c>
       <c r="O54" t="n">
-        <v>1000000</v>
+        <v>1277216</v>
       </c>
       <c r="P54" t="n">
-        <v>4238</v>
+        <v>15869</v>
       </c>
       <c r="S54" t="n">
         <v>18</v>
       </c>
       <c r="T54" t="n">
-        <v>5001</v>
+        <v>18725</v>
       </c>
       <c r="U54" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>974.74</t>
+          <t>2380.35</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9563,113 +9889,110 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Digant Mehta (Cyber).pdf</t>
+          <t>Naseem Dhrolia.pdf</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI</t>
+          <t>1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>NM02/DIGANT MEHTA/NM02 - DIGANT MEHTA - Digant Mehta (Cyber).pdf</t>
+          <t>MN01/NASEEM DHROLIA/MN01 - NASEEM DHROLIA - Naseem Dhrolia.pdf</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1QpQnV5iQ3Xe19Pr-Hmmetf8VUyjHG7nI/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm/view?usp=drivesdk</t>
         </is>
       </c>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>2025-10-21T14:09:20.440661+00:00</t>
+          <t>2025-10-21T20:06:24.683317+00:00</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
-          <t>2025-10-21T14:09:20.440661+00:00</t>
+          <t>2025-10-21T20:06:24.683317+00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NASEEM DHROLIA</t>
+          <t>MORNING STAR CO-OP HSG SOC LTD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>132/18/11/1125/MOD/0000090942</t>
+          <t>OG-25-1908-3301-00000060</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Generali Central Insurance Co Ltd</t>
+          <t>Bajaj General Insurance Limited</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MOTOR INSURANCE</t>
+          <t>PUBLIC LIABILITY</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Vikas Mhatre</t>
+          <t>Sameer Shah</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>15/11/2024</t>
+          <t>06/11/2024</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>14/11/2025</t>
+          <t>05/11/2025</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>RENEWAL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>MUKESH NAIK</t>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>MH-02-FU-7802(ASTOR VTI)</t>
+          <t>PUBLIC LIABILITY INSURANCE</t>
         </is>
       </c>
       <c r="O55" t="n">
-        <v>1277216</v>
+        <v>10000000</v>
       </c>
       <c r="P55" t="n">
-        <v>15869</v>
+        <v>7500</v>
       </c>
       <c r="S55" t="n">
         <v>18</v>
       </c>
       <c r="T55" t="n">
-        <v>18725</v>
-      </c>
-      <c r="U55" t="n">
-        <v>15</v>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>2380.35</t>
-        </is>
+        <v>8850</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -9683,32 +10006,37 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>Naseem Dhrolia.pdf</t>
+          <t>Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm</t>
+          <t>1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>MN01/NASEEM DHROLIA/MN01 - NASEEM DHROLIA - Naseem Dhrolia.pdf</t>
+          <t>RM01/MORNING STAR CO-OP HSG SOC LTD/RM01 - MORNING STAR CO-OP HSG SOC LTD - Morning Star Co-Op Hsg Soc Ltd (PL).pdf</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>https://drive.google.com/file/d/1vxvgyaltd4nml5wNYKW_ZSW1ZcVkoZYm/view?usp=drivesdk</t>
+          <t>https://drive.google.com/file/d/1Lux4Q7Txa0N8sa7kt22WOJO6eksUpYNm/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="AD55" t="inlineStr">
+        <is>
+          <t>2025-10-22T19:05:11.582774+00:00</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>2025-10-21T20:06:24.683317+00:00</t>
+          <t>2025-10-21T06:28:16.82056+00:00</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
-          <t>2025-10-21T20:06:24.683317+00:00</t>
+          <t>2025-10-21T06:28:16.82056+00:00</t>
         </is>
       </c>
     </row>
@@ -10600,378 +10928,378 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BC01</t>
+          <t>AK01</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BANKIM CHOKSI</t>
+          <t>ARVIND KANOJIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>919821252258</t>
+          <t>919594994935</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>nutanenetrprize@hotmail.com</t>
+          <t>arvindkanojia@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AK01</t>
+          <t>RT01</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AK</t>
+          <t>RT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ARVIND KANOJIA</t>
+          <t>RAMESH THOSANI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>919594994935</t>
+          <t>919930370583</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>arvindkanojia@hotmail.com</t>
+          <t>info@instainsure.in</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RT01</t>
+          <t>JB02</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>RT</t>
+          <t>JB</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RAMESH THOSANI</t>
+          <t>JALPA BROKER</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>919930370583</t>
+          <t>919820182754</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>info@instainsure.in</t>
+          <t>jalpabroker@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JB02</t>
+          <t>RM01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>JB</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JALPA BROKER</t>
+          <t>RAJKUMAR MAMTANI</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>919820182754</t>
+          <t>919892244274</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>jalpabroker@gmail.com</t>
+          <t>rajkumar_mamtani@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RM01</t>
+          <t>MM01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RAJKUMAR MAMTANI</t>
+          <t>MUKESH MEHRA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>919892244274</t>
+          <t>919820337477</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>rajkumar_mamtani@yahoo.com</t>
+          <t>mukesh1952mehra@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MM01</t>
+          <t>DS01</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>DS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MUKESH MEHRA</t>
+          <t>Dhruv Shah</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>919820337477</t>
+          <t>919920939565</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>mukesh1952mehra@gmail.com</t>
+          <t>dhruvsshah05@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DS01</t>
+          <t>KW01</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Dhruv Shah</t>
+          <t>KOTADIA WOOLTEX</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>919920939565</t>
+          <t>919820191855</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>dhruvsshah05@gmail.com</t>
+          <t>manojkotadia4@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KW01</t>
+          <t>RM02</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>KOTADIA WOOLTEX</t>
+          <t>ROSHAN MACHADO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>919820191855</t>
+          <t>919920368742</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>manojkotadia4@gmail.com</t>
+          <t>roshan.machado1@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RM02</t>
+          <t>UM01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>UM</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ROSHAN MACHADO</t>
+          <t>URMIL MAVANI</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>919920368742</t>
+          <t>919821156162</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>roshan.machado1@gmail.com</t>
+          <t>urmil@jkcolors.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>UM01</t>
+          <t>BP01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>UM</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>URMIL MAVANI</t>
+          <t>BEENA PANDEY</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>919821156162</t>
+          <t>919967524040</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>urmil@jkcolors.com</t>
+          <t>beenapandey888@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BP01</t>
+          <t>BM01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BEENA PANDEY</t>
+          <t>BOMBAY MERCH</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>919967524040</t>
+          <t>919930010210</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>beenapandey888@gmail.com</t>
+          <t>i@akshaybutani.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BM01</t>
+          <t>MIE01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>MIE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOMBAY MERCH</t>
+          <t>MARSHAH INDL ELECT CO PVT LTD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>919930010210</t>
+          <t>919324031876</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>i@akshaybutani.com</t>
+          <t>accounts@marshah.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MIE01</t>
+          <t>NM02</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MIE</t>
+          <t>NM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MARSHAH INDL ELECT CO PVT LTD</t>
+          <t>NARENDRA MEHTA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>919324031876</t>
+          <t>919821097306</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>accounts@marshah.com</t>
+          <t>mehtanm50@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NM02</t>
+          <t>BC01</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NM</t>
+          <t>BC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NARENDRA MEHTA</t>
+          <t>BANKIM CHOKSI</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>919821097306</t>
+          <t>919821252258</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>mehtanm50@gmail.com</t>
+          <t>nutanenterprize@hotmail.com</t>
         </is>
       </c>
     </row>
@@ -12220,7 +12548,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>nutanenetrprize@hotmail.com</t>
+          <t>nutanenterprize@hotmail.com</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -13796,7 +14124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13832,7 +14160,7 @@
     <col width="15" customWidth="1" min="26" max="26"/>
     <col width="13" customWidth="1" min="27" max="27"/>
     <col width="15" customWidth="1" min="28" max="28"/>
-    <col width="19" customWidth="1" min="29" max="29"/>
+    <col width="24" customWidth="1" min="29" max="29"/>
     <col width="13" customWidth="1" min="30" max="30"/>
     <col width="34" customWidth="1" min="31" max="31"/>
     <col width="12" customWidth="1" min="32" max="32"/>
@@ -13840,6 +14168,17 @@
     <col width="34" customWidth="1" min="34" max="34"/>
     <col width="17" customWidth="1" min="35" max="35"/>
     <col width="24" customWidth="1" min="36" max="36"/>
+    <col width="34" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="30" customWidth="1" min="39" max="39"/>
+    <col width="24" customWidth="1" min="40" max="40"/>
+    <col width="29" customWidth="1" min="41" max="41"/>
+    <col width="40" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="43" max="43"/>
+    <col width="29" customWidth="1" min="44" max="44"/>
+    <col width="32" customWidth="1" min="45" max="45"/>
+    <col width="18" customWidth="1" min="46" max="46"/>
+    <col width="36" customWidth="1" min="47" max="47"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14023,6 +14362,61 @@
           <t>Archived By</t>
         </is>
       </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Updated At</t>
+        </is>
+      </c>
+      <c r="AL1" s="2" t="inlineStr">
+        <is>
+          <t>Health - Plan Type</t>
+        </is>
+      </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>Health - Floater Sum Insured</t>
+        </is>
+      </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>Health - Floater Bonus</t>
+        </is>
+      </c>
+      <c r="AO1" s="2" t="inlineStr">
+        <is>
+          <t>Health - Floater Deductible</t>
+        </is>
+      </c>
+      <c r="AP1" s="2" t="inlineStr">
+        <is>
+          <t>Health - Insured Members</t>
+        </is>
+      </c>
+      <c r="AQ1" s="2" t="inlineStr">
+        <is>
+          <t>Factory - Building</t>
+        </is>
+      </c>
+      <c r="AR1" s="2" t="inlineStr">
+        <is>
+          <t>Factory - Plant &amp; Machinery</t>
+        </is>
+      </c>
+      <c r="AS1" s="2" t="inlineStr">
+        <is>
+          <t>Factory - Furniture &amp; Fittings</t>
+        </is>
+      </c>
+      <c r="AT1" s="2" t="inlineStr">
+        <is>
+          <t>Factory - Stocks</t>
+        </is>
+      </c>
+      <c r="AU1" s="2" t="inlineStr">
+        <is>
+          <t>Factory - Electrical Installations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -14586,6 +14980,334 @@
         <is>
           <t>sameer@instainsure.in</t>
         </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>72</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DS01</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>53</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HEALTH INSURANCE</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>XYZABC123</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>16ms3RDE3DTD6aQPgn73iWjTeX_7XGR-X</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>DS01/Dhruv Shah/DS01 - Dhruv Shah - EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/16ms3RDE3DTD6aQPgn73iWjTeX_7XGR-X/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Dhruv Shah</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>22/10/2025</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>18</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1298</v>
+      </c>
+      <c r="X6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>165</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Health Insurance-Dhruv</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2025-10-22T09:13:17.147707+00:00</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>2025-10-22T09:16:25.649213+00:00</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>dhruvsshah05@gmail.com</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>2025-10-22T09:13:17.147707+00:00</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>TOPUP_INDIVIDUAL</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Dhruv Shah (SI: 1000.0, Bonus: 1000.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>54</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DS01</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>53</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Bajaj General Insurance Limited</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>BHARAT GRIHA RAKSHA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>OG123</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>DS01/Dhruv Shah/EC1M2.pdf</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://drive.google.com/file/d/1kwcD88lRRRfl6btK5Vg2G0ArBqi6aK1K/view?usp=drivesdk</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>21/10/2025</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Sameer Shah</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>19/10/2025</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>31/10/2025</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>UPI</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>18</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1298</v>
+      </c>
+      <c r="X7" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>NEW</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>SAMEER SHAH</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Factory Insurance</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>2025-10-22T14:40:13.414801+00:00</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>2025-10-21T10:40:05.721536+00:00</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>2025-10-22T14:34:46.114755+00:00</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>renewal</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>dhruvsshah05@gmail.com</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>2025-10-21T10:40:05.721536+00:00</t>
+        </is>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
